--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="2024">
   <si>
     <t>identifier</t>
   </si>
@@ -6242,10 +6242,106 @@
     <t>My preferences</t>
   </si>
   <si>
-    <t>/container/user_setup.html</t>
-  </si>
-  <si>
-    <t>/container/user_remove.html</t>
+    <t>URL MongoDB</t>
+  </si>
+  <si>
+    <t>MONGO_URL</t>
+  </si>
+  <si>
+    <t>application_setup</t>
+  </si>
+  <si>
+    <t>RESOURCES_MAIN_PATH</t>
+  </si>
+  <si>
+    <t>MAIN_PATH</t>
+  </si>
+  <si>
+    <t>STATICS_PATH</t>
+  </si>
+  <si>
+    <t>TEMPLATES_STATICS_PATH</t>
+  </si>
+  <si>
+    <t>WORKING_PATH</t>
+  </si>
+  <si>
+    <t>MAILGUN_DOMAIN</t>
+  </si>
+  <si>
+    <t>MAILGUN_FROM</t>
+  </si>
+  <si>
+    <t>MAILGUN_DEFAULT_CAMPAIGN</t>
+  </si>
+  <si>
+    <t>Resources main path</t>
+  </si>
+  <si>
+    <t>Main application path</t>
+  </si>
+  <si>
+    <t>Django Statics files path</t>
+  </si>
+  <si>
+    <t>Django Templates files path</t>
+  </si>
+  <si>
+    <t>MAILGUN_KEY</t>
+  </si>
+  <si>
+    <t>Temporary working path</t>
+  </si>
+  <si>
+    <t>Mailgun domain</t>
+  </si>
+  <si>
+    <t>Mailgun sender</t>
+  </si>
+  <si>
+    <t>Mailgun default campaign</t>
+  </si>
+  <si>
+    <t>SETUP_MAILGUN_ENABLE</t>
+  </si>
+  <si>
+    <t>Mailgun key</t>
+  </si>
+  <si>
+    <t>Mailgun enable</t>
+  </si>
+  <si>
+    <t>MAILGUN_ENABLED</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Mon compte</t>
+  </si>
+  <si>
+    <t>Mes préférences</t>
+  </si>
+  <si>
+    <t>Close my account</t>
+  </si>
+  <si>
+    <t>Révoquer mon accès</t>
+  </si>
+  <si>
+    <t>Setup application</t>
+  </si>
+  <si>
+    <t>Paramètres de l'application</t>
+  </si>
+  <si>
+    <t>/container/user/setup.html</t>
+  </si>
+  <si>
+    <t>/container/user/remove.html</t>
+  </si>
+  <si>
+    <t>/container/application/setup.html</t>
   </si>
 </sst>
 </file>
@@ -7081,10 +7177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E616"/>
+  <dimension ref="A1:E627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A628" sqref="A628:XFD628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17568,6 +17664,203 @@
         <v>1</v>
       </c>
     </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" t="str">
+        <f>"SETUP_" &amp; C617</f>
+        <v>SETUP_MONGO_URL</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E617" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="5" t="str">
+        <f t="shared" ref="A618:A627" si="0">"SETUP_" &amp; C618</f>
+        <v>SETUP_RESOURCES_MAIN_PATH</v>
+      </c>
+      <c r="B618" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D618" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E618" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_MAIN_PATH</v>
+      </c>
+      <c r="B619" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D619" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E619" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_STATICS_PATH</v>
+      </c>
+      <c r="B620" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D620" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E620" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_TEMPLATES_STATICS_PATH</v>
+      </c>
+      <c r="B621" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D621" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E621" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_WORKING_PATH</v>
+      </c>
+      <c r="B622" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D622" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E622" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C623" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D623" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E623" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_MAILGUN_KEY</v>
+      </c>
+      <c r="B624" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C624" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D624" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E624" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_MAILGUN_DOMAIN</v>
+      </c>
+      <c r="B625" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D625" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E625" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_MAILGUN_FROM</v>
+      </c>
+      <c r="B626" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D626" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E626" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>SETUP_MAILGUN_DEFAULT_CAMPAIGN</v>
+      </c>
+      <c r="B627" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C627" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D627" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E627" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -17576,10 +17869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17588,7 +17881,7 @@
     <col min="2" max="3" width="23.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -17664,28 +17957,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1755</v>
+        <v>1962</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1898</v>
+        <v>1677</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1947</v>
+        <v>1985</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1944</v>
+        <v>1983</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1944</v>
+        <v>1983</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>1944</v>
+        <v>1983</v>
       </c>
       <c r="K3" s="5" t="b">
         <v>0</v>
@@ -17693,28 +17986,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1940</v>
+        <v>1945</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1946</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1962</v>
+        <v>1755</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1499</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1985</v>
+        <v>1947</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1983</v>
+        <v>1942</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1983</v>
+        <v>1942</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1983</v>
+        <v>1942</v>
       </c>
       <c r="K4" s="5" t="b">
         <v>0</v>
@@ -17722,28 +18018,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1943</v>
+        <v>1945</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1950</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1962</v>
+        <v>1755</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1499</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1898</v>
+        <v>1677</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1985</v>
+        <v>1947</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1984</v>
+        <v>1942</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1984</v>
+        <v>1942</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1984</v>
+        <v>1942</v>
       </c>
       <c r="K5" s="5" t="b">
         <v>0</v>
@@ -17751,130 +18050,130 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>1962</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1947</v>
+        <v>1986</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1954</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1942</v>
+        <v>1955</v>
       </c>
       <c r="K6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>1962</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1898</v>
+        <v>1677</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1947</v>
+        <v>1986</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1956</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1944</v>
+        <v>1959</v>
       </c>
       <c r="K7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>1962</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1947</v>
+        <v>1986</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1957</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1942</v>
+        <v>1960</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1942</v>
+        <v>1960</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1942</v>
+        <v>1960</v>
       </c>
       <c r="K8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>1962</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1898</v>
+        <v>1677</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1947</v>
+        <v>1986</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1958</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1944</v>
+        <v>1961</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1944</v>
+        <v>1961</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1944</v>
+        <v>1961</v>
       </c>
       <c r="K9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -17882,7 +18181,7 @@
         <v>1952</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1962</v>
@@ -17894,16 +18193,16 @@
         <v>1986</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1954</v>
+        <v>1964</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1955</v>
+        <v>1966</v>
       </c>
       <c r="K10" s="5" t="b">
         <v>1</v>
@@ -17914,7 +18213,7 @@
         <v>1952</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1953</v>
+        <v>1963</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1962</v>
@@ -17926,16 +18225,16 @@
         <v>1986</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1956</v>
+        <v>1965</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="K11" s="5" t="b">
         <v>1</v>
@@ -17946,31 +18245,28 @@
         <v>1952</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1953</v>
+        <v>1987</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1962</v>
+        <v>1988</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>1957</v>
+        <v>2021</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1960</v>
+        <v>1989</v>
       </c>
       <c r="K12" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -17978,31 +18274,28 @@
         <v>1952</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1953</v>
+        <v>1987</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1962</v>
+        <v>1988</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>1958</v>
+        <v>2022</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1961</v>
+        <v>2017</v>
       </c>
       <c r="K13" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -18010,7 +18303,7 @@
         <v>1952</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1963</v>
+        <v>2014</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1962</v>
@@ -18019,19 +18312,16 @@
         <v>1677</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>1964</v>
+        <v>2023</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1966</v>
+        <v>2019</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>1966</v>
+        <v>2019</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1966</v>
+        <v>2019</v>
       </c>
       <c r="K14" s="5" t="b">
         <v>1</v>
@@ -18039,86 +18329,89 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1963</v>
+        <v>1943</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1962</v>
+        <v>1755</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1499</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1677</v>
+        <v>1898</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>1965</v>
+        <v>1947</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1967</v>
+        <v>1944</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>1967</v>
+        <v>1944</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1967</v>
+        <v>1944</v>
       </c>
       <c r="K15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1987</v>
+        <v>1943</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1988</v>
+        <v>1962</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1499</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1677</v>
+        <v>1898</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="K16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1948</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>1987</v>
+        <v>1949</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1988</v>
+        <v>1755</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1677</v>
+        <v>1898</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1991</v>
+        <v>1947</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1989</v>
+        <v>1944</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1989</v>
+        <v>1944</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>1989</v>
+        <v>1944</v>
       </c>
       <c r="K17" s="5" t="b">
         <v>0</v>
@@ -18126,34 +18419,34 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1968</v>
+        <v>1948</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1969</v>
+        <v>1951</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1962</v>
+        <v>1755</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>1898</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1971</v>
+        <v>1944</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1971</v>
+        <v>1944</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1971</v>
+        <v>1944</v>
       </c>
       <c r="K18" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -18173,16 +18466,16 @@
         <v>1986</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="K19" s="5" t="b">
         <v>1</v>
@@ -18205,16 +18498,16 @@
         <v>1986</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="K20" s="5" t="b">
         <v>1</v>
@@ -18237,16 +18530,16 @@
         <v>1986</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="K21" s="5" t="b">
         <v>1</v>
@@ -18257,7 +18550,7 @@
         <v>1968</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1962</v>
@@ -18269,16 +18562,16 @@
         <v>1986</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="K22" s="5" t="b">
         <v>1</v>
@@ -18301,23 +18594,143 @@
         <v>1986</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="K23" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>1965</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>1976</v>
       </c>
-      <c r="K23" s="5" t="b">
+      <c r="K24" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K25" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="K26" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="K27" s="5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -7179,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E627"/>
   <sheetViews>
-    <sheetView topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A628" sqref="A628:XFD628"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17871,7 +17871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="2123">
   <si>
     <t>identifier</t>
   </si>
@@ -5318,9 +5318,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>langage</t>
-  </si>
-  <si>
     <t>field_label</t>
   </si>
   <si>
@@ -5549,9 +5546,6 @@
     <t>action_type</t>
   </si>
   <si>
-    <t>action_label</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
@@ -6173,30 +6167,18 @@
     <t>Containers fields</t>
   </si>
   <si>
-    <t>Object definitions</t>
-  </si>
-  <si>
-    <t>Réglages</t>
-  </si>
-  <si>
     <t>Présentation</t>
   </si>
   <si>
     <t>Données</t>
   </si>
   <si>
-    <t>Création d'éléments</t>
-  </si>
-  <si>
     <t>Détails des éléments</t>
   </si>
   <si>
     <t>Listes d'éléments</t>
   </si>
   <si>
-    <t>Menu des éléments</t>
-  </si>
-  <si>
     <t>Champs des éléments</t>
   </si>
   <si>
@@ -6224,9 +6206,6 @@
     <t>Work on</t>
   </si>
   <si>
-    <t>Travailler</t>
-  </si>
-  <si>
     <t>/index.html</t>
   </si>
   <si>
@@ -6317,18 +6296,12 @@
     <t>Application</t>
   </si>
   <si>
-    <t>Mon compte</t>
-  </si>
-  <si>
     <t>Mes préférences</t>
   </si>
   <si>
     <t>Close my account</t>
   </si>
   <si>
-    <t>Révoquer mon accès</t>
-  </si>
-  <si>
     <t>Setup application</t>
   </si>
   <si>
@@ -6342,6 +6315,330 @@
   </si>
   <si>
     <t>/container/application/setup.html</t>
+  </si>
+  <si>
+    <t>results.CONT_MAIL_CAMPAIGN.header</t>
+  </si>
+  <si>
+    <t>results.CONT_COMPANY.header</t>
+  </si>
+  <si>
+    <t>results.CONT_PERSON.header</t>
+  </si>
+  <si>
+    <t>results.CONT_UNIVERSE.header</t>
+  </si>
+  <si>
+    <t>All mails campaigns</t>
+  </si>
+  <si>
+    <t>All compagnies</t>
+  </si>
+  <si>
+    <t>All persons</t>
+  </si>
+  <si>
+    <t>All universes</t>
+  </si>
+  <si>
+    <t>Toutes les campagnes de mailing</t>
+  </si>
+  <si>
+    <t>Toutes les compagnies</t>
+  </si>
+  <si>
+    <t>Toutes les personnes</t>
+  </si>
+  <si>
+    <t>Tous les univers</t>
+  </si>
+  <si>
+    <t>results.CONT_MAIL_CAMPAIGN.title</t>
+  </si>
+  <si>
+    <t>results.CONT_COMPANY.title</t>
+  </si>
+  <si>
+    <t>results.CONT_PERSON.title</t>
+  </si>
+  <si>
+    <t>results.CONT_UNIVERSE.title</t>
+  </si>
+  <si>
+    <t>Mails campaigns</t>
+  </si>
+  <si>
+    <t>Campagnes de mailing</t>
+  </si>
+  <si>
+    <t>results.CONT_MAIL_CAMPAIGN.subtitle</t>
+  </si>
+  <si>
+    <t>results.CONT_COMPANY.subtitle</t>
+  </si>
+  <si>
+    <t>results.CONT_PERSON.subtitle</t>
+  </si>
+  <si>
+    <t>results.CONT_UNIVERSE.subtitle</t>
+  </si>
+  <si>
+    <t>Manage and explore all mails campaigns from here.</t>
+  </si>
+  <si>
+    <t>Manage and explore all compagnies from here.</t>
+  </si>
+  <si>
+    <t>Manage and explore all persons from here.</t>
+  </si>
+  <si>
+    <t>Manage and explore all universes from here.</t>
+  </si>
+  <si>
+    <t>Look for:</t>
+  </si>
+  <si>
+    <t>results.look_for</t>
+  </si>
+  <si>
+    <t>results.look_for.placeholder</t>
+  </si>
+  <si>
+    <t>Enter a part of any of the displayed fields</t>
+  </si>
+  <si>
+    <t>Entrer une partie d'un des champs affichés</t>
+  </si>
+  <si>
+    <t>Chercher:</t>
+  </si>
+  <si>
+    <t>results.CONT_MAIL_CAMPAIGN.create.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_COMPANY.create.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_PERSON.create.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_UNIVERSE.create.tooltip</t>
+  </si>
+  <si>
+    <t>Create a new company</t>
+  </si>
+  <si>
+    <t>Create a new person</t>
+  </si>
+  <si>
+    <t>Create a new universe</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle campagne de mailing</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle compagnie</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle personne</t>
+  </si>
+  <si>
+    <t>Créer un nouvel univers</t>
+  </si>
+  <si>
+    <t>global.name</t>
+  </si>
+  <si>
+    <t>global.short_name</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>global.name.placeholder</t>
+  </si>
+  <si>
+    <t>global.short_name.placeholder</t>
+  </si>
+  <si>
+    <t>Enter a name</t>
+  </si>
+  <si>
+    <t>Entrer un nom</t>
+  </si>
+  <si>
+    <t>Enter a short name</t>
+  </si>
+  <si>
+    <t>Entrer un pseudonyme</t>
+  </si>
+  <si>
+    <t>global.close</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>global.continue</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Continuer</t>
+  </si>
+  <si>
+    <t>results.CONT_MAIL_CAMPAIGN.continue.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_COMPANY.continue.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_PERSON.continue.tooltip</t>
+  </si>
+  <si>
+    <t>results.CONT_UNIVERSE.continue.tooltip</t>
+  </si>
+  <si>
+    <t>Create a new mails campaign</t>
+  </si>
+  <si>
+    <t>Gérer et explorer toutes les campagnes de mailing depuis cette page.</t>
+  </si>
+  <si>
+    <t>Gérer et explorer toutes les compagnies depuis cette page.</t>
+  </si>
+  <si>
+    <t>Gérer et explorer toutes les personnes depuis cette page.</t>
+  </si>
+  <si>
+    <t>Gérer et explorer tous les univers depuis cette page.</t>
+  </si>
+  <si>
+    <t>Confirm mails campaign creation</t>
+  </si>
+  <si>
+    <t>Confirm company creation</t>
+  </si>
+  <si>
+    <t>Confirm person creation</t>
+  </si>
+  <si>
+    <t>Confirm universe creation</t>
+  </si>
+  <si>
+    <t>Confirmer la création de la campagne de mailing</t>
+  </si>
+  <si>
+    <t>Confirmer la création de la compagnie</t>
+  </si>
+  <si>
+    <t>Confirmer la création de la personne</t>
+  </si>
+  <si>
+    <t>Confirmer la création de l'univers</t>
+  </si>
+  <si>
+    <t>Importer les résultats des emails</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Ouvrir</t>
+  </si>
+  <si>
+    <t>language_identifier</t>
+  </si>
+  <si>
+    <t>global.delete</t>
+  </si>
+  <si>
+    <t>global.get</t>
+  </si>
+  <si>
+    <t>global.explore</t>
+  </si>
+  <si>
+    <t>global.work_on</t>
+  </si>
+  <si>
+    <t>global.containers.creations</t>
+  </si>
+  <si>
+    <t>global.containers.details</t>
+  </si>
+  <si>
+    <t>global.container.lists</t>
+  </si>
+  <si>
+    <t>global.container.menus</t>
+  </si>
+  <si>
+    <t>global.container.fields</t>
+  </si>
+  <si>
+    <t>global.objects.definition</t>
+  </si>
+  <si>
+    <t>Objects definition</t>
+  </si>
+  <si>
+    <t>global.user.preferences</t>
+  </si>
+  <si>
+    <t>global.user.remove</t>
+  </si>
+  <si>
+    <t>global.setup.application</t>
+  </si>
+  <si>
+    <t>Utiliser</t>
+  </si>
+  <si>
+    <t>Créations d'éléments</t>
+  </si>
+  <si>
+    <t>Menus des éléments</t>
+  </si>
+  <si>
+    <t>Fermer mon compte</t>
+  </si>
+  <si>
+    <t>Importer les résultats de la campagne</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>global.menu.Universes</t>
+  </si>
+  <si>
+    <t>global.menu.Containers</t>
+  </si>
+  <si>
+    <t>global.menu.Setup</t>
+  </si>
+  <si>
+    <t>Mon compre</t>
+  </si>
+  <si>
+    <t>global.menu.group.Companies</t>
+  </si>
+  <si>
+    <t>global.menu.group.Persons</t>
+  </si>
+  <si>
+    <t>global.menu.group.Presentation</t>
+  </si>
+  <si>
+    <t>global.menu.group.Data</t>
+  </si>
+  <si>
+    <t>global.menu.group.My account</t>
+  </si>
+  <si>
+    <t>global.menu.group.Application</t>
   </si>
 </sst>
 </file>
@@ -7179,8 +7476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7211,16 +7508,16 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E2" s="5" t="b">
         <v>1</v>
@@ -7228,16 +7525,16 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>1</v>
@@ -7245,16 +7542,16 @@
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>1</v>
@@ -7262,16 +7559,16 @@
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>1891</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1893</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>1</v>
@@ -7279,16 +7576,16 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>1</v>
@@ -7296,16 +7593,16 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E7" s="5" t="b">
         <v>1</v>
@@ -7313,16 +7610,16 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>1</v>
@@ -7330,16 +7627,16 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>1749</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>1750</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1751</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>1</v>
@@ -7364,7 +7661,7 @@
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1610</v>
@@ -7415,16 +7712,16 @@
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>1721</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>1</v>
@@ -7432,13 +7729,13 @@
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>1765</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1766</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1767</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>5</v>
@@ -7687,13 +7984,13 @@
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>1880</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1882</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>1666</v>
@@ -7721,13 +8018,13 @@
     </row>
     <row r="32" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>1826</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>1828</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>1666</v>
@@ -7738,13 +8035,13 @@
     </row>
     <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>1829</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1831</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>1666</v>
@@ -7755,13 +8052,13 @@
     </row>
     <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>1713</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>1666</v>
@@ -7772,13 +8069,13 @@
     </row>
     <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>1715</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>1666</v>
@@ -7789,13 +8086,13 @@
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>1717</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>1666</v>
@@ -8163,13 +8460,13 @@
     </row>
     <row r="58" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>1850</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1852</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>42</v>
@@ -8231,13 +8528,13 @@
     </row>
     <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>1622</v>
@@ -8251,7 +8548,7 @@
         <v>1619</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>1617</v>
@@ -8268,7 +8565,7 @@
         <v>1620</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>1618</v>
@@ -8285,7 +8582,7 @@
         <v>1621</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1499</v>
@@ -11563,10 +11860,10 @@
     </row>
     <row r="258" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>1578</v>
@@ -11597,13 +11894,13 @@
     </row>
     <row r="260" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>1783</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>1785</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>624</v>
@@ -11614,13 +11911,13 @@
     </row>
     <row r="261" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C261" s="5" t="s">
         <v>1789</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>1790</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>1791</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>624</v>
@@ -11631,13 +11928,13 @@
     </row>
     <row r="262" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>1780</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1782</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>624</v>
@@ -11699,13 +11996,13 @@
     </row>
     <row r="266" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C266" s="5" t="s">
         <v>1786</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>1788</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>624</v>
@@ -11784,7 +12081,7 @@
     </row>
     <row r="271" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>1607</v>
@@ -11801,7 +12098,7 @@
     </row>
     <row r="272" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>644</v>
@@ -11818,13 +12115,13 @@
     </row>
     <row r="273" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C273" s="5" t="s">
         <v>1795</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>1797</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>624</v>
@@ -11835,13 +12132,13 @@
     </row>
     <row r="274" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C274" s="5" t="s">
         <v>1798</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>1799</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>1800</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>624</v>
@@ -11852,13 +12149,13 @@
     </row>
     <row r="275" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C275" s="5" t="s">
         <v>1801</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C275" s="5" t="s">
-        <v>1803</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>624</v>
@@ -11869,13 +12166,13 @@
     </row>
     <row r="276" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>1792</v>
-      </c>
-      <c r="B276" s="5" t="s">
-        <v>1793</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>1794</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>624</v>
@@ -11886,10 +12183,10 @@
     </row>
     <row r="277" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>875</v>
@@ -11903,13 +12200,13 @@
     </row>
     <row r="278" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>1779</v>
-      </c>
       <c r="C278" s="5" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>624</v>
@@ -11920,13 +12217,13 @@
     </row>
     <row r="279" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C279" s="5" t="s">
         <v>1772</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>1774</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>624</v>
@@ -11937,10 +12234,10 @@
     </row>
     <row r="280" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>855</v>
@@ -16833,16 +17130,16 @@
     </row>
     <row r="568" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B568" s="5" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C568" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D568" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E568" s="5" t="b">
         <v>1</v>
@@ -16850,16 +17147,16 @@
     </row>
     <row r="569" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B569" s="5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C569" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D569" s="5" t="s">
         <v>1731</v>
-      </c>
-      <c r="B569" s="5" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C569" s="5" t="s">
-        <v>1729</v>
-      </c>
-      <c r="D569" s="5" t="s">
-        <v>1732</v>
       </c>
       <c r="E569" s="5" t="b">
         <v>1</v>
@@ -16867,16 +17164,16 @@
     </row>
     <row r="570" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B570" s="5" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C570" s="5" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D570" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E570" s="5" t="b">
         <v>1</v>
@@ -16884,16 +17181,16 @@
     </row>
     <row r="571" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B571" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="B571" s="5" t="s">
+      <c r="C571" s="5" t="s">
         <v>1747</v>
       </c>
-      <c r="C571" s="5" t="s">
-        <v>1748</v>
-      </c>
       <c r="D571" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E571" s="5" t="b">
         <v>1</v>
@@ -16901,16 +17198,16 @@
     </row>
     <row r="572" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B572" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C572" s="5" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D572" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E572" s="5" t="b">
         <v>1</v>
@@ -16918,16 +17215,16 @@
     </row>
     <row r="573" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B573" s="5" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C573" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D573" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E573" s="5" t="b">
         <v>1</v>
@@ -16935,16 +17232,16 @@
     </row>
     <row r="574" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B574" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="B574" s="5" t="s">
+      <c r="C574" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="C574" s="5" t="s">
-        <v>1745</v>
-      </c>
       <c r="D574" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="E574" s="5" t="b">
         <v>1</v>
@@ -17462,7 +17759,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B605" t="s">
         <v>47</v>
@@ -17471,7 +17768,7 @@
         <v>440</v>
       </c>
       <c r="D605" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E605" s="5" t="b">
         <v>1</v>
@@ -17479,7 +17776,7 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B606" s="5" t="s">
         <v>48</v>
@@ -17488,7 +17785,7 @@
         <v>459</v>
       </c>
       <c r="D606" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E606" s="5" t="b">
         <v>1</v>
@@ -17496,7 +17793,7 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B607" s="5" t="s">
         <v>99</v>
@@ -17505,7 +17802,7 @@
         <v>462</v>
       </c>
       <c r="D607" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E607" s="5" t="b">
         <v>1</v>
@@ -17513,7 +17810,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B608" s="5" t="s">
         <v>107</v>
@@ -17522,7 +17819,7 @@
         <v>470</v>
       </c>
       <c r="D608" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E608" s="5" t="b">
         <v>1</v>
@@ -17530,7 +17827,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B609" s="5" t="s">
         <v>177</v>
@@ -17539,7 +17836,7 @@
         <v>540</v>
       </c>
       <c r="D609" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E609" s="5" t="b">
         <v>1</v>
@@ -17547,7 +17844,7 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B610" s="5" t="s">
         <v>49</v>
@@ -17556,7 +17853,7 @@
         <v>561</v>
       </c>
       <c r="D610" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E610" s="5" t="b">
         <v>1</v>
@@ -17564,7 +17861,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B611" s="5" t="s">
         <v>156</v>
@@ -17573,7 +17870,7 @@
         <v>519</v>
       </c>
       <c r="D611" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E611" s="5" t="b">
         <v>1</v>
@@ -17581,7 +17878,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B612" s="5" t="s">
         <v>168</v>
@@ -17590,7 +17887,7 @@
         <v>531</v>
       </c>
       <c r="D612" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E612" s="5" t="b">
         <v>1</v>
@@ -17598,7 +17895,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B613" s="5" t="s">
         <v>176</v>
@@ -17607,7 +17904,7 @@
         <v>539</v>
       </c>
       <c r="D613" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E613" s="5" t="b">
         <v>1</v>
@@ -17615,7 +17912,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>76</v>
@@ -17624,7 +17921,7 @@
         <v>437</v>
       </c>
       <c r="D614" s="5" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="E614" s="5" t="b">
         <v>1</v>
@@ -17632,7 +17929,7 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B615" t="s">
         <v>800</v>
@@ -17641,7 +17938,7 @@
         <v>1223</v>
       </c>
       <c r="D615" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E615" s="5" t="b">
         <v>1</v>
@@ -17649,7 +17946,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="B616" t="s">
         <v>1124</v>
@@ -17658,7 +17955,7 @@
         <v>1363</v>
       </c>
       <c r="D616" s="5" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E616" s="5" t="b">
         <v>1</v>
@@ -17670,13 +17967,13 @@
         <v>SETUP_MONGO_URL</v>
       </c>
       <c r="B617" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="C617" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="D617" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E617" t="b">
         <v>1</v>
@@ -17688,13 +17985,13 @@
         <v>SETUP_RESOURCES_MAIN_PATH</v>
       </c>
       <c r="B618" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="C618" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="D618" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E618" s="5" t="b">
         <v>1</v>
@@ -17706,13 +18003,13 @@
         <v>SETUP_MAIN_PATH</v>
       </c>
       <c r="B619" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="C619" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="D619" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E619" s="5" t="b">
         <v>1</v>
@@ -17724,13 +18021,13 @@
         <v>SETUP_STATICS_PATH</v>
       </c>
       <c r="B620" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="C620" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="D620" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E620" s="5" t="b">
         <v>1</v>
@@ -17742,13 +18039,13 @@
         <v>SETUP_TEMPLATES_STATICS_PATH</v>
       </c>
       <c r="B621" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="C621" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="D621" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E621" s="5" t="b">
         <v>1</v>
@@ -17760,13 +18057,13 @@
         <v>SETUP_WORKING_PATH</v>
       </c>
       <c r="B622" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="C622" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="D622" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E622" s="5" t="b">
         <v>1</v>
@@ -17774,16 +18071,16 @@
     </row>
     <row r="623" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="C623" s="5" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D623" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E623" s="5" t="b">
         <v>1</v>
@@ -17795,13 +18092,13 @@
         <v>SETUP_MAILGUN_KEY</v>
       </c>
       <c r="B624" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="C624" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E624" s="5" t="b">
         <v>1</v>
@@ -17813,13 +18110,13 @@
         <v>SETUP_MAILGUN_DOMAIN</v>
       </c>
       <c r="B625" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="C625" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="D625" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E625" s="5" t="b">
         <v>1</v>
@@ -17831,13 +18128,13 @@
         <v>SETUP_MAILGUN_FROM</v>
       </c>
       <c r="B626" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C626" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="D626" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E626" s="5" t="b">
         <v>1</v>
@@ -17849,13 +18146,13 @@
         <v>SETUP_MAILGUN_DEFAULT_CAMPAIGN</v>
       </c>
       <c r="B627" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="C627" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="D627" s="5" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E627" s="5" t="b">
         <v>1</v>
@@ -17869,10 +18166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17880,851 +18177,407 @@
     <col min="1" max="1" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.140625" style="5"/>
-    <col min="17" max="17" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="9" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1752</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1753</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1760</v>
+        <v>2092</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1754</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1759</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1755</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>1677</v>
+        <v>2095</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K2" s="5" t="b">
+        <v>1940</v>
+      </c>
+      <c r="J2" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1677</v>
+        <v>2096</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1983</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>1983</v>
-      </c>
-      <c r="K3" s="5" t="b">
+        <v>1977</v>
+      </c>
+      <c r="J3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1677</v>
+        <v>2095</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K4" s="5" t="b">
+        <v>1940</v>
+      </c>
+      <c r="J4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1677</v>
+        <v>2095</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1942</v>
-      </c>
-      <c r="K5" s="5" t="b">
+        <v>1940</v>
+      </c>
+      <c r="J5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>1952</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>1953</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>1962</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>1954</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>1955</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1955</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1956</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1959</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1959</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>1959</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J10" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1960</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="J11" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="J12" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="J13" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>1960</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>1960</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>1961</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1961</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>1961</v>
-      </c>
-      <c r="K9" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>1966</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1966</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>1966</v>
-      </c>
-      <c r="K10" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>1965</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1967</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1967</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>1967</v>
-      </c>
-      <c r="K11" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>1989</v>
-      </c>
-      <c r="K12" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>2022</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>2017</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>2017</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>2017</v>
-      </c>
-      <c r="K13" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>2023</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>2019</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>2019</v>
-      </c>
-      <c r="K14" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K15" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1499</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1985</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>1984</v>
-      </c>
-      <c r="K16" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K17" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>1947</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>1944</v>
-      </c>
-      <c r="K18" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>1954</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>1971</v>
-      </c>
-      <c r="K19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1956</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>1972</v>
-      </c>
-      <c r="K20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>1973</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>1973</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>1973</v>
-      </c>
-      <c r="K21" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>1958</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1974</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>1974</v>
-      </c>
-      <c r="K22" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>1964</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>1975</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1975</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>1975</v>
-      </c>
-      <c r="K23" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>1965</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="K24" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>2021</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>2016</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>2016</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>2016</v>
-      </c>
-      <c r="K25" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>2022</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>2018</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>2018</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>2018</v>
-      </c>
-      <c r="K26" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2014</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>1962</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>1898</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>2023</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>2020</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>2020</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>2020</v>
-      </c>
-      <c r="K27" s="5" t="b">
+        <v>2010</v>
+      </c>
+      <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -18736,10 +18589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18747,304 +18600,390 @@
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1752</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1753</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1760</v>
+        <v>2092</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1758</v>
-      </c>
-      <c r="G1" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1761</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1677</v>
+        <v>1853</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1856</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1677</v>
+        <v>1876</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1879</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1677</v>
+        <v>2093</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>1757</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1756</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1677</v>
+        <v>2093</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>1757</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1756</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1677</v>
+        <v>2093</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>1757</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>1761</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1756</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1757</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>1761</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1762</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1677</v>
+        <v>2094</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1677</v>
+        <v>2094</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1499</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1677</v>
+        <v>2094</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1762</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>1763</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>1763</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19301,16 +19240,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -19318,10 +19257,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C1" t="s">
         <v>1682</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -19398,7 +19337,7 @@
         <v>1677</v>
       </c>
       <c r="C8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -19409,40 +19348,40 @@
         <v>1677</v>
       </c>
       <c r="C9" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C10" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C11" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C12" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -19453,40 +19392,40 @@
         <v>1677</v>
       </c>
       <c r="C13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C14" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C15" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C16" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -19497,34 +19436,34 @@
         <v>1677</v>
       </c>
       <c r="C17" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C18" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C19" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1677</v>
@@ -19535,51 +19474,51 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C21" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B22" t="s">
         <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B23" t="s">
         <v>1677</v>
       </c>
       <c r="C23" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B24" t="s">
         <v>1677</v>
       </c>
       <c r="C24" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B25" t="s">
         <v>1677</v>
@@ -19590,7 +19529,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B26" t="s">
         <v>1677</v>
@@ -19601,29 +19540,29 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B27" t="s">
         <v>1677</v>
       </c>
       <c r="C27" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B28" t="s">
         <v>1677</v>
       </c>
       <c r="C28" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B29" t="s">
         <v>1677</v>
@@ -19634,95 +19573,95 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B30" t="s">
         <v>1677</v>
       </c>
       <c r="C30" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B31" t="s">
         <v>1677</v>
       </c>
       <c r="C31" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B32" t="s">
         <v>1677</v>
       </c>
       <c r="C32" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B33" t="s">
         <v>1677</v>
       </c>
       <c r="C33" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B34" t="s">
         <v>1677</v>
       </c>
       <c r="C34" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B35" t="s">
         <v>1677</v>
       </c>
       <c r="C35" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B36" t="s">
         <v>1677</v>
       </c>
       <c r="C36" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B37" t="s">
         <v>1677</v>
       </c>
       <c r="C37" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B38" t="s">
         <v>1677</v>
@@ -19733,18 +19672,18 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B39" t="s">
         <v>1677</v>
       </c>
       <c r="C39" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B40" t="s">
         <v>1677</v>
@@ -19761,7 +19700,7 @@
         <v>1677</v>
       </c>
       <c r="C41" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -19772,7 +19711,7 @@
         <v>1677</v>
       </c>
       <c r="C42" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -19783,183 +19722,183 @@
         <v>1677</v>
       </c>
       <c r="C43" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B44" t="s">
         <v>1677</v>
       </c>
       <c r="C44" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C45" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C46" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C47" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C48" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C49" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C50" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C51" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C52" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B53" t="s">
         <v>1677</v>
       </c>
       <c r="C53" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B54" t="s">
         <v>1677</v>
       </c>
       <c r="C54" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C55" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C56" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C57" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C58" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C59" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -19967,10 +19906,10 @@
         <v>1673</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -19978,10 +19917,10 @@
         <v>1419</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>1898</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -19989,10 +19928,10 @@
         <v>1674</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -20000,10 +19939,10 @@
         <v>1675</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -20011,10 +19950,10 @@
         <v>1676</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -20022,10 +19961,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -20033,10 +19972,10 @@
         <v>2</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -20044,65 +19983,65 @@
         <v>1466</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -20110,230 +20049,230 @@
         <v>1417</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -20341,10 +20280,10 @@
         <v>1475</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -20352,10 +20291,10 @@
         <v>1474</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -20363,186 +20302,1334 @@
         <v>1476</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>1932</v>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D113" s="5"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D115" s="5"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C195" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>2007</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="27795" windowHeight="12165" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -6914,9 +6914,6 @@
     <t>Bureau principal</t>
   </si>
   <si>
-    <t>Bueau secondaire</t>
-  </si>
-  <si>
     <t>Actif</t>
   </si>
   <si>
@@ -7818,6 +7815,9 @@
   </si>
   <si>
     <t>line_type</t>
+  </si>
+  <si>
+    <t>Bureau secondaire</t>
   </si>
 </sst>
 </file>
@@ -8655,8 +8655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="C628" sqref="C628"/>
+    <sheetView topLeftCell="A610" workbookViewId="0">
+      <selection activeCell="A634" sqref="A634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19329,16 +19329,16 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B628" t="s">
+        <v>2497</v>
+      </c>
+      <c r="C628" t="s">
         <v>2498</v>
       </c>
-      <c r="C628" t="s">
-        <v>2499</v>
-      </c>
       <c r="D628" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E628" s="5" t="b">
         <v>1</v>
@@ -19346,16 +19346,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C629" s="5" t="s">
         <v>2502</v>
       </c>
-      <c r="B629" s="5" t="s">
-        <v>2501</v>
-      </c>
-      <c r="C629" s="5" t="s">
-        <v>2503</v>
-      </c>
       <c r="D629" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E629" s="5" t="b">
         <v>1</v>
@@ -19363,16 +19363,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B630" s="5" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C630" s="5" t="s">
         <v>2504</v>
       </c>
-      <c r="C630" s="5" t="s">
-        <v>2505</v>
-      </c>
       <c r="D630" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E630" s="5" t="b">
         <v>1</v>
@@ -19380,16 +19380,16 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B631" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="C631" s="5" t="s">
         <v>2507</v>
       </c>
-      <c r="C631" s="5" t="s">
-        <v>2508</v>
-      </c>
       <c r="D631" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E631" s="5" t="b">
         <v>1</v>
@@ -19397,36 +19397,36 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B632" s="5" t="s">
         <v>1937</v>
       </c>
       <c r="C632" s="5" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D632" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E632" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B633" s="5" t="s">
         <v>1936</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D633" s="5" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="E633" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -20513,8 +20513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1655"/>
   <sheetViews>
-    <sheetView topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="C669" sqref="C669"/>
+    <sheetView tabSelected="1" topLeftCell="A828" workbookViewId="0">
+      <selection activeCell="C861" sqref="C861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20549,13 +20549,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C3" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20566,18 +20566,18 @@
         <v>1677</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2462</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20588,18 +20588,18 @@
         <v>1896</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -20626,13 +20626,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C10" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -20703,13 +20703,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C17" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -20758,13 +20758,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -20780,13 +20780,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C24" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -20813,13 +20813,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B27" t="s">
         <v>1677</v>
       </c>
       <c r="C27" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -20868,13 +20868,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B32" t="s">
         <v>1677</v>
       </c>
       <c r="C32" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -20890,13 +20890,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B34" t="s">
         <v>1677</v>
       </c>
       <c r="C34" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -20956,13 +20956,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B40" t="s">
         <v>1677</v>
       </c>
       <c r="C40" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -21000,13 +21000,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B44" t="s">
         <v>1677</v>
       </c>
       <c r="C44" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -21275,13 +21275,13 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -21462,13 +21462,13 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -23567,13 +23567,13 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -23589,13 +23589,13 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -23655,13 +23655,13 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C285" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -24029,13 +24029,13 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C319" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -24090,18 +24090,18 @@
         <v>1677</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="325" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24112,18 +24112,18 @@
         <v>1896</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="327" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="328" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24458,13 +24458,13 @@
     </row>
     <row r="358" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="359" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24579,13 +24579,13 @@
     </row>
     <row r="369" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="370" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24601,13 +24601,13 @@
     </row>
     <row r="371" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="372" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24623,13 +24623,13 @@
     </row>
     <row r="373" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="374" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24953,13 +24953,13 @@
     </row>
     <row r="403" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="404" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24975,13 +24975,13 @@
     </row>
     <row r="405" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="406" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -27747,13 +27747,13 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B657" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E657"/>
     </row>
@@ -27891,13 +27891,13 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B669" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C669" s="5" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E669"/>
     </row>
@@ -27915,19 +27915,19 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C671" s="5" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E671"/>
     </row>
     <row r="672" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B672" s="5" t="s">
         <v>1896</v>
@@ -27938,7 +27938,7 @@
     </row>
     <row r="673" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B673" s="5" t="s">
         <v>1677</v>
@@ -27961,13 +27961,13 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B675" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C675" s="5" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E675"/>
     </row>
@@ -28009,13 +28009,13 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E679"/>
     </row>
@@ -28027,18 +28027,18 @@
         <v>1677</v>
       </c>
       <c r="C680" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="681" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B681" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C681" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="682" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28049,18 +28049,18 @@
         <v>1896</v>
       </c>
       <c r="C682" s="5" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="683" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B683" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C683" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
@@ -28077,7 +28077,7 @@
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B685" s="5" t="s">
         <v>1677</v>
@@ -28425,7 +28425,7 @@
     </row>
     <row r="714" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B714" s="5" t="s">
         <v>1677</v>
@@ -28436,18 +28436,18 @@
     </row>
     <row r="715" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B715" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C715" s="5" t="s">
         <v>2488</v>
-      </c>
-      <c r="B715" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C715" s="5" t="s">
-        <v>2489</v>
       </c>
     </row>
     <row r="716" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B716" s="5" t="s">
         <v>1896</v>
@@ -28458,13 +28458,13 @@
     </row>
     <row r="717" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B717" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -28481,13 +28481,13 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B719" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E719"/>
     </row>
@@ -28505,13 +28505,13 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B721" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C721" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E721"/>
     </row>
@@ -28529,13 +28529,13 @@
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B723" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E723"/>
     </row>
@@ -28553,13 +28553,13 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B725" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E725"/>
     </row>
@@ -28577,13 +28577,13 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B727" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E727"/>
     </row>
@@ -28601,13 +28601,13 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B729" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E729"/>
     </row>
@@ -28721,13 +28721,13 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B739" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E739"/>
     </row>
@@ -28751,18 +28751,18 @@
         <v>1677</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="742" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B742" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="743" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28773,18 +28773,18 @@
         <v>1896</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="744" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B744" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
@@ -28861,46 +28861,46 @@
     </row>
     <row r="751" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B751" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C751" s="5" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="752" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B752" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C752" s="5" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="753" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B753" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="754" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B754" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -28929,13 +28929,13 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B757" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E757"/>
     </row>
@@ -29229,13 +29229,13 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B782" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C782" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E782"/>
     </row>
@@ -29349,13 +29349,13 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B792" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C792" s="5" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E792"/>
     </row>
@@ -29505,13 +29505,13 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B805" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C805" s="5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E805"/>
     </row>
@@ -29529,13 +29529,13 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C807" s="5" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E807"/>
     </row>
@@ -29553,13 +29553,13 @@
     </row>
     <row r="809" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B809" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C809" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
@@ -29576,13 +29576,13 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B811" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C811" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E811"/>
     </row>
@@ -29600,13 +29600,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B813" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C813" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E813"/>
     </row>
@@ -29743,13 +29743,13 @@
     </row>
     <row r="825" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B825" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C825" s="5" t="s">
         <v>2480</v>
-      </c>
-      <c r="B825" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C825" s="5" t="s">
-        <v>2481</v>
       </c>
     </row>
     <row r="826" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29760,18 +29760,18 @@
         <v>1896</v>
       </c>
       <c r="C826" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="827" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B827" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C827" s="5" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.25">
@@ -29979,13 +29979,13 @@
     </row>
     <row r="845" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B845" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="846" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30001,13 +30001,13 @@
     </row>
     <row r="847" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B847" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
@@ -30024,13 +30024,13 @@
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B849" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C849" s="5" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E849"/>
     </row>
@@ -30048,13 +30048,13 @@
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B851" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C851" s="5" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E851"/>
     </row>
@@ -30084,13 +30084,13 @@
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B854" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C854" s="5" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E854"/>
     </row>
@@ -30120,13 +30120,13 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C857" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E857"/>
     </row>
@@ -30162,7 +30162,7 @@
         <v>1896</v>
       </c>
       <c r="C860" s="5" t="s">
-        <v>2214</v>
+        <v>2515</v>
       </c>
       <c r="E860"/>
     </row>
@@ -30204,13 +30204,13 @@
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B864" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E864"/>
     </row>
@@ -30264,13 +30264,13 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B869" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C869" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E869"/>
     </row>
@@ -30288,7 +30288,7 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B871" s="5" t="s">
         <v>1896</v>
@@ -30360,13 +30360,13 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C877" s="5" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E877"/>
     </row>
@@ -30432,13 +30432,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C883" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E883"/>
     </row>
@@ -30480,13 +30480,13 @@
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B887" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C887" s="5" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E887"/>
     </row>
@@ -30498,7 +30498,7 @@
         <v>1896</v>
       </c>
       <c r="C888" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E888"/>
     </row>
@@ -30510,7 +30510,7 @@
         <v>1896</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E889"/>
     </row>
@@ -30522,7 +30522,7 @@
         <v>1896</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E890"/>
     </row>
@@ -30534,7 +30534,7 @@
         <v>1896</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E891"/>
     </row>
@@ -30546,7 +30546,7 @@
         <v>1896</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E892"/>
     </row>
@@ -30558,7 +30558,7 @@
         <v>1896</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E893"/>
     </row>
@@ -30570,7 +30570,7 @@
         <v>1896</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E894"/>
     </row>
@@ -30582,7 +30582,7 @@
         <v>1896</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E895"/>
     </row>
@@ -30594,7 +30594,7 @@
         <v>1896</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E896"/>
     </row>
@@ -30606,7 +30606,7 @@
         <v>1896</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E897"/>
     </row>
@@ -30618,7 +30618,7 @@
         <v>1896</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E898"/>
     </row>
@@ -30630,7 +30630,7 @@
         <v>1896</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E899"/>
     </row>
@@ -30642,7 +30642,7 @@
         <v>1896</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E900"/>
     </row>
@@ -30654,7 +30654,7 @@
         <v>1896</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E901"/>
     </row>
@@ -30666,7 +30666,7 @@
         <v>1896</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E902"/>
     </row>
@@ -30678,7 +30678,7 @@
         <v>1896</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E903"/>
     </row>
@@ -30690,7 +30690,7 @@
         <v>1896</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E904"/>
     </row>
@@ -30702,7 +30702,7 @@
         <v>1896</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E905"/>
     </row>
@@ -30714,7 +30714,7 @@
         <v>1896</v>
       </c>
       <c r="C906" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E906"/>
     </row>
@@ -30726,7 +30726,7 @@
         <v>1896</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E907"/>
     </row>
@@ -30738,7 +30738,7 @@
         <v>1896</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E908"/>
     </row>
@@ -30750,7 +30750,7 @@
         <v>1896</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E909"/>
     </row>
@@ -30762,7 +30762,7 @@
         <v>1896</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E910"/>
     </row>
@@ -30780,7 +30780,7 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B912" s="5" t="s">
         <v>1896</v>
@@ -30834,7 +30834,7 @@
         <v>1896</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E916"/>
     </row>
@@ -30846,7 +30846,7 @@
         <v>1896</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E917"/>
     </row>
@@ -30870,7 +30870,7 @@
         <v>1896</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E919"/>
     </row>
@@ -30924,7 +30924,7 @@
     </row>
     <row r="924" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>1896</v>
@@ -30935,7 +30935,7 @@
     </row>
     <row r="925" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>1677</v>
@@ -30958,13 +30958,13 @@
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B927" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E927"/>
     </row>
@@ -30988,7 +30988,7 @@
         <v>1896</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E929"/>
     </row>
@@ -31012,7 +31012,7 @@
         <v>1896</v>
       </c>
       <c r="C931" s="5" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E931"/>
     </row>
@@ -33250,13 +33250,13 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1118" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1118" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1118"/>
     </row>
@@ -33274,13 +33274,13 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1120" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1120" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1120"/>
     </row>
@@ -33346,13 +33346,13 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E1126"/>
     </row>
@@ -33376,7 +33376,7 @@
         <v>1896</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E1128"/>
     </row>
@@ -33388,7 +33388,7 @@
         <v>1896</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E1129"/>
     </row>
@@ -33400,7 +33400,7 @@
         <v>1896</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E1130"/>
     </row>
@@ -33412,7 +33412,7 @@
         <v>1896</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E1131"/>
     </row>
@@ -33424,7 +33424,7 @@
         <v>1896</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E1132"/>
     </row>
@@ -33436,7 +33436,7 @@
         <v>1896</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E1133"/>
     </row>
@@ -33448,7 +33448,7 @@
         <v>1896</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E1134"/>
     </row>
@@ -33460,7 +33460,7 @@
         <v>1896</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E1135"/>
     </row>
@@ -33472,7 +33472,7 @@
         <v>1896</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E1136"/>
     </row>
@@ -33484,7 +33484,7 @@
         <v>1896</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E1137"/>
     </row>
@@ -33496,7 +33496,7 @@
         <v>1896</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E1138"/>
     </row>
@@ -33508,7 +33508,7 @@
         <v>1896</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E1139"/>
     </row>
@@ -33520,7 +33520,7 @@
         <v>1896</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E1140"/>
     </row>
@@ -33532,7 +33532,7 @@
         <v>1896</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E1141"/>
     </row>
@@ -33544,7 +33544,7 @@
         <v>1896</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E1142"/>
     </row>
@@ -33556,7 +33556,7 @@
         <v>1896</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E1143"/>
     </row>
@@ -33568,7 +33568,7 @@
         <v>1896</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E1144"/>
     </row>
@@ -33580,7 +33580,7 @@
         <v>1896</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E1145"/>
     </row>
@@ -33592,7 +33592,7 @@
         <v>1896</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="E1146"/>
     </row>
@@ -33604,7 +33604,7 @@
         <v>1896</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1147"/>
     </row>
@@ -33616,7 +33616,7 @@
         <v>1896</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E1148"/>
     </row>
@@ -33628,7 +33628,7 @@
         <v>1896</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E1149"/>
     </row>
@@ -33640,7 +33640,7 @@
         <v>1896</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E1150"/>
     </row>
@@ -33652,7 +33652,7 @@
         <v>1896</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E1151"/>
     </row>
@@ -33664,7 +33664,7 @@
         <v>1896</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E1152"/>
     </row>
@@ -33688,7 +33688,7 @@
         <v>1896</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E1154"/>
     </row>
@@ -33700,7 +33700,7 @@
         <v>1896</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E1155"/>
     </row>
@@ -33712,7 +33712,7 @@
         <v>1896</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E1156"/>
     </row>
@@ -33724,7 +33724,7 @@
         <v>1896</v>
       </c>
       <c r="C1157" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E1157"/>
     </row>
@@ -33736,7 +33736,7 @@
         <v>1896</v>
       </c>
       <c r="C1158" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E1158"/>
     </row>
@@ -33754,13 +33754,13 @@
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1160" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E1160"/>
     </row>
@@ -33772,7 +33772,7 @@
         <v>1896</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1161"/>
     </row>
@@ -33784,7 +33784,7 @@
         <v>1896</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E1162"/>
     </row>
@@ -33808,7 +33808,7 @@
         <v>1896</v>
       </c>
       <c r="C1164" s="5" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E1164"/>
     </row>
@@ -34036,7 +34036,7 @@
         <v>1896</v>
       </c>
       <c r="C1183" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E1183"/>
     </row>
@@ -34048,7 +34048,7 @@
         <v>1896</v>
       </c>
       <c r="C1184" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1184"/>
     </row>
@@ -34060,7 +34060,7 @@
         <v>1896</v>
       </c>
       <c r="C1185" s="5" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E1185"/>
     </row>
@@ -34084,7 +34084,7 @@
         <v>1896</v>
       </c>
       <c r="C1187" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E1187"/>
     </row>
@@ -34108,7 +34108,7 @@
         <v>1896</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E1189"/>
     </row>
@@ -34120,7 +34120,7 @@
         <v>1896</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1190"/>
     </row>
@@ -34132,7 +34132,7 @@
         <v>1896</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E1191"/>
     </row>
@@ -34144,7 +34144,7 @@
         <v>1896</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1192"/>
     </row>
@@ -34156,7 +34156,7 @@
         <v>1896</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E1193"/>
     </row>
@@ -34174,13 +34174,13 @@
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1195" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E1195"/>
     </row>
@@ -34192,7 +34192,7 @@
         <v>1896</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E1196"/>
     </row>
@@ -34204,7 +34204,7 @@
         <v>1896</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E1197"/>
     </row>
@@ -34216,7 +34216,7 @@
         <v>1896</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E1198"/>
     </row>
@@ -34228,7 +34228,7 @@
         <v>1896</v>
       </c>
       <c r="C1199" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E1199"/>
     </row>
@@ -34240,7 +34240,7 @@
         <v>1896</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E1200"/>
     </row>
@@ -34252,7 +34252,7 @@
         <v>1896</v>
       </c>
       <c r="C1201" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E1201"/>
     </row>
@@ -34264,7 +34264,7 @@
         <v>1896</v>
       </c>
       <c r="C1202" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E1202"/>
     </row>
@@ -34276,7 +34276,7 @@
         <v>1896</v>
       </c>
       <c r="C1203" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E1203"/>
     </row>
@@ -34306,13 +34306,13 @@
     </row>
     <row r="1206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1206" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1206" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1206"/>
     </row>
@@ -34330,13 +34330,13 @@
     </row>
     <row r="1208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1208" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1208" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1208" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1208"/>
     </row>
@@ -34354,13 +34354,13 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1210" s="5" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E1210"/>
     </row>
@@ -34714,13 +34714,13 @@
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1240" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1240" s="5" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1240"/>
     </row>
@@ -34738,13 +34738,13 @@
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1242" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E1242"/>
     </row>
@@ -37762,13 +37762,13 @@
     </row>
     <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1494" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1494" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1494" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1494"/>
     </row>
@@ -37780,7 +37780,7 @@
         <v>1896</v>
       </c>
       <c r="C1495" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E1495"/>
     </row>
@@ -37792,7 +37792,7 @@
         <v>1896</v>
       </c>
       <c r="C1496" s="5" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E1496"/>
     </row>
@@ -37804,7 +37804,7 @@
         <v>1896</v>
       </c>
       <c r="C1497" s="5" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E1497"/>
     </row>
@@ -37816,7 +37816,7 @@
         <v>1896</v>
       </c>
       <c r="C1498" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E1498"/>
     </row>
@@ -37828,7 +37828,7 @@
         <v>1896</v>
       </c>
       <c r="C1499" s="5" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E1499"/>
     </row>
@@ -37840,7 +37840,7 @@
         <v>1896</v>
       </c>
       <c r="C1500" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E1500"/>
     </row>
@@ -37864,7 +37864,7 @@
         <v>1896</v>
       </c>
       <c r="C1502" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E1502"/>
     </row>
@@ -37876,7 +37876,7 @@
         <v>1896</v>
       </c>
       <c r="C1503" s="5" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E1503"/>
     </row>
@@ -37888,7 +37888,7 @@
         <v>1896</v>
       </c>
       <c r="C1504" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E1504"/>
     </row>
@@ -37906,13 +37906,13 @@
     </row>
     <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1506" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1506" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1506" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E1506"/>
     </row>
@@ -37930,13 +37930,13 @@
     </row>
     <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1508" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1508" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1508" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E1508"/>
     </row>
@@ -37954,13 +37954,13 @@
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1510" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1510" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1510" s="5" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E1510"/>
     </row>
@@ -38002,7 +38002,7 @@
     </row>
     <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1514" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1514" s="5" t="s">
         <v>1896</v>
@@ -38020,7 +38020,7 @@
         <v>1896</v>
       </c>
       <c r="C1515" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -38044,7 +38044,7 @@
         <v>1896</v>
       </c>
       <c r="C1517" s="5" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1517"/>
     </row>
@@ -38056,7 +38056,7 @@
         <v>1896</v>
       </c>
       <c r="C1518" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E1518"/>
     </row>
@@ -38068,7 +38068,7 @@
         <v>1896</v>
       </c>
       <c r="C1519" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E1519"/>
     </row>
@@ -38080,7 +38080,7 @@
         <v>1896</v>
       </c>
       <c r="C1520" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E1520"/>
     </row>
@@ -38104,7 +38104,7 @@
         <v>1896</v>
       </c>
       <c r="C1522" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E1522"/>
     </row>
@@ -38116,7 +38116,7 @@
         <v>1896</v>
       </c>
       <c r="C1523" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E1523"/>
     </row>
@@ -38128,7 +38128,7 @@
         <v>1896</v>
       </c>
       <c r="C1524" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1524"/>
     </row>
@@ -38140,7 +38140,7 @@
         <v>1896</v>
       </c>
       <c r="C1525" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E1525"/>
     </row>
@@ -38164,7 +38164,7 @@
         <v>1896</v>
       </c>
       <c r="C1527" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E1527"/>
     </row>
@@ -38176,7 +38176,7 @@
         <v>1896</v>
       </c>
       <c r="C1528" s="5" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E1528"/>
     </row>
@@ -38188,7 +38188,7 @@
         <v>1896</v>
       </c>
       <c r="C1529" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E1529"/>
     </row>
@@ -38272,7 +38272,7 @@
         <v>1896</v>
       </c>
       <c r="C1536" s="5" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E1536"/>
     </row>
@@ -38284,7 +38284,7 @@
         <v>1896</v>
       </c>
       <c r="C1537" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E1537"/>
     </row>
@@ -38296,7 +38296,7 @@
         <v>1896</v>
       </c>
       <c r="C1538" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E1538"/>
     </row>
@@ -38308,7 +38308,7 @@
         <v>1896</v>
       </c>
       <c r="C1539" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E1539"/>
     </row>
@@ -38362,13 +38362,13 @@
     </row>
     <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1544" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1544" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1544" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E1544"/>
     </row>
@@ -38386,13 +38386,13 @@
     </row>
     <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1546" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1546" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1546" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E1546"/>
     </row>
@@ -38410,13 +38410,13 @@
     </row>
     <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1548" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1548" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1548" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1548"/>
     </row>
@@ -38434,13 +38434,13 @@
     </row>
     <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1550" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1550" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1550" s="5" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E1550"/>
     </row>
@@ -38458,13 +38458,13 @@
     </row>
     <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1552" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1552" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1552" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E1552"/>
     </row>
@@ -38482,13 +38482,13 @@
     </row>
     <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1554" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1554" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1554" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1554"/>
     </row>
@@ -38500,7 +38500,7 @@
         <v>1896</v>
       </c>
       <c r="C1555" s="5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E1555"/>
     </row>
@@ -38512,7 +38512,7 @@
         <v>1896</v>
       </c>
       <c r="C1556" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -38536,7 +38536,7 @@
         <v>1896</v>
       </c>
       <c r="C1558" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1558"/>
     </row>
@@ -38548,7 +38548,7 @@
         <v>1896</v>
       </c>
       <c r="C1559" s="5" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -38560,7 +38560,7 @@
         <v>1896</v>
       </c>
       <c r="C1560" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E1560"/>
     </row>
@@ -38572,7 +38572,7 @@
         <v>1896</v>
       </c>
       <c r="C1561" s="5" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E1561"/>
     </row>
@@ -38584,7 +38584,7 @@
         <v>1896</v>
       </c>
       <c r="C1562" s="5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E1562"/>
     </row>
@@ -38602,13 +38602,13 @@
     </row>
     <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1564" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1564" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1564" s="5" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E1564"/>
     </row>
@@ -38644,7 +38644,7 @@
         <v>1896</v>
       </c>
       <c r="C1567" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E1567"/>
     </row>
@@ -38656,7 +38656,7 @@
         <v>1896</v>
       </c>
       <c r="C1568" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E1568"/>
     </row>
@@ -38668,7 +38668,7 @@
         <v>1896</v>
       </c>
       <c r="C1569" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E1569"/>
     </row>
@@ -38680,7 +38680,7 @@
         <v>1896</v>
       </c>
       <c r="C1570" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E1570"/>
     </row>
@@ -38692,7 +38692,7 @@
         <v>1896</v>
       </c>
       <c r="C1571" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E1571"/>
     </row>
@@ -38722,13 +38722,13 @@
     </row>
     <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1574" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B1574" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1574" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E1574"/>
     </row>
@@ -39022,13 +39022,13 @@
     </row>
     <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1599" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1599" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1599" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E1599"/>
     </row>
@@ -39040,7 +39040,7 @@
         <v>1896</v>
       </c>
       <c r="C1600" s="5" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E1600"/>
     </row>
@@ -39052,7 +39052,7 @@
         <v>1896</v>
       </c>
       <c r="C1601" s="5" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1601"/>
     </row>
@@ -39064,7 +39064,7 @@
         <v>1896</v>
       </c>
       <c r="C1602" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E1602"/>
     </row>
@@ -39076,7 +39076,7 @@
         <v>1896</v>
       </c>
       <c r="C1603" s="5" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E1603"/>
     </row>
@@ -39088,7 +39088,7 @@
         <v>1896</v>
       </c>
       <c r="C1604" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E1604"/>
     </row>
@@ -39100,7 +39100,7 @@
         <v>1896</v>
       </c>
       <c r="C1605" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E1605"/>
     </row>
@@ -39274,13 +39274,13 @@
     </row>
     <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1620" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1620" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1620" s="5" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E1620"/>
     </row>
@@ -39298,7 +39298,7 @@
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1622" s="5" t="s">
         <v>1896</v>
@@ -39322,13 +39322,13 @@
     </row>
     <row r="1624" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1624" s="5" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B1624" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1624" s="5" t="s">
         <v>2484</v>
-      </c>
-      <c r="B1624" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1624" s="5" t="s">
-        <v>2485</v>
       </c>
     </row>
     <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
@@ -39345,13 +39345,13 @@
     </row>
     <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1626" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1626" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1626" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E1626"/>
     </row>
@@ -39369,13 +39369,13 @@
     </row>
     <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1628" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1628" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1628" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E1628"/>
     </row>
@@ -39387,7 +39387,7 @@
         <v>1896</v>
       </c>
       <c r="C1629" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E1629"/>
     </row>
@@ -39399,7 +39399,7 @@
         <v>1896</v>
       </c>
       <c r="C1630" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E1630"/>
     </row>
@@ -39411,7 +39411,7 @@
         <v>1896</v>
       </c>
       <c r="C1631" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E1631"/>
     </row>
@@ -39423,7 +39423,7 @@
         <v>1896</v>
       </c>
       <c r="C1632" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E1632"/>
     </row>
@@ -39435,7 +39435,7 @@
         <v>1896</v>
       </c>
       <c r="C1633" s="5" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E1633"/>
     </row>
@@ -39447,7 +39447,7 @@
         <v>1896</v>
       </c>
       <c r="C1634" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E1634"/>
     </row>
@@ -39519,7 +39519,7 @@
         <v>1896</v>
       </c>
       <c r="C1640" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E1640"/>
     </row>
@@ -39531,7 +39531,7 @@
         <v>1896</v>
       </c>
       <c r="C1641" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E1641"/>
     </row>
@@ -39543,7 +39543,7 @@
         <v>1896</v>
       </c>
       <c r="C1642" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E1642"/>
     </row>
@@ -39555,7 +39555,7 @@
         <v>1896</v>
       </c>
       <c r="C1643" s="5" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E1643"/>
     </row>
@@ -39567,7 +39567,7 @@
         <v>1896</v>
       </c>
       <c r="C1644" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E1644"/>
     </row>
@@ -39633,13 +39633,13 @@
     </row>
     <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1650" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1650" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E1650"/>
     </row>
@@ -39657,13 +39657,13 @@
     </row>
     <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1652" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1652" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1652" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E1652"/>
     </row>
@@ -39693,13 +39693,13 @@
     </row>
     <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B1655" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1655" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E1655"/>
     </row>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="2523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7795" uniqueCount="2525">
   <si>
     <t>identifier</t>
   </si>
@@ -7839,6 +7839,12 @@
   </si>
   <si>
     <t>country.identifier</t>
+  </si>
+  <si>
+    <t>mails.information</t>
+  </si>
+  <si>
+    <t>country.placeholder</t>
   </si>
 </sst>
 </file>
@@ -20532,10 +20538,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1665"/>
+  <dimension ref="A1:E1669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
-      <selection activeCell="C1665" sqref="C1665"/>
+    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
+      <selection activeCell="A1670" sqref="A1670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39834,6 +39840,50 @@
         <v>1680</v>
       </c>
     </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1667" s="5" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B1667" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1667" s="5" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>2431</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C1655">
     <sortCondition ref="B2:B1655"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -20540,8 +20540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
-      <selection activeCell="A1670" sqref="A1670"/>
+    <sheetView tabSelected="1" topLeftCell="A1126" workbookViewId="0">
+      <selection activeCell="A1146" sqref="A1146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -6620,9 +6620,6 @@
     <t>global.menu.Setup</t>
   </si>
   <si>
-    <t>Mon compre</t>
-  </si>
-  <si>
     <t>global.menu.group.Companies</t>
   </si>
   <si>
@@ -7845,6 +7842,9 @@
   </si>
   <si>
     <t>country.placeholder</t>
+  </si>
+  <si>
+    <t>Mon compte</t>
   </si>
 </sst>
 </file>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B617" t="s">
         <v>1983</v>
@@ -19186,7 +19186,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B618" t="s">
         <v>1994</v>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B619" t="s">
         <v>1995</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B620" t="s">
         <v>1996</v>
@@ -19237,7 +19237,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B621" t="s">
         <v>1997</v>
@@ -19254,7 +19254,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B622" t="s">
         <v>1999</v>
@@ -19288,7 +19288,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B624" t="s">
         <v>2004</v>
@@ -19305,7 +19305,7 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B625" t="s">
         <v>2000</v>
@@ -19322,7 +19322,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B626" t="s">
         <v>2001</v>
@@ -19339,7 +19339,7 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B627" t="s">
         <v>2002</v>
@@ -19356,16 +19356,16 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B628" t="s">
+        <v>2496</v>
+      </c>
+      <c r="C628" t="s">
         <v>2497</v>
       </c>
-      <c r="C628" t="s">
-        <v>2498</v>
-      </c>
       <c r="D628" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E628" s="5" t="b">
         <v>1</v>
@@ -19373,16 +19373,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B629" s="5" t="s">
+        <v>2499</v>
+      </c>
+      <c r="C629" s="5" t="s">
         <v>2501</v>
       </c>
-      <c r="B629" s="5" t="s">
-        <v>2500</v>
-      </c>
-      <c r="C629" s="5" t="s">
-        <v>2502</v>
-      </c>
       <c r="D629" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E629" s="5" t="b">
         <v>1</v>
@@ -19390,16 +19390,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B630" s="5" t="s">
+        <v>2502</v>
+      </c>
+      <c r="C630" s="5" t="s">
         <v>2503</v>
       </c>
-      <c r="C630" s="5" t="s">
-        <v>2504</v>
-      </c>
       <c r="D630" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E630" s="5" t="b">
         <v>1</v>
@@ -19407,16 +19407,16 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B631" s="5" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C631" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="C631" s="5" t="s">
-        <v>2507</v>
-      </c>
       <c r="D631" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E631" s="5" t="b">
         <v>1</v>
@@ -19424,16 +19424,16 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B632" s="5" t="s">
         <v>1937</v>
       </c>
       <c r="C632" s="5" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D632" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E632" s="5" t="b">
         <v>0</v>
@@ -19441,16 +19441,16 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B633" s="5" t="s">
         <v>1936</v>
       </c>
       <c r="C633" s="5" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D633" s="5" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E633" s="5" t="b">
         <v>0</v>
@@ -19467,7 +19467,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B4:B14"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20540,8 +20540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1669"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1126" workbookViewId="0">
-      <selection activeCell="A1146" sqref="A1146"/>
+    <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="C1213" sqref="C1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20576,13 +20576,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C3" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20593,7 +20593,7 @@
         <v>1677</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20609,13 +20609,13 @@
     </row>
     <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20626,18 +20626,18 @@
         <v>1677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C8" t="s">
         <v>2461</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -20708,13 +20708,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C15" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -20763,13 +20763,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C20" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -20785,13 +20785,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -20802,7 +20802,7 @@
         <v>1677</v>
       </c>
       <c r="C23" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -20818,13 +20818,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C25" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -20846,7 +20846,7 @@
         <v>1677</v>
       </c>
       <c r="C27" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -20857,7 +20857,7 @@
         <v>1677</v>
       </c>
       <c r="C28" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -20873,13 +20873,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B30" t="s">
         <v>1677</v>
       </c>
       <c r="C30" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -20895,13 +20895,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B32" t="s">
         <v>1677</v>
       </c>
       <c r="C32" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -20912,7 +20912,7 @@
         <v>1677</v>
       </c>
       <c r="C33" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -20961,13 +20961,13 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B38" t="s">
         <v>1677</v>
       </c>
       <c r="C38" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -21005,13 +21005,13 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B42" t="s">
         <v>1677</v>
       </c>
       <c r="C42" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -21280,13 +21280,13 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -21297,7 +21297,7 @@
         <v>1677</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -21308,7 +21308,7 @@
         <v>1677</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -21429,7 +21429,7 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -21440,7 +21440,7 @@
         <v>1677</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -21451,12 +21451,12 @@
         <v>1677</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>1677</v>
@@ -21478,13 +21478,13 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -21495,7 +21495,7 @@
         <v>1677</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -23583,13 +23583,13 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -23605,13 +23605,13 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -23622,7 +23622,7 @@
         <v>1677</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -23644,7 +23644,7 @@
         <v>1677</v>
       </c>
       <c r="C281" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -23671,13 +23671,13 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C284" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -23974,7 +23974,7 @@
         <v>1677</v>
       </c>
       <c r="C311" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -24045,13 +24045,13 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C318" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -24084,7 +24084,7 @@
         <v>1677</v>
       </c>
       <c r="C321" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -24106,18 +24106,18 @@
         <v>1677</v>
       </c>
       <c r="C323" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="324" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="325" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24128,7 +24128,7 @@
         <v>1677</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="326" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24139,7 +24139,7 @@
         <v>1677</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="327" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24293,7 +24293,7 @@
         <v>1677</v>
       </c>
       <c r="C340" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="341" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24304,7 +24304,7 @@
         <v>1677</v>
       </c>
       <c r="C341" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="342" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24315,7 +24315,7 @@
         <v>1677</v>
       </c>
       <c r="C342" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="343" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24359,7 +24359,7 @@
         <v>1677</v>
       </c>
       <c r="C346" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="347" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24452,13 +24452,13 @@
     </row>
     <row r="355" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="356" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24573,13 +24573,13 @@
     </row>
     <row r="366" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="367" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24595,13 +24595,13 @@
     </row>
     <row r="368" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="369" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24617,13 +24617,13 @@
     </row>
     <row r="370" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="371" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24749,7 +24749,7 @@
     </row>
     <row r="382" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>1677</v>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="383" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>1677</v>
@@ -24771,7 +24771,7 @@
     </row>
     <row r="384" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>1677</v>
@@ -24782,7 +24782,7 @@
     </row>
     <row r="385" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>1677</v>
@@ -24793,7 +24793,7 @@
     </row>
     <row r="386" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>1677</v>
@@ -24804,7 +24804,7 @@
     </row>
     <row r="387" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>1677</v>
@@ -24947,13 +24947,13 @@
     </row>
     <row r="400" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="401" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -24969,13 +24969,13 @@
     </row>
     <row r="402" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="403" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -27741,13 +27741,13 @@
     </row>
     <row r="654" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B654" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="655" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -27828,7 +27828,7 @@
         <v>1677</v>
       </c>
       <c r="C661" s="5" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E661"/>
     </row>
@@ -27882,13 +27882,13 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B666" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C666" s="5" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E666"/>
     </row>
@@ -27906,19 +27906,19 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B668" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C668" s="5" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E668"/>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B669" s="5" t="s">
         <v>1677</v>
@@ -27942,13 +27942,13 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B671" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C671" s="5" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E671"/>
     </row>
@@ -27960,7 +27960,7 @@
         <v>1677</v>
       </c>
       <c r="C672" s="5" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="673" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -27988,13 +27988,13 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B675" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C675" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E675"/>
     </row>
@@ -28006,19 +28006,19 @@
         <v>1677</v>
       </c>
       <c r="C676" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E676"/>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B677" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E677"/>
     </row>
@@ -28036,7 +28036,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>1677</v>
@@ -28230,7 +28230,7 @@
         <v>1677</v>
       </c>
       <c r="C695" s="5" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E695"/>
     </row>
@@ -28242,7 +28242,7 @@
         <v>1677</v>
       </c>
       <c r="C696" s="5" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E696"/>
     </row>
@@ -28254,7 +28254,7 @@
         <v>1677</v>
       </c>
       <c r="C697" s="5" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E697"/>
     </row>
@@ -28266,7 +28266,7 @@
         <v>1677</v>
       </c>
       <c r="C698" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E698"/>
     </row>
@@ -28374,13 +28374,13 @@
         <v>1677</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E707"/>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B708" s="5" t="s">
         <v>1677</v>
@@ -28404,25 +28404,25 @@
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B710" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E710"/>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B711" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C711" s="5" t="s">
         <v>2487</v>
-      </c>
-      <c r="B711" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C711" s="5" t="s">
-        <v>2488</v>
       </c>
       <c r="E711"/>
     </row>
@@ -28440,13 +28440,13 @@
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B713" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C713" s="5" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E713"/>
     </row>
@@ -28463,13 +28463,13 @@
     </row>
     <row r="715" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B715" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C715" s="5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="716" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28485,13 +28485,13 @@
     </row>
     <row r="717" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B717" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C717" s="5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.25">
@@ -28508,13 +28508,13 @@
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B719" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E719"/>
     </row>
@@ -28532,13 +28532,13 @@
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B721" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C721" s="5" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E721"/>
     </row>
@@ -28652,13 +28652,13 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B731" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E731"/>
     </row>
@@ -28670,7 +28670,7 @@
         <v>1677</v>
       </c>
       <c r="C732" s="5" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E732"/>
     </row>
@@ -28682,19 +28682,19 @@
         <v>1677</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E733"/>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B734" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C734" s="5" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E734"/>
     </row>
@@ -28706,7 +28706,7 @@
         <v>1677</v>
       </c>
       <c r="C735" s="5" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E735"/>
     </row>
@@ -28772,24 +28772,24 @@
     </row>
     <row r="741" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B741" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="742" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B742" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="743" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28816,13 +28816,13 @@
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B745" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E745"/>
     </row>
@@ -29112,13 +29112,13 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B770" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E770"/>
     </row>
@@ -29202,7 +29202,7 @@
         <v>1677</v>
       </c>
       <c r="C777" s="5" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E777"/>
     </row>
@@ -29214,7 +29214,7 @@
         <v>1677</v>
       </c>
       <c r="C778" s="5" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E778"/>
     </row>
@@ -29232,19 +29232,19 @@
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B780" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C780" s="5" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E780"/>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B781" s="5" t="s">
         <v>1677</v>
@@ -29256,7 +29256,7 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B782" s="5" t="s">
         <v>1677</v>
@@ -29280,7 +29280,7 @@
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B784" s="5" t="s">
         <v>1677</v>
@@ -29292,7 +29292,7 @@
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B785" s="5" t="s">
         <v>1677</v>
@@ -29304,7 +29304,7 @@
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B786" s="5" t="s">
         <v>1677</v>
@@ -29316,7 +29316,7 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B787" s="5" t="s">
         <v>1677</v>
@@ -29328,7 +29328,7 @@
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B788" s="5" t="s">
         <v>1677</v>
@@ -29340,7 +29340,7 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B789" s="5" t="s">
         <v>1677</v>
@@ -29352,7 +29352,7 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B790" s="5" t="s">
         <v>1677</v>
@@ -29364,7 +29364,7 @@
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B791" s="5" t="s">
         <v>1677</v>
@@ -29388,13 +29388,13 @@
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B793" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C793" s="5" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E793"/>
     </row>
@@ -29412,13 +29412,13 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B795" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C795" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E795"/>
     </row>
@@ -29448,25 +29448,25 @@
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B798" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C798" s="5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E798"/>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B799" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C799" s="5" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E799"/>
     </row>
@@ -29484,13 +29484,13 @@
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B801" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C801" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E801"/>
     </row>
@@ -29574,7 +29574,7 @@
         <v>1677</v>
       </c>
       <c r="C808" s="5" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="E808"/>
     </row>
@@ -29627,13 +29627,13 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" s="2" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B813" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C813" s="5" t="s">
         <v>2479</v>
-      </c>
-      <c r="B813" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C813" s="5" t="s">
-        <v>2480</v>
       </c>
       <c r="E813"/>
     </row>
@@ -29645,7 +29645,7 @@
         <v>1677</v>
       </c>
       <c r="C814" s="5" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E814"/>
     </row>
@@ -29787,7 +29787,7 @@
         <v>1677</v>
       </c>
       <c r="C826" s="5" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="827" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29851,25 +29851,25 @@
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B832" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C832" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E832"/>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B833" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C833" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E833"/>
     </row>
@@ -29887,13 +29887,13 @@
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B835" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C835" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E835"/>
     </row>
@@ -29923,13 +29923,13 @@
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B838" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C838" s="5" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E838"/>
     </row>
@@ -29941,7 +29941,7 @@
         <v>1896</v>
       </c>
       <c r="C839" s="5" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E839"/>
     </row>
@@ -29959,13 +29959,13 @@
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B841" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C841" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E841"/>
     </row>
@@ -29977,19 +29977,19 @@
         <v>1896</v>
       </c>
       <c r="C842" s="5" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E842"/>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B843" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C843" s="5" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E843"/>
     </row>
@@ -30001,7 +30001,7 @@
         <v>1896</v>
       </c>
       <c r="C844" s="5" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="845" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30012,7 +30012,7 @@
         <v>1896</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="846" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30023,7 +30023,7 @@
         <v>1896</v>
       </c>
       <c r="C846" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="847" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30034,7 +30034,7 @@
         <v>1896</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
@@ -30045,7 +30045,7 @@
         <v>1896</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E848"/>
     </row>
@@ -30063,13 +30063,13 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B850" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E850"/>
     </row>
@@ -30123,13 +30123,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B855" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E855"/>
     </row>
@@ -30147,7 +30147,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>1896</v>
@@ -30177,7 +30177,7 @@
         <v>1896</v>
       </c>
       <c r="C859" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E859"/>
     </row>
@@ -30201,7 +30201,7 @@
         <v>1896</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E861"/>
     </row>
@@ -30219,13 +30219,13 @@
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B863" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C863" s="5" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E863"/>
     </row>
@@ -30237,7 +30237,7 @@
         <v>1896</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E864"/>
     </row>
@@ -30291,13 +30291,13 @@
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B869" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C869" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E869"/>
     </row>
@@ -30339,13 +30339,13 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C873" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E873"/>
     </row>
@@ -30357,7 +30357,7 @@
         <v>1896</v>
       </c>
       <c r="C874" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E874"/>
     </row>
@@ -30369,7 +30369,7 @@
         <v>1896</v>
       </c>
       <c r="C875" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E875"/>
     </row>
@@ -30381,7 +30381,7 @@
         <v>1896</v>
       </c>
       <c r="C876" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E876"/>
     </row>
@@ -30393,7 +30393,7 @@
         <v>1896</v>
       </c>
       <c r="C877" s="5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E877"/>
     </row>
@@ -30405,7 +30405,7 @@
         <v>1896</v>
       </c>
       <c r="C878" s="5" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E878"/>
     </row>
@@ -30417,7 +30417,7 @@
         <v>1896</v>
       </c>
       <c r="C879" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E879"/>
     </row>
@@ -30429,7 +30429,7 @@
         <v>1896</v>
       </c>
       <c r="C880" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E880"/>
     </row>
@@ -30441,7 +30441,7 @@
         <v>1896</v>
       </c>
       <c r="C881" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E881"/>
     </row>
@@ -30453,7 +30453,7 @@
         <v>1896</v>
       </c>
       <c r="C882" s="5" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E882"/>
     </row>
@@ -30465,7 +30465,7 @@
         <v>1896</v>
       </c>
       <c r="C883" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E883"/>
     </row>
@@ -30477,7 +30477,7 @@
         <v>1896</v>
       </c>
       <c r="C884" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E884"/>
     </row>
@@ -30489,7 +30489,7 @@
         <v>1896</v>
       </c>
       <c r="C885" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E885"/>
     </row>
@@ -30501,7 +30501,7 @@
         <v>1896</v>
       </c>
       <c r="C886" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E886"/>
     </row>
@@ -30513,7 +30513,7 @@
         <v>1896</v>
       </c>
       <c r="C887" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E887"/>
     </row>
@@ -30525,7 +30525,7 @@
         <v>1896</v>
       </c>
       <c r="C888" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E888"/>
     </row>
@@ -30537,7 +30537,7 @@
         <v>1896</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E889"/>
     </row>
@@ -30549,7 +30549,7 @@
         <v>1896</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E890"/>
     </row>
@@ -30561,7 +30561,7 @@
         <v>1896</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E891"/>
     </row>
@@ -30573,7 +30573,7 @@
         <v>1896</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E892"/>
     </row>
@@ -30585,7 +30585,7 @@
         <v>1896</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E893"/>
     </row>
@@ -30597,7 +30597,7 @@
         <v>1896</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E894"/>
     </row>
@@ -30609,7 +30609,7 @@
         <v>1896</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E895"/>
     </row>
@@ -30621,7 +30621,7 @@
         <v>1896</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E896"/>
     </row>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B898" s="5" t="s">
         <v>1896</v>
@@ -30657,7 +30657,7 @@
         <v>1896</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E899"/>
     </row>
@@ -30669,7 +30669,7 @@
         <v>1896</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="E900"/>
     </row>
@@ -30693,7 +30693,7 @@
         <v>1896</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E902"/>
     </row>
@@ -30705,7 +30705,7 @@
         <v>1896</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E903"/>
     </row>
@@ -30717,7 +30717,7 @@
         <v>1896</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E904"/>
     </row>
@@ -30729,7 +30729,7 @@
         <v>1896</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E905"/>
     </row>
@@ -30753,7 +30753,7 @@
         <v>1896</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E907"/>
     </row>
@@ -30765,7 +30765,7 @@
         <v>1896</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E908"/>
     </row>
@@ -30777,13 +30777,13 @@
         <v>1896</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E909"/>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B910" s="5" t="s">
         <v>1896</v>
@@ -30807,13 +30807,13 @@
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B912" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E912"/>
     </row>
@@ -30825,7 +30825,7 @@
         <v>1896</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E913"/>
     </row>
@@ -30837,7 +30837,7 @@
         <v>1896</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E914"/>
     </row>
@@ -30861,7 +30861,7 @@
         <v>1896</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E916"/>
     </row>
@@ -33097,13 +33097,13 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1103" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1103" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1103"/>
     </row>
@@ -33121,13 +33121,13 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1105" s="5" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B1105" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1105" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1105"/>
     </row>
@@ -33139,7 +33139,7 @@
         <v>1896</v>
       </c>
       <c r="C1106" s="5" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E1106"/>
     </row>
@@ -33151,7 +33151,7 @@
         <v>1896</v>
       </c>
       <c r="C1107" s="5" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E1107"/>
     </row>
@@ -33163,7 +33163,7 @@
         <v>1896</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="E1108"/>
     </row>
@@ -33193,13 +33193,13 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1111" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1111" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1111" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E1111"/>
     </row>
@@ -33223,7 +33223,7 @@
         <v>1896</v>
       </c>
       <c r="C1113" s="5" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E1113"/>
     </row>
@@ -33235,7 +33235,7 @@
         <v>1896</v>
       </c>
       <c r="C1114" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E1114"/>
     </row>
@@ -33247,7 +33247,7 @@
         <v>1896</v>
       </c>
       <c r="C1115" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E1115"/>
     </row>
@@ -33259,7 +33259,7 @@
         <v>1896</v>
       </c>
       <c r="C1116" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E1116"/>
     </row>
@@ -33271,7 +33271,7 @@
         <v>1896</v>
       </c>
       <c r="C1117" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E1117"/>
     </row>
@@ -33283,7 +33283,7 @@
         <v>1896</v>
       </c>
       <c r="C1118" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E1118"/>
     </row>
@@ -33295,7 +33295,7 @@
         <v>1896</v>
       </c>
       <c r="C1119" s="5" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E1119"/>
     </row>
@@ -33307,7 +33307,7 @@
         <v>1896</v>
       </c>
       <c r="C1120" s="5" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E1120"/>
     </row>
@@ -33319,7 +33319,7 @@
         <v>1896</v>
       </c>
       <c r="C1121" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E1121"/>
     </row>
@@ -33331,7 +33331,7 @@
         <v>1896</v>
       </c>
       <c r="C1122" s="5" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E1122"/>
     </row>
@@ -33343,7 +33343,7 @@
         <v>1896</v>
       </c>
       <c r="C1123" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E1123"/>
     </row>
@@ -33355,7 +33355,7 @@
         <v>1896</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E1124"/>
     </row>
@@ -33367,7 +33367,7 @@
         <v>1896</v>
       </c>
       <c r="C1125" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E1125"/>
     </row>
@@ -33379,7 +33379,7 @@
         <v>1896</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E1126"/>
     </row>
@@ -33391,7 +33391,7 @@
         <v>1896</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E1127"/>
     </row>
@@ -33403,7 +33403,7 @@
         <v>1896</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="E1128"/>
     </row>
@@ -33415,7 +33415,7 @@
         <v>1896</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="E1129"/>
     </row>
@@ -33427,7 +33427,7 @@
         <v>1896</v>
       </c>
       <c r="C1130" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="E1130"/>
     </row>
@@ -33439,7 +33439,7 @@
         <v>1896</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="E1131"/>
     </row>
@@ -33451,7 +33451,7 @@
         <v>1896</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E1132"/>
     </row>
@@ -33463,7 +33463,7 @@
         <v>1896</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E1133"/>
     </row>
@@ -33475,7 +33475,7 @@
         <v>1896</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1134"/>
     </row>
@@ -33487,7 +33487,7 @@
         <v>1896</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E1135"/>
     </row>
@@ -33499,7 +33499,7 @@
         <v>1896</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E1136"/>
     </row>
@@ -33511,7 +33511,7 @@
         <v>1896</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E1137"/>
     </row>
@@ -33523,7 +33523,7 @@
         <v>1896</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E1138"/>
     </row>
@@ -33535,7 +33535,7 @@
         <v>1896</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E1139"/>
     </row>
@@ -33547,7 +33547,7 @@
         <v>1896</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E1140"/>
     </row>
@@ -33559,7 +33559,7 @@
         <v>1896</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E1141"/>
     </row>
@@ -33571,7 +33571,7 @@
         <v>1896</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E1142"/>
     </row>
@@ -33583,7 +33583,7 @@
         <v>1896</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E1143"/>
     </row>
@@ -33601,13 +33601,13 @@
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1145" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1145" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E1145"/>
     </row>
@@ -33619,7 +33619,7 @@
         <v>1896</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E1146"/>
     </row>
@@ -33631,7 +33631,7 @@
         <v>1896</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E1147"/>
     </row>
@@ -33643,7 +33643,7 @@
         <v>1896</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E1148"/>
     </row>
@@ -33655,7 +33655,7 @@
         <v>1896</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E1149"/>
     </row>
@@ -33667,19 +33667,19 @@
         <v>1896</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E1150"/>
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1151" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1151" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E1151"/>
     </row>
@@ -33691,7 +33691,7 @@
         <v>1896</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E1152"/>
     </row>
@@ -33703,7 +33703,7 @@
         <v>1896</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E1153"/>
     </row>
@@ -33715,7 +33715,7 @@
         <v>1896</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E1154"/>
     </row>
@@ -33871,7 +33871,7 @@
         <v>1896</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="E1167"/>
     </row>
@@ -33883,7 +33883,7 @@
         <v>1896</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="E1168"/>
     </row>
@@ -33895,7 +33895,7 @@
         <v>1896</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E1169"/>
     </row>
@@ -33907,7 +33907,7 @@
         <v>1896</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1170"/>
     </row>
@@ -33919,7 +33919,7 @@
         <v>1896</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E1171"/>
     </row>
@@ -33931,7 +33931,7 @@
         <v>1896</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E1172"/>
     </row>
@@ -33943,7 +33943,7 @@
         <v>1896</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E1173"/>
     </row>
@@ -33955,7 +33955,7 @@
         <v>1896</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E1174"/>
     </row>
@@ -33979,7 +33979,7 @@
         <v>1896</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1176"/>
     </row>
@@ -33991,7 +33991,7 @@
         <v>1896</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1177"/>
     </row>
@@ -34003,7 +34003,7 @@
         <v>1896</v>
       </c>
       <c r="C1178" s="5" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E1178"/>
     </row>
@@ -34015,7 +34015,7 @@
         <v>1896</v>
       </c>
       <c r="C1179" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E1179"/>
     </row>
@@ -34027,7 +34027,7 @@
         <v>1896</v>
       </c>
       <c r="C1180" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E1180"/>
     </row>
@@ -34045,13 +34045,13 @@
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1182" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1182" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1182" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1182"/>
     </row>
@@ -34063,7 +34063,7 @@
         <v>1896</v>
       </c>
       <c r="C1183" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E1183"/>
     </row>
@@ -34075,7 +34075,7 @@
         <v>1896</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E1184"/>
     </row>
@@ -34087,7 +34087,7 @@
         <v>1896</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E1185"/>
     </row>
@@ -34099,7 +34099,7 @@
         <v>1896</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E1186"/>
     </row>
@@ -34111,7 +34111,7 @@
         <v>1896</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E1187"/>
     </row>
@@ -34123,7 +34123,7 @@
         <v>1896</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E1188"/>
     </row>
@@ -34135,7 +34135,7 @@
         <v>1896</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E1189"/>
     </row>
@@ -34147,7 +34147,7 @@
         <v>1896</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E1190"/>
     </row>
@@ -34177,13 +34177,13 @@
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1193" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1193" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1193"/>
     </row>
@@ -34201,13 +34201,13 @@
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1195" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B1195" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1195"/>
     </row>
@@ -34225,13 +34225,13 @@
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1197" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1197" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E1197"/>
     </row>
@@ -34369,7 +34369,7 @@
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1209" s="5" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>1896</v>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="1210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1210" s="5" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1210" s="5" t="s">
         <v>1896</v>
@@ -34393,7 +34393,7 @@
     </row>
     <row r="1211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1211" s="5" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B1211" s="5" t="s">
         <v>1896</v>
@@ -34405,19 +34405,19 @@
     </row>
     <row r="1212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1212" s="5" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B1212" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1212" s="5" t="s">
-        <v>2116</v>
+        <v>2524</v>
       </c>
       <c r="E1212"/>
     </row>
     <row r="1213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1213" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1213" s="5" t="s">
         <v>1896</v>
@@ -34429,7 +34429,7 @@
     </row>
     <row r="1214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1214" s="5" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B1214" s="5" t="s">
         <v>1896</v>
@@ -34585,13 +34585,13 @@
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1227" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1227" s="5" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E1227"/>
     </row>
@@ -34609,13 +34609,13 @@
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E1229"/>
     </row>
@@ -37633,13 +37633,13 @@
     </row>
     <row r="1481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1481" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1481" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1481" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E1481"/>
     </row>
@@ -37651,7 +37651,7 @@
         <v>1896</v>
       </c>
       <c r="C1482" s="5" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E1482"/>
     </row>
@@ -37663,7 +37663,7 @@
         <v>1896</v>
       </c>
       <c r="C1483" s="5" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E1483"/>
     </row>
@@ -37675,7 +37675,7 @@
         <v>1896</v>
       </c>
       <c r="C1484" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="E1484"/>
     </row>
@@ -37687,7 +37687,7 @@
         <v>1896</v>
       </c>
       <c r="C1485" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E1485"/>
     </row>
@@ -37699,7 +37699,7 @@
         <v>1896</v>
       </c>
       <c r="C1486" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E1486"/>
     </row>
@@ -37711,7 +37711,7 @@
         <v>1896</v>
       </c>
       <c r="C1487" s="5" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E1487"/>
     </row>
@@ -37723,7 +37723,7 @@
         <v>1896</v>
       </c>
       <c r="C1488" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E1488"/>
     </row>
@@ -37735,7 +37735,7 @@
         <v>1896</v>
       </c>
       <c r="C1489" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E1489"/>
     </row>
@@ -37747,7 +37747,7 @@
         <v>1896</v>
       </c>
       <c r="C1490" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E1490"/>
     </row>
@@ -37759,7 +37759,7 @@
         <v>1896</v>
       </c>
       <c r="C1491" s="5" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E1491"/>
     </row>
@@ -37777,13 +37777,13 @@
     </row>
     <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1493" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1493" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1493" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E1493"/>
     </row>
@@ -37801,19 +37801,19 @@
     </row>
     <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1495" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1495" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1495" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E1495"/>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1496" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1496" s="5" t="s">
         <v>1896</v>
@@ -37837,13 +37837,13 @@
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1498" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1498" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1498" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E1498"/>
     </row>
@@ -37855,7 +37855,7 @@
         <v>1896</v>
       </c>
       <c r="C1499" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E1499"/>
     </row>
@@ -37879,19 +37879,19 @@
         <v>1896</v>
       </c>
       <c r="C1501" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E1501"/>
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1502" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B1502" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1502" s="5" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E1502"/>
     </row>
@@ -37909,7 +37909,7 @@
     </row>
     <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1504" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1504" s="5" t="s">
         <v>1896</v>
@@ -37927,7 +37927,7 @@
         <v>1896</v>
       </c>
       <c r="C1505" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E1505"/>
     </row>
@@ -37951,7 +37951,7 @@
         <v>1896</v>
       </c>
       <c r="C1507" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1507"/>
     </row>
@@ -37963,7 +37963,7 @@
         <v>1896</v>
       </c>
       <c r="C1508" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E1508"/>
     </row>
@@ -37975,7 +37975,7 @@
         <v>1896</v>
       </c>
       <c r="C1509" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E1509"/>
     </row>
@@ -37987,7 +37987,7 @@
         <v>1896</v>
       </c>
       <c r="C1510" s="5" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1510"/>
     </row>
@@ -38011,7 +38011,7 @@
         <v>1896</v>
       </c>
       <c r="C1512" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -38023,7 +38023,7 @@
         <v>1896</v>
       </c>
       <c r="C1513" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -38035,7 +38035,7 @@
         <v>1896</v>
       </c>
       <c r="C1514" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -38047,7 +38047,7 @@
         <v>1896</v>
       </c>
       <c r="C1515" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -38071,7 +38071,7 @@
         <v>1896</v>
       </c>
       <c r="C1517" s="5" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E1517"/>
     </row>
@@ -38083,7 +38083,7 @@
         <v>1896</v>
       </c>
       <c r="C1518" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E1518"/>
     </row>
@@ -38095,7 +38095,7 @@
         <v>1896</v>
       </c>
       <c r="C1519" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E1519"/>
     </row>
@@ -38107,7 +38107,7 @@
         <v>1896</v>
       </c>
       <c r="C1520" s="5" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E1520"/>
     </row>
@@ -38119,7 +38119,7 @@
         <v>1896</v>
       </c>
       <c r="C1521" s="5" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E1521"/>
     </row>
@@ -38131,7 +38131,7 @@
         <v>1896</v>
       </c>
       <c r="C1522" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E1522"/>
     </row>
@@ -38143,7 +38143,7 @@
         <v>1896</v>
       </c>
       <c r="C1523" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E1523"/>
     </row>
@@ -38155,7 +38155,7 @@
         <v>1896</v>
       </c>
       <c r="C1524" s="5" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E1524"/>
     </row>
@@ -38167,7 +38167,7 @@
         <v>1896</v>
       </c>
       <c r="C1525" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E1525"/>
     </row>
@@ -38179,7 +38179,7 @@
         <v>1896</v>
       </c>
       <c r="C1526" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E1526"/>
     </row>
@@ -38191,7 +38191,7 @@
         <v>1896</v>
       </c>
       <c r="C1527" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E1527"/>
     </row>
@@ -38203,7 +38203,7 @@
         <v>1896</v>
       </c>
       <c r="C1528" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E1528"/>
     </row>
@@ -38215,7 +38215,7 @@
         <v>1896</v>
       </c>
       <c r="C1529" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E1529"/>
     </row>
@@ -38251,13 +38251,13 @@
         <v>1896</v>
       </c>
       <c r="C1532" s="5" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E1532"/>
     </row>
     <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1533" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1533" s="5" t="s">
         <v>1896</v>
@@ -38281,25 +38281,25 @@
     </row>
     <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1535" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B1535" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1535" s="5" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1535"/>
     </row>
     <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1536" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B1536" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1536" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E1536"/>
     </row>
@@ -38317,13 +38317,13 @@
     </row>
     <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1538" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1538" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1538" s="5" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1538"/>
     </row>
@@ -38341,13 +38341,13 @@
     </row>
     <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1540" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1540" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1540" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E1540"/>
     </row>
@@ -38365,13 +38365,13 @@
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1542" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1542" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1542" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E1542"/>
     </row>
@@ -38389,13 +38389,13 @@
     </row>
     <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1544" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B1544" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1544" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1544"/>
     </row>
@@ -38413,13 +38413,13 @@
     </row>
     <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1546" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1546" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1546" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E1546"/>
     </row>
@@ -38431,7 +38431,7 @@
         <v>1896</v>
       </c>
       <c r="C1547" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E1547"/>
     </row>
@@ -38443,7 +38443,7 @@
         <v>1896</v>
       </c>
       <c r="C1548" s="5" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E1548"/>
     </row>
@@ -38467,7 +38467,7 @@
         <v>1896</v>
       </c>
       <c r="C1550" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E1550"/>
     </row>
@@ -38479,7 +38479,7 @@
         <v>1896</v>
       </c>
       <c r="C1551" s="5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E1551"/>
     </row>
@@ -38491,7 +38491,7 @@
         <v>1896</v>
       </c>
       <c r="C1552" s="5" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E1552"/>
     </row>
@@ -38503,7 +38503,7 @@
         <v>1896</v>
       </c>
       <c r="C1553" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1553"/>
     </row>
@@ -38515,7 +38515,7 @@
         <v>1896</v>
       </c>
       <c r="C1554" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E1554"/>
     </row>
@@ -38533,13 +38533,13 @@
     </row>
     <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1556" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1556" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1556" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -38551,7 +38551,7 @@
         <v>1896</v>
       </c>
       <c r="C1557" s="5" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E1557"/>
     </row>
@@ -38563,19 +38563,19 @@
         <v>1896</v>
       </c>
       <c r="C1558" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E1558"/>
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1559" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B1559" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1559" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -38587,7 +38587,7 @@
         <v>1896</v>
       </c>
       <c r="C1560" s="5" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1560"/>
     </row>
@@ -38599,7 +38599,7 @@
         <v>1896</v>
       </c>
       <c r="C1561" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E1561"/>
     </row>
@@ -38611,7 +38611,7 @@
         <v>1896</v>
       </c>
       <c r="C1562" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E1562"/>
     </row>
@@ -38623,7 +38623,7 @@
         <v>1896</v>
       </c>
       <c r="C1563" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E1563"/>
     </row>
@@ -38635,7 +38635,7 @@
         <v>1896</v>
       </c>
       <c r="C1564" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E1564"/>
     </row>
@@ -38647,31 +38647,31 @@
         <v>1896</v>
       </c>
       <c r="C1565" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E1565"/>
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1566" s="5" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B1566" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1566" s="5" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="E1566"/>
     </row>
     <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1567" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B1567" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1567" s="5" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="E1567"/>
     </row>
@@ -38701,13 +38701,13 @@
     </row>
     <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1570" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1570" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1570" s="5" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E1570"/>
     </row>
@@ -39001,13 +39001,13 @@
     </row>
     <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1595" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1595" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1595" s="5" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E1595"/>
     </row>
@@ -39019,7 +39019,7 @@
         <v>1896</v>
       </c>
       <c r="C1596" s="5" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E1596"/>
     </row>
@@ -39031,7 +39031,7 @@
         <v>1896</v>
       </c>
       <c r="C1597" s="5" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E1597"/>
     </row>
@@ -39043,7 +39043,7 @@
         <v>1896</v>
       </c>
       <c r="C1598" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E1598"/>
     </row>
@@ -39055,7 +39055,7 @@
         <v>1896</v>
       </c>
       <c r="C1599" s="5" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1599"/>
     </row>
@@ -39067,7 +39067,7 @@
         <v>1896</v>
       </c>
       <c r="C1600" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E1600"/>
     </row>
@@ -39079,7 +39079,7 @@
         <v>1896</v>
       </c>
       <c r="C1601" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E1601"/>
     </row>
@@ -39091,7 +39091,7 @@
         <v>1896</v>
       </c>
       <c r="C1602" s="5" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E1602"/>
     </row>
@@ -39103,13 +39103,13 @@
         <v>1896</v>
       </c>
       <c r="C1603" s="5" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E1603"/>
     </row>
     <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1604" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B1604" s="5" t="s">
         <v>1896</v>
@@ -39121,7 +39121,7 @@
     </row>
     <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1605" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="B1605" s="5" t="s">
         <v>1896</v>
@@ -39145,7 +39145,7 @@
     </row>
     <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1607" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B1607" s="5" t="s">
         <v>1896</v>
@@ -39157,7 +39157,7 @@
     </row>
     <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1608" s="5" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B1608" s="5" t="s">
         <v>1896</v>
@@ -39169,7 +39169,7 @@
     </row>
     <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1609" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B1609" s="5" t="s">
         <v>1896</v>
@@ -39181,7 +39181,7 @@
     </row>
     <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1610" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B1610" s="5" t="s">
         <v>1896</v>
@@ -39193,7 +39193,7 @@
     </row>
     <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1611" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B1611" s="5" t="s">
         <v>1896</v>
@@ -39205,7 +39205,7 @@
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1612" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B1612" s="5" t="s">
         <v>1896</v>
@@ -39217,7 +39217,7 @@
     </row>
     <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1613" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B1613" s="5" t="s">
         <v>1896</v>
@@ -39229,7 +39229,7 @@
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1614" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B1614" s="5" t="s">
         <v>1896</v>
@@ -39253,13 +39253,13 @@
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B1616" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1616" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E1616"/>
     </row>
@@ -39277,7 +39277,7 @@
     </row>
     <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1618" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1618" s="5" t="s">
         <v>1896</v>
@@ -39313,25 +39313,25 @@
     </row>
     <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1621" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B1621" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1621" s="5" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E1621"/>
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" s="5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B1622" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1622" s="5" t="s">
         <v>2483</v>
-      </c>
-      <c r="B1622" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1622" s="5" t="s">
-        <v>2484</v>
       </c>
       <c r="E1622"/>
     </row>
@@ -39349,13 +39349,13 @@
     </row>
     <row r="1624" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1624" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1624" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1624" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
@@ -39366,7 +39366,7 @@
         <v>1896</v>
       </c>
       <c r="C1625" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E1625"/>
     </row>
@@ -39378,7 +39378,7 @@
         <v>1896</v>
       </c>
       <c r="C1626" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E1626"/>
     </row>
@@ -39390,7 +39390,7 @@
         <v>1896</v>
       </c>
       <c r="C1627" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E1627"/>
     </row>
@@ -39402,7 +39402,7 @@
         <v>1896</v>
       </c>
       <c r="C1628" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E1628"/>
     </row>
@@ -39414,7 +39414,7 @@
         <v>1896</v>
       </c>
       <c r="C1629" s="5" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E1629"/>
     </row>
@@ -39426,7 +39426,7 @@
         <v>1896</v>
       </c>
       <c r="C1630" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E1630"/>
     </row>
@@ -39438,7 +39438,7 @@
         <v>1896</v>
       </c>
       <c r="C1631" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E1631"/>
     </row>
@@ -39450,7 +39450,7 @@
         <v>1896</v>
       </c>
       <c r="C1632" s="5" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E1632"/>
     </row>
@@ -39462,7 +39462,7 @@
         <v>1896</v>
       </c>
       <c r="C1633" s="5" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E1633"/>
     </row>
@@ -39486,19 +39486,19 @@
         <v>1896</v>
       </c>
       <c r="C1635" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E1635"/>
     </row>
     <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1636" s="2" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B1636" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1636" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E1636"/>
     </row>
@@ -39510,7 +39510,7 @@
         <v>1896</v>
       </c>
       <c r="C1637" s="5" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E1637"/>
     </row>
@@ -39522,7 +39522,7 @@
         <v>1896</v>
       </c>
       <c r="C1638" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="E1638"/>
     </row>
@@ -39534,7 +39534,7 @@
         <v>1896</v>
       </c>
       <c r="C1639" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E1639"/>
     </row>
@@ -39546,7 +39546,7 @@
         <v>1896</v>
       </c>
       <c r="C1640" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E1640"/>
     </row>
@@ -39558,7 +39558,7 @@
         <v>1896</v>
       </c>
       <c r="C1641" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E1641"/>
     </row>
@@ -39570,7 +39570,7 @@
         <v>1896</v>
       </c>
       <c r="C1642" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E1642"/>
     </row>
@@ -39582,7 +39582,7 @@
         <v>1896</v>
       </c>
       <c r="C1643" s="5" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E1643"/>
     </row>
@@ -39594,7 +39594,7 @@
         <v>1896</v>
       </c>
       <c r="C1644" s="5" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E1644"/>
     </row>
@@ -39606,7 +39606,7 @@
         <v>1896</v>
       </c>
       <c r="C1645" s="5" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E1645"/>
     </row>
@@ -39618,7 +39618,7 @@
         <v>1896</v>
       </c>
       <c r="C1646" s="5" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E1646"/>
     </row>
@@ -39648,25 +39648,25 @@
     </row>
     <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1649" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1649" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1649" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E1649"/>
     </row>
     <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" s="5" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B1650" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1650" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E1650"/>
     </row>
@@ -39684,13 +39684,13 @@
     </row>
     <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1652" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1652" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1652" s="5" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E1652"/>
     </row>
@@ -39720,63 +39720,63 @@
     </row>
     <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1655" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1655" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E1655"/>
     </row>
     <row r="1656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1656" t="s">
         <v>2516</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1656" t="s">
-        <v>2517</v>
       </c>
     </row>
     <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1657" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B1657" t="s">
         <v>1677</v>
       </c>
       <c r="C1657" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1658" t="s">
         <v>1896</v>
       </c>
       <c r="C1658" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1659" s="5" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B1659" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C1659" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1660" t="s">
         <v>1896</v>
@@ -39787,7 +39787,7 @@
     </row>
     <row r="1661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1661" s="5" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B1661" t="s">
         <v>1677</v>
@@ -39798,7 +39798,7 @@
     </row>
     <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1662" t="s">
         <v>1896</v>
@@ -39809,7 +39809,7 @@
     </row>
     <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1663" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B1663" s="5" t="s">
         <v>1677</v>
@@ -39820,7 +39820,7 @@
     </row>
     <row r="1664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1664" t="s">
         <v>1896</v>
@@ -39831,7 +39831,7 @@
     </row>
     <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B1665" t="s">
         <v>1677</v>
@@ -39842,46 +39842,46 @@
     </row>
     <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1666" t="s">
         <v>1896</v>
       </c>
       <c r="C1666" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1667" s="5" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B1667" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C1667" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1668" t="s">
         <v>1677</v>
       </c>
       <c r="C1668" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B1669" t="s">
         <v>1896</v>
       </c>
       <c r="C1669" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7845" uniqueCount="2541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7905" uniqueCount="2557">
   <si>
     <t>identifier</t>
   </si>
@@ -7793,12 +7793,6 @@
     <t>SETUP_RENDERED_PERSON</t>
   </si>
   <si>
-    <t>SETUP_RENDERED_COMPANY</t>
-  </si>
-  <si>
-    <t>company_wizard</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -7871,15 +7865,9 @@
     <t>container.models.PersonContainer</t>
   </si>
   <si>
-    <t>SETUP_RENDERED_CONTAINER</t>
-  </si>
-  <si>
     <t>container.models.Container</t>
   </si>
   <si>
-    <t>container_wizard</t>
-  </si>
-  <si>
     <t>CONT_CONTAINER</t>
   </si>
   <si>
@@ -7893,6 +7881,66 @@
   </si>
   <si>
     <t>container.models.Document</t>
+  </si>
+  <si>
+    <t>container.models.CompanySubsidiary</t>
+  </si>
+  <si>
+    <t>container.models.CompanyMember</t>
+  </si>
+  <si>
+    <t>company_subsidiary_wizard</t>
+  </si>
+  <si>
+    <t>container_member_wizard</t>
+  </si>
+  <si>
+    <t>SETUP_RENDERED_COMPANY_SUBSIDIARY</t>
+  </si>
+  <si>
+    <t>SETUP_RENDERED_CONTAINER_MEMBER</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company.placeholder</t>
+  </si>
+  <si>
+    <t>person.placeholder</t>
+  </si>
+  <si>
+    <t>subsidiaries</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>company.inception_date</t>
+  </si>
+  <si>
+    <t>company.status.name</t>
+  </si>
+  <si>
+    <t>person.birth_date</t>
+  </si>
+  <si>
+    <t>Subsidiaries</t>
+  </si>
+  <si>
+    <t>Filiales</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Employés</t>
   </si>
 </sst>
 </file>
@@ -8730,8 +8778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
+      <selection activeCell="B637" sqref="B637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9527,13 +9575,13 @@
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1642</v>
@@ -9748,13 +9796,13 @@
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>42</v>
@@ -9816,13 +9864,13 @@
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>42</v>
@@ -9836,7 +9884,7 @@
         <v>1851</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1852</v>
@@ -9853,7 +9901,7 @@
         <v>1619</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>1617</v>
@@ -9870,7 +9918,7 @@
         <v>1620</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1618</v>
@@ -9901,13 +9949,13 @@
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>1622</v>
@@ -19543,7 +19591,7 @@
         <v>2506</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C636" s="5" t="s">
         <v>2505</v>
@@ -19552,35 +19600,35 @@
         <v>2492</v>
       </c>
       <c r="E636" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>2507</v>
+        <v>2541</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>2508</v>
+        <v>2539</v>
       </c>
       <c r="D637" s="5" t="s">
         <v>2492</v>
       </c>
       <c r="E637" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>2533</v>
+        <v>2542</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>2535</v>
+        <v>2540</v>
       </c>
       <c r="D638" s="5" t="s">
         <v>2492</v>
@@ -20307,16 +20355,16 @@
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -20330,16 +20378,16 @@
         <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
   </sheetData>
@@ -20597,10 +20645,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1681"/>
+  <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView topLeftCell="A1641" workbookViewId="0">
-      <selection activeCell="A1676" sqref="A1676"/>
+    <sheetView topLeftCell="A1665" workbookViewId="0">
+      <selection activeCell="C1702" sqref="C1702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20657,7 +20705,7 @@
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1677</v>
@@ -20701,7 +20749,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1677</v>
@@ -21422,51 +21470,51 @@
         <v>1677</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -21488,7 +21536,7 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21521,7 +21569,7 @@
         <v>1677</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21581,7 +21629,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>1677</v>
@@ -21592,7 +21640,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>1677</v>
@@ -21625,7 +21673,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>1677</v>
@@ -24570,13 +24618,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="E358"/>
     </row>
@@ -24832,25 +24880,25 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C380" s="5" t="s">
         <v>2512</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>2514</v>
       </c>
       <c r="E380"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="E381"/>
     </row>
@@ -28431,7 +28479,7 @@
     </row>
     <row r="680" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B680" s="5" t="s">
         <v>1677</v>
@@ -28478,7 +28526,7 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B684" s="5" t="s">
         <v>1677</v>
@@ -29962,7 +30010,7 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B809" s="5" t="s">
         <v>1677</v>
@@ -30483,7 +30531,7 @@
     </row>
     <row r="853" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B853" s="5" t="s">
         <v>1896</v>
@@ -30529,7 +30577,7 @@
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>1896</v>
@@ -30583,7 +30631,7 @@
         <v>1896</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="E861"/>
     </row>
@@ -31261,47 +31309,47 @@
     </row>
     <row r="918" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B918" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C918" s="5" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="919" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>2534</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="E920"/>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="B921" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C921" s="5" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="E921"/>
     </row>
@@ -31391,7 +31439,7 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>1896</v>
@@ -31403,7 +31451,7 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>1896</v>
@@ -31439,7 +31487,7 @@
     </row>
     <row r="933" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="5" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>1896</v>
@@ -34615,13 +34663,13 @@
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1198" s="5" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="B1198" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="E1198"/>
     </row>
@@ -34879,25 +34927,25 @@
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220" s="5" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="E1220"/>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1221" s="5" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B1221" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1221" s="5" t="s">
         <v>2527</v>
-      </c>
-      <c r="B1221" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1221" s="5" t="s">
-        <v>2529</v>
       </c>
       <c r="E1221"/>
     </row>
@@ -35077,7 +35125,7 @@
         <v>1896</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="E1236"/>
     </row>
@@ -38479,7 +38527,7 @@
     </row>
     <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1520" s="5" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B1520" s="5" t="s">
         <v>1896</v>
@@ -38527,7 +38575,7 @@
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1524" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="B1524" s="5" t="s">
         <v>1896</v>
@@ -39978,7 +40026,7 @@
     </row>
     <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1645" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="B1645" s="5" t="s">
         <v>1896</v>
@@ -40403,6 +40451,226 @@
       </c>
       <c r="C1681" t="s">
         <v>2446</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1695" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1696" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1697" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1698" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1699" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1700" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1701" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>1922</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7905" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7915" uniqueCount="2562">
   <si>
     <t>identifier</t>
   </si>
@@ -6197,9 +6197,6 @@
     <t>Work on</t>
   </si>
   <si>
-    <t>/index.html</t>
-  </si>
-  <si>
     <t>/container/setup.html</t>
   </si>
   <si>
@@ -7892,15 +7889,9 @@
     <t>company_subsidiary_wizard</t>
   </si>
   <si>
-    <t>container_member_wizard</t>
-  </si>
-  <si>
     <t>SETUP_RENDERED_COMPANY_SUBSIDIARY</t>
   </si>
   <si>
-    <t>SETUP_RENDERED_CONTAINER_MEMBER</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -7941,6 +7932,30 @@
   </si>
   <si>
     <t>Employés</t>
+  </si>
+  <si>
+    <t>global.setup.reset_nosql</t>
+  </si>
+  <si>
+    <t>/container/application/reset_nosql.html</t>
+  </si>
+  <si>
+    <t>Reset integration data</t>
+  </si>
+  <si>
+    <t>Réinitialiser des données d'intégration</t>
+  </si>
+  <si>
+    <t>SETUP_RENDERED_COMPANY_MEMBER</t>
+  </si>
+  <si>
+    <t>SETUP_RENDERED_CONTAINER</t>
+  </si>
+  <si>
+    <t>company_member_wizard</t>
+  </si>
+  <si>
+    <t>container_wizard</t>
   </si>
 </sst>
 </file>
@@ -8776,10 +8791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E638"/>
+  <dimension ref="A1:E639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A594" workbookViewId="0">
-      <selection activeCell="B637" sqref="B637"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9575,13 +9590,13 @@
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>2520</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>2521</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1642</v>
@@ -9796,13 +9811,13 @@
     </row>
     <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>42</v>
@@ -9864,13 +9879,13 @@
     </row>
     <row r="64" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>2532</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>2533</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>42</v>
@@ -9884,7 +9899,7 @@
         <v>1851</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1852</v>
@@ -9901,7 +9916,7 @@
         <v>1619</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>1617</v>
@@ -9918,7 +9933,7 @@
         <v>1620</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1618</v>
@@ -9949,13 +9964,13 @@
     </row>
     <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>1622</v>
@@ -19333,16 +19348,16 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B621" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C621" t="s">
         <v>1980</v>
       </c>
-      <c r="C621" t="s">
+      <c r="D621" t="s">
         <v>1981</v>
-      </c>
-      <c r="D621" t="s">
-        <v>1982</v>
       </c>
       <c r="E621" t="b">
         <v>1</v>
@@ -19350,16 +19365,16 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B622" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C622" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D622" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E622" s="5" t="b">
         <v>1</v>
@@ -19367,16 +19382,16 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B623" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C623" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D623" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E623" s="5" t="b">
         <v>1</v>
@@ -19384,16 +19399,16 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B624" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C624" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D624" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E624" s="5" t="b">
         <v>1</v>
@@ -19401,16 +19416,16 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B625" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C625" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D625" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E625" s="5" t="b">
         <v>1</v>
@@ -19418,16 +19433,16 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B626" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C626" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D626" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E626" s="5" t="b">
         <v>1</v>
@@ -19435,16 +19450,16 @@
     </row>
     <row r="627" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B627" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C627" s="5" t="s">
         <v>2002</v>
       </c>
-      <c r="C627" s="5" t="s">
-        <v>2003</v>
-      </c>
       <c r="D627" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E627" s="5" t="b">
         <v>1</v>
@@ -19452,16 +19467,16 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B628" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C628" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D628" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E628" s="5" t="b">
         <v>1</v>
@@ -19469,16 +19484,16 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B629" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C629" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D629" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E629" s="5" t="b">
         <v>1</v>
@@ -19486,16 +19501,16 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B630" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C630" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D630" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E630" s="5" t="b">
         <v>1</v>
@@ -19503,16 +19518,16 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B631" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C631" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D631" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="E631" s="5" t="b">
         <v>1</v>
@@ -19520,16 +19535,16 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B632" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C632" t="s">
         <v>2493</v>
       </c>
-      <c r="C632" t="s">
-        <v>2494</v>
-      </c>
       <c r="D632" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E632" s="5" t="b">
         <v>1</v>
@@ -19537,16 +19552,16 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B633" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C633" s="5" t="s">
         <v>2497</v>
       </c>
-      <c r="B633" s="5" t="s">
-        <v>2496</v>
-      </c>
-      <c r="C633" s="5" t="s">
-        <v>2498</v>
-      </c>
       <c r="D633" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E633" s="5" t="b">
         <v>1</v>
@@ -19554,16 +19569,16 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B634" s="5" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C634" s="5" t="s">
         <v>2499</v>
       </c>
-      <c r="C634" s="5" t="s">
-        <v>2500</v>
-      </c>
       <c r="D634" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E634" s="5" t="b">
         <v>1</v>
@@ -19571,16 +19586,16 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B635" s="5" t="s">
+        <v>2501</v>
+      </c>
+      <c r="C635" s="5" t="s">
         <v>2502</v>
       </c>
-      <c r="C635" s="5" t="s">
-        <v>2503</v>
-      </c>
       <c r="D635" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E635" s="5" t="b">
         <v>1</v>
@@ -19588,16 +19603,16 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B636" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C636" s="5" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D636" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E636" s="5" t="b">
         <v>1</v>
@@ -19605,16 +19620,16 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B637" s="5" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D637" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E637" s="5" t="b">
         <v>1</v>
@@ -19622,18 +19637,35 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
-        <v>2542</v>
+        <v>2558</v>
       </c>
       <c r="B638" s="5" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="D638" s="5" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E638" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B639" s="5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C639" s="5" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D639" s="5" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E639" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -19648,7 +19680,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19680,7 +19712,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1753</v>
@@ -19709,7 +19741,7 @@
         <v>1499</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1942</v>
@@ -19726,25 +19758,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1935</v>
+        <v>1940</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1941</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1957</v>
+        <v>1754</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1499</v>
+        <v>43</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>1975</v>
+        <v>1942</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>1974</v>
+        <v>1937</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>1974</v>
+        <v>1937</v>
       </c>
       <c r="J3" s="5" t="b">
         <v>0</v>
@@ -19755,16 +19790,16 @@
         <v>1940</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1754</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>1942</v>
@@ -19781,31 +19816,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1940</v>
+        <v>1947</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>1957</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1942</v>
+        <v>1975</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1949</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>1937</v>
+        <v>1950</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1937</v>
+        <v>1950</v>
       </c>
       <c r="J5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -19822,16 +19857,16 @@
         <v>2094</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="J6" s="5" t="b">
         <v>1</v>
@@ -19851,16 +19886,16 @@
         <v>2095</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="J7" s="5" t="b">
         <v>1</v>
@@ -19880,16 +19915,16 @@
         <v>2096</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="J8" s="5" t="b">
         <v>1</v>
@@ -19900,7 +19935,7 @@
         <v>1947</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1957</v>
@@ -19909,16 +19944,16 @@
         <v>2097</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1953</v>
+        <v>1959</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="J9" s="5" t="b">
         <v>1</v>
@@ -19938,16 +19973,16 @@
         <v>2098</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1961</v>
+        <v>2099</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1961</v>
+        <v>2099</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
@@ -19958,28 +19993,25 @@
         <v>1947</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1958</v>
+        <v>1976</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1976</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>2100</v>
+        <v>1978</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>2100</v>
+        <v>1978</v>
       </c>
       <c r="J11" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -19987,10 +20019,10 @@
         <v>1947</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>1977</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>1978</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>2101</v>
@@ -19999,10 +20031,10 @@
         <v>2009</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1979</v>
+        <v>2005</v>
       </c>
       <c r="J12" s="5" t="b">
         <v>0</v>
@@ -20013,10 +20045,10 @@
         <v>1947</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1977</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1978</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>2102</v>
@@ -20031,7 +20063,7 @@
         <v>2006</v>
       </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -20039,22 +20071,22 @@
         <v>1947</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1957</v>
+        <v>1977</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>2103</v>
+        <v>2554</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>2011</v>
+        <v>2555</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>2007</v>
+        <v>2556</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>2007</v>
+        <v>2556</v>
       </c>
       <c r="J14" s="5" t="b">
         <v>1</v>
@@ -20097,7 +20129,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>1753</v>
@@ -20169,7 +20201,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1755</v>
@@ -20193,7 +20225,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1755</v>
@@ -20217,7 +20249,7 @@
         <v>1499</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>1755</v>
@@ -20240,7 +20272,7 @@
         <v>1849</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>1755</v>
@@ -20263,7 +20295,7 @@
         <v>1849</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>1760</v>
@@ -20286,7 +20318,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>1760</v>
@@ -20309,7 +20341,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>1760</v>
@@ -20332,7 +20364,7 @@
         <v>1499</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1760</v>
@@ -20349,22 +20381,22 @@
         <v>1759</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>2523</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>2524</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -20372,22 +20404,22 @@
         <v>1759</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>2522</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>2523</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>2524</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
@@ -20645,7 +20677,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1701"/>
+  <dimension ref="A1:E1703"/>
   <sheetViews>
     <sheetView topLeftCell="A1665" workbookViewId="0">
       <selection activeCell="C1702" sqref="C1702"/>
@@ -20683,13 +20715,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B3" t="s">
         <v>1677</v>
       </c>
       <c r="C3" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -20700,12 +20732,12 @@
         <v>1677</v>
       </c>
       <c r="C4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1677</v>
@@ -20727,13 +20759,13 @@
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20744,29 +20776,29 @@
         <v>1677</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C9" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C10" t="s">
         <v>2457</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -20837,13 +20869,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C17" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -20892,13 +20924,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -20914,24 +20946,24 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C24" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C25" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -20947,13 +20979,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B27" t="s">
         <v>1677</v>
       </c>
       <c r="C27" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -20975,7 +21007,7 @@
         <v>1677</v>
       </c>
       <c r="C29" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -20986,7 +21018,7 @@
         <v>1677</v>
       </c>
       <c r="C30" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -21002,13 +21034,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B32" t="s">
         <v>1677</v>
       </c>
       <c r="C32" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -21024,13 +21056,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B34" t="s">
         <v>1677</v>
       </c>
       <c r="C34" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -21041,7 +21073,7 @@
         <v>1677</v>
       </c>
       <c r="C35" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -21090,13 +21122,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B40" t="s">
         <v>1677</v>
       </c>
       <c r="C40" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -21134,13 +21166,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B44" t="s">
         <v>1677</v>
       </c>
       <c r="C44" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -21409,13 +21441,13 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -21426,7 +21458,7 @@
         <v>1677</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -21437,7 +21469,7 @@
         <v>1677</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -21470,51 +21502,51 @@
         <v>1677</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>2532</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>2535</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>2536</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -21536,7 +21568,7 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21569,7 +21601,7 @@
         <v>1677</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21602,7 +21634,7 @@
         <v>1677</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -21613,7 +21645,7 @@
         <v>1677</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -21624,12 +21656,12 @@
         <v>1677</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>1677</v>
@@ -21640,7 +21672,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>1677</v>
@@ -21662,24 +21694,24 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -21690,7 +21722,7 @@
         <v>1677</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -23778,13 +23810,13 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -23800,13 +23832,13 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -23817,7 +23849,7 @@
         <v>1677</v>
       </c>
       <c r="C287" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -23839,7 +23871,7 @@
         <v>1677</v>
       </c>
       <c r="C289" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -23866,13 +23898,13 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C292" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -24169,7 +24201,7 @@
         <v>1677</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -24240,13 +24272,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C326" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -24280,7 +24312,7 @@
         <v>1677</v>
       </c>
       <c r="C329" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24302,18 +24334,18 @@
         <v>1677</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="332" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -24324,7 +24356,7 @@
         <v>1677</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E333"/>
     </row>
@@ -24336,7 +24368,7 @@
         <v>1677</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E334"/>
     </row>
@@ -24504,7 +24536,7 @@
         <v>1677</v>
       </c>
       <c r="C348" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="E348"/>
     </row>
@@ -24516,7 +24548,7 @@
         <v>1677</v>
       </c>
       <c r="C349" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E349"/>
     </row>
@@ -24528,7 +24560,7 @@
         <v>1677</v>
       </c>
       <c r="C350" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E350"/>
     </row>
@@ -24576,7 +24608,7 @@
         <v>1677</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E354"/>
     </row>
@@ -24618,13 +24650,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C358" s="5" t="s">
         <v>2520</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>2521</v>
       </c>
       <c r="E358"/>
     </row>
@@ -24690,13 +24722,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E364"/>
     </row>
@@ -24822,13 +24854,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E375"/>
     </row>
@@ -24845,13 +24877,13 @@
     </row>
     <row r="377" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -24868,43 +24900,43 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E379"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="E380"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C381" s="5" t="s">
         <v>2525</v>
-      </c>
-      <c r="B381" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>2526</v>
       </c>
       <c r="E381"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>1677</v>
@@ -24916,7 +24948,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>1677</v>
@@ -24928,7 +24960,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>1677</v>
@@ -24940,7 +24972,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>1677</v>
@@ -24952,7 +24984,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>1677</v>
@@ -24964,7 +24996,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>1677</v>
@@ -24976,19 +25008,19 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C388" s="5" t="s">
         <v>2066</v>
-      </c>
-      <c r="B388" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C388" s="5" t="s">
-        <v>2067</v>
       </c>
       <c r="E388"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>1677</v>
@@ -25000,7 +25032,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>1677</v>
@@ -25012,7 +25044,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>1677</v>
@@ -25024,7 +25056,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>1677</v>
@@ -25036,19 +25068,19 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E393"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>1677</v>
@@ -25060,7 +25092,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>1677</v>
@@ -25072,19 +25104,19 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E396"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>1677</v>
@@ -25096,7 +25128,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>1677</v>
@@ -25108,7 +25140,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>1677</v>
@@ -25120,7 +25152,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>1677</v>
@@ -25132,7 +25164,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>1677</v>
@@ -25144,91 +25176,91 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E402"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C403" s="5" t="s">
         <v>2099</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C403" s="5" t="s">
-        <v>2100</v>
       </c>
       <c r="E403"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E404"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C405" s="5" t="s">
         <v>2056</v>
-      </c>
-      <c r="B405" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C405" s="5" t="s">
-        <v>2057</v>
       </c>
       <c r="E405"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="E406"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E407"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E408"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>1677</v>
@@ -25252,13 +25284,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E411"/>
     </row>
@@ -25276,13 +25308,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E413"/>
     </row>
@@ -28300,13 +28332,13 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B665" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C665" s="5" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E665"/>
     </row>
@@ -28390,7 +28422,7 @@
         <v>1677</v>
       </c>
       <c r="C672" s="5" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E672"/>
     </row>
@@ -28444,13 +28476,13 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B677" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E677"/>
     </row>
@@ -28468,18 +28500,18 @@
     </row>
     <row r="679" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="680" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B680" s="5" t="s">
         <v>1677</v>
@@ -28502,13 +28534,13 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B682" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C682" s="5" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E682"/>
     </row>
@@ -28520,19 +28552,19 @@
         <v>1677</v>
       </c>
       <c r="C683" s="5" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E683"/>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B684" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E684"/>
     </row>
@@ -28562,13 +28594,13 @@
     </row>
     <row r="687" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B687" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="688" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28579,18 +28611,18 @@
         <v>1677</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="689" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B689" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="690" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28606,13 +28638,13 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B691" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C691" s="5" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="E691"/>
     </row>
@@ -28804,7 +28836,7 @@
         <v>1677</v>
       </c>
       <c r="C707" s="5" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E707"/>
     </row>
@@ -28816,7 +28848,7 @@
         <v>1677</v>
       </c>
       <c r="C708" s="5" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E708"/>
     </row>
@@ -28828,7 +28860,7 @@
         <v>1677</v>
       </c>
       <c r="C709" s="5" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E709"/>
     </row>
@@ -28840,7 +28872,7 @@
         <v>1677</v>
       </c>
       <c r="C710" s="5" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="E710"/>
     </row>
@@ -28948,13 +28980,13 @@
         <v>1677</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E719"/>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B720" s="5" t="s">
         <v>1677</v>
@@ -28977,24 +29009,24 @@
     </row>
     <row r="722" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B722" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="723" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B723" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C723" s="5" t="s">
         <v>2483</v>
-      </c>
-      <c r="B723" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C723" s="5" t="s">
-        <v>2484</v>
       </c>
     </row>
     <row r="724" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29010,13 +29042,13 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B725" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E725"/>
     </row>
@@ -29034,13 +29066,13 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B727" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E727"/>
     </row>
@@ -29058,13 +29090,13 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B729" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E729"/>
     </row>
@@ -29082,13 +29114,13 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B731" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E731"/>
     </row>
@@ -29106,13 +29138,13 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B733" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E733"/>
     </row>
@@ -29226,13 +29258,13 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B743" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E743"/>
     </row>
@@ -29244,7 +29276,7 @@
         <v>1677</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E744"/>
     </row>
@@ -29256,19 +29288,19 @@
         <v>1677</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E745"/>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B746" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C746" s="5" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E746"/>
     </row>
@@ -29280,7 +29312,7 @@
         <v>1677</v>
       </c>
       <c r="C747" s="5" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E747"/>
     </row>
@@ -29342,25 +29374,25 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B753" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C753" s="5" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E753"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B754" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E754"/>
     </row>
@@ -29390,13 +29422,13 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B757" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E757"/>
     </row>
@@ -29413,52 +29445,52 @@
     </row>
     <row r="759" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B759" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="760" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B760" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C760" s="5" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="761" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B761" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C761" s="5" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B762" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="E762"/>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B763" s="5" t="s">
         <v>1677</v>
@@ -29470,115 +29502,115 @@
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B764" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E764"/>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B765" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E765"/>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B766" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C766" s="5" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E766"/>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B767" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C767" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E767"/>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B768" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E768"/>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B769" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C769" s="5" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="E769"/>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B770" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E770"/>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B771" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E771"/>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B772" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C772" s="5" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="E772"/>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B773" s="5" t="s">
         <v>1677</v>
@@ -29590,55 +29622,55 @@
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B774" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C774" s="5" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E774"/>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B775" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C775" s="5" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E775"/>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B776" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C776" s="5" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E776"/>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B777" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C777" s="5" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E777"/>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B778" s="5" t="s">
         <v>1677</v>
@@ -29650,25 +29682,25 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B779" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C779" s="5" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E779"/>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C780" s="5" t="s">
         <v>2040</v>
-      </c>
-      <c r="B780" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C780" s="5" t="s">
-        <v>2041</v>
       </c>
       <c r="E780"/>
     </row>
@@ -29686,13 +29718,13 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B782" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C782" s="5" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E782"/>
     </row>
@@ -29776,7 +29808,7 @@
         <v>1677</v>
       </c>
       <c r="C789" s="5" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="E789"/>
     </row>
@@ -29788,7 +29820,7 @@
         <v>1677</v>
       </c>
       <c r="C790" s="5" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="E790"/>
     </row>
@@ -29806,145 +29838,145 @@
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B792" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C792" s="5" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E792"/>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B793" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C793" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E793"/>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B794" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C794" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E794"/>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B795" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C795" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E795"/>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B796" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C796" s="5" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E796"/>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B797" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C797" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E797"/>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B798" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C798" s="5" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E798"/>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B799" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C799" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E799"/>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B800" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C800" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E800"/>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B801" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C801" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E801"/>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B802" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C802" s="5" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E802"/>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B803" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C803" s="5" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E803"/>
     </row>
@@ -29962,13 +29994,13 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B805" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C805" s="5" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E805"/>
     </row>
@@ -29986,13 +30018,13 @@
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B807" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C807" s="5" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E807"/>
     </row>
@@ -30010,7 +30042,7 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B809" s="5" t="s">
         <v>1677</v>
@@ -30034,25 +30066,25 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B811" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C811" s="5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E811"/>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B812" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C812" s="5" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E812"/>
     </row>
@@ -30070,13 +30102,13 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B814" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C814" s="5" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E814"/>
     </row>
@@ -30159,7 +30191,7 @@
         <v>1677</v>
       </c>
       <c r="C821" s="5" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E821"/>
     </row>
@@ -30213,13 +30245,13 @@
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" s="2" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B826" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C826" s="5" t="s">
         <v>2475</v>
-      </c>
-      <c r="B826" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C826" s="5" t="s">
-        <v>2476</v>
       </c>
       <c r="E826"/>
     </row>
@@ -30231,7 +30263,7 @@
         <v>1677</v>
       </c>
       <c r="C827" s="5" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E827"/>
     </row>
@@ -30371,7 +30403,7 @@
         <v>1677</v>
       </c>
       <c r="C839" s="5" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E839"/>
     </row>
@@ -30437,25 +30469,25 @@
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B845" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E845"/>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B846" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C846" s="5" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E846"/>
     </row>
@@ -30473,13 +30505,13 @@
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B848" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E848"/>
     </row>
@@ -30509,13 +30541,13 @@
     </row>
     <row r="851" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B851" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C851" s="5" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="852" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30526,12 +30558,12 @@
         <v>1896</v>
       </c>
       <c r="C852" s="5" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="853" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B853" s="5" t="s">
         <v>1896</v>
@@ -30553,13 +30585,13 @@
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" s="5" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B855" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E855"/>
     </row>
@@ -30571,31 +30603,31 @@
         <v>1896</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E856"/>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" s="5" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B857" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C857" s="5" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E857"/>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B858" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C858" s="5" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E858"/>
     </row>
@@ -30607,7 +30639,7 @@
         <v>1896</v>
       </c>
       <c r="C859" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="E859"/>
     </row>
@@ -30619,7 +30651,7 @@
         <v>1896</v>
       </c>
       <c r="C860" s="5" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="E860"/>
     </row>
@@ -30631,7 +30663,7 @@
         <v>1896</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="E861"/>
     </row>
@@ -30643,7 +30675,7 @@
         <v>1896</v>
       </c>
       <c r="C862" s="5" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E862"/>
     </row>
@@ -30655,7 +30687,7 @@
         <v>1896</v>
       </c>
       <c r="C863" s="5" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="E863"/>
     </row>
@@ -30673,13 +30705,13 @@
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" s="5" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B865" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C865" s="5" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E865"/>
     </row>
@@ -30733,13 +30765,13 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B870" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C870" s="5" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E870"/>
     </row>
@@ -30757,25 +30789,25 @@
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" s="5" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B872" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C872" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E872"/>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" s="5" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B873" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C873" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E873"/>
     </row>
@@ -30787,7 +30819,7 @@
         <v>1896</v>
       </c>
       <c r="C874" s="5" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="E874"/>
     </row>
@@ -30811,7 +30843,7 @@
         <v>1896</v>
       </c>
       <c r="C876" s="5" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E876"/>
     </row>
@@ -30829,13 +30861,13 @@
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" s="5" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B878" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C878" s="5" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E878"/>
     </row>
@@ -30847,7 +30879,7 @@
         <v>1896</v>
       </c>
       <c r="C879" s="5" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E879"/>
     </row>
@@ -30883,7 +30915,7 @@
         <v>1896</v>
       </c>
       <c r="C882" s="5" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E882"/>
     </row>
@@ -30901,13 +30933,13 @@
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" s="5" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B884" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C884" s="5" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E884"/>
     </row>
@@ -30949,13 +30981,13 @@
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" s="5" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B888" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C888" s="5" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E888"/>
     </row>
@@ -30967,7 +30999,7 @@
         <v>1896</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E889"/>
     </row>
@@ -30979,7 +31011,7 @@
         <v>1896</v>
       </c>
       <c r="C890" s="5" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="E890"/>
     </row>
@@ -30991,7 +31023,7 @@
         <v>1896</v>
       </c>
       <c r="C891" s="5" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="E891"/>
     </row>
@@ -31003,7 +31035,7 @@
         <v>1896</v>
       </c>
       <c r="C892" s="5" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E892"/>
     </row>
@@ -31015,7 +31047,7 @@
         <v>1896</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="E893"/>
     </row>
@@ -31027,7 +31059,7 @@
         <v>1896</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E894"/>
     </row>
@@ -31039,7 +31071,7 @@
         <v>1896</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="E895"/>
     </row>
@@ -31051,7 +31083,7 @@
         <v>1896</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="E896"/>
     </row>
@@ -31063,7 +31095,7 @@
         <v>1896</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E897"/>
     </row>
@@ -31075,7 +31107,7 @@
         <v>1896</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="E898"/>
     </row>
@@ -31087,7 +31119,7 @@
         <v>1896</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="E899"/>
     </row>
@@ -31099,7 +31131,7 @@
         <v>1896</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="E900"/>
     </row>
@@ -31111,7 +31143,7 @@
         <v>1896</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="E901"/>
     </row>
@@ -31123,7 +31155,7 @@
         <v>1896</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="E902"/>
     </row>
@@ -31135,7 +31167,7 @@
         <v>1896</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E903"/>
     </row>
@@ -31147,7 +31179,7 @@
         <v>1896</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E904"/>
     </row>
@@ -31159,7 +31191,7 @@
         <v>1896</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E905"/>
     </row>
@@ -31171,7 +31203,7 @@
         <v>1896</v>
       </c>
       <c r="C906" s="5" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E906"/>
     </row>
@@ -31183,7 +31215,7 @@
         <v>1896</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="E907"/>
     </row>
@@ -31195,7 +31227,7 @@
         <v>1896</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E908"/>
     </row>
@@ -31207,7 +31239,7 @@
         <v>1896</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E909"/>
     </row>
@@ -31219,7 +31251,7 @@
         <v>1896</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E910"/>
     </row>
@@ -31231,7 +31263,7 @@
         <v>1896</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="E911"/>
     </row>
@@ -31249,13 +31281,13 @@
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" s="5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B913" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E913"/>
     </row>
@@ -31267,7 +31299,7 @@
         <v>1896</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="E914"/>
     </row>
@@ -31279,7 +31311,7 @@
         <v>1896</v>
       </c>
       <c r="C915" s="5" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E915"/>
     </row>
@@ -31303,53 +31335,53 @@
         <v>1896</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="E917"/>
     </row>
     <row r="918" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B918" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C918" s="5" t="s">
         <v>2532</v>
-      </c>
-      <c r="B918" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C918" s="5" t="s">
-        <v>2533</v>
       </c>
     </row>
     <row r="919" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A919" s="5" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B919" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C919" s="5" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B920" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C920" s="5" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E920"/>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B921" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C921" s="5" t="s">
         <v>2535</v>
-      </c>
-      <c r="B921" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C921" s="5" t="s">
-        <v>2536</v>
       </c>
       <c r="E921"/>
     </row>
@@ -31361,7 +31393,7 @@
         <v>1896</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="E922"/>
     </row>
@@ -31373,7 +31405,7 @@
         <v>1896</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E923"/>
     </row>
@@ -31385,7 +31417,7 @@
         <v>1896</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="E924"/>
     </row>
@@ -31409,7 +31441,7 @@
         <v>1896</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E926"/>
     </row>
@@ -31421,7 +31453,7 @@
         <v>1896</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E927"/>
     </row>
@@ -31433,13 +31465,13 @@
         <v>1896</v>
       </c>
       <c r="C928" s="5" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E928"/>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" s="5" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B929" s="5" t="s">
         <v>1896</v>
@@ -31451,7 +31483,7 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" s="5" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B930" s="5" t="s">
         <v>1896</v>
@@ -31475,25 +31507,25 @@
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" s="5" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B932" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C932" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E932"/>
     </row>
     <row r="933" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="5" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B933" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C933" s="5" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="934" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31504,7 +31536,7 @@
         <v>1896</v>
       </c>
       <c r="C934" s="5" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
@@ -31515,7 +31547,7 @@
         <v>1896</v>
       </c>
       <c r="C935" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="E935"/>
     </row>
@@ -31539,7 +31571,7 @@
         <v>1896</v>
       </c>
       <c r="C937" s="5" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="E937"/>
     </row>
@@ -33777,13 +33809,13 @@
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1124" s="5" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B1124" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1124" s="5" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E1124"/>
     </row>
@@ -33801,13 +33833,13 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" s="5" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B1126" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1126" s="5" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E1126"/>
     </row>
@@ -33819,7 +33851,7 @@
         <v>1896</v>
       </c>
       <c r="C1127" s="5" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E1127"/>
     </row>
@@ -33831,7 +33863,7 @@
         <v>1896</v>
       </c>
       <c r="C1128" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="E1128"/>
     </row>
@@ -33843,7 +33875,7 @@
         <v>1896</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E1129"/>
     </row>
@@ -33873,13 +33905,13 @@
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1132" s="5" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B1132" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1132" s="5" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E1132"/>
     </row>
@@ -33903,7 +33935,7 @@
         <v>1896</v>
       </c>
       <c r="C1134" s="5" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E1134"/>
     </row>
@@ -33915,7 +33947,7 @@
         <v>1896</v>
       </c>
       <c r="C1135" s="5" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="E1135"/>
     </row>
@@ -33927,7 +33959,7 @@
         <v>1896</v>
       </c>
       <c r="C1136" s="5" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E1136"/>
     </row>
@@ -33939,7 +33971,7 @@
         <v>1896</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="E1137"/>
     </row>
@@ -33951,7 +33983,7 @@
         <v>1896</v>
       </c>
       <c r="C1138" s="5" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="E1138"/>
     </row>
@@ -33963,7 +33995,7 @@
         <v>1896</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="E1139"/>
     </row>
@@ -33975,7 +34007,7 @@
         <v>1896</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="E1140"/>
     </row>
@@ -33987,7 +34019,7 @@
         <v>1896</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="E1141"/>
     </row>
@@ -33999,7 +34031,7 @@
         <v>1896</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="E1142"/>
     </row>
@@ -34011,7 +34043,7 @@
         <v>1896</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="E1143"/>
     </row>
@@ -34023,7 +34055,7 @@
         <v>1896</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E1144"/>
     </row>
@@ -34035,7 +34067,7 @@
         <v>1896</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="E1145"/>
     </row>
@@ -34047,7 +34079,7 @@
         <v>1896</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="E1146"/>
     </row>
@@ -34059,7 +34091,7 @@
         <v>1896</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="E1147"/>
     </row>
@@ -34071,7 +34103,7 @@
         <v>1896</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E1148"/>
     </row>
@@ -34083,7 +34115,7 @@
         <v>1896</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E1149"/>
     </row>
@@ -34095,7 +34127,7 @@
         <v>1896</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E1150"/>
     </row>
@@ -34107,7 +34139,7 @@
         <v>1896</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="E1151"/>
     </row>
@@ -34119,7 +34151,7 @@
         <v>1896</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="E1152"/>
     </row>
@@ -34131,7 +34163,7 @@
         <v>1896</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="E1153"/>
     </row>
@@ -34143,7 +34175,7 @@
         <v>1896</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="E1154"/>
     </row>
@@ -34155,7 +34187,7 @@
         <v>1896</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="E1155"/>
     </row>
@@ -34167,7 +34199,7 @@
         <v>1896</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E1156"/>
     </row>
@@ -34179,7 +34211,7 @@
         <v>1896</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="E1157"/>
     </row>
@@ -34191,7 +34223,7 @@
         <v>1896</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="E1158"/>
     </row>
@@ -34203,7 +34235,7 @@
         <v>1896</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E1159"/>
     </row>
@@ -34215,7 +34247,7 @@
         <v>1896</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E1160"/>
     </row>
@@ -34227,7 +34259,7 @@
         <v>1896</v>
       </c>
       <c r="C1161" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E1161"/>
     </row>
@@ -34239,7 +34271,7 @@
         <v>1896</v>
       </c>
       <c r="C1162" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="E1162"/>
     </row>
@@ -34251,7 +34283,7 @@
         <v>1896</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="E1163"/>
     </row>
@@ -34263,7 +34295,7 @@
         <v>1896</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E1164"/>
     </row>
@@ -34281,13 +34313,13 @@
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1166" s="5" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B1166" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1166" s="5" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E1166"/>
     </row>
@@ -34299,7 +34331,7 @@
         <v>1896</v>
       </c>
       <c r="C1167" s="5" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E1167"/>
     </row>
@@ -34311,7 +34343,7 @@
         <v>1896</v>
       </c>
       <c r="C1168" s="5" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E1168"/>
     </row>
@@ -34323,7 +34355,7 @@
         <v>1896</v>
       </c>
       <c r="C1169" s="5" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E1169"/>
     </row>
@@ -34335,7 +34367,7 @@
         <v>1896</v>
       </c>
       <c r="C1170" s="5" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="E1170"/>
     </row>
@@ -34347,19 +34379,19 @@
         <v>1896</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E1171"/>
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1172" s="5" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B1172" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E1172"/>
     </row>
@@ -34371,7 +34403,7 @@
         <v>1896</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E1173"/>
     </row>
@@ -34383,7 +34415,7 @@
         <v>1896</v>
       </c>
       <c r="C1174" s="5" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E1174"/>
     </row>
@@ -34395,7 +34427,7 @@
         <v>1896</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E1175"/>
     </row>
@@ -34551,7 +34583,7 @@
         <v>1896</v>
       </c>
       <c r="C1188" s="5" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E1188"/>
     </row>
@@ -34563,7 +34595,7 @@
         <v>1896</v>
       </c>
       <c r="C1189" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E1189"/>
     </row>
@@ -34575,7 +34607,7 @@
         <v>1896</v>
       </c>
       <c r="C1190" s="5" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1191" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -34586,7 +34618,7 @@
         <v>1896</v>
       </c>
       <c r="C1191" s="5" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.25">
@@ -34597,7 +34629,7 @@
         <v>1896</v>
       </c>
       <c r="C1192" s="5" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="E1192"/>
     </row>
@@ -34609,7 +34641,7 @@
         <v>1896</v>
       </c>
       <c r="C1193" s="5" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="E1193"/>
     </row>
@@ -34621,7 +34653,7 @@
         <v>1896</v>
       </c>
       <c r="C1194" s="5" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E1194"/>
     </row>
@@ -34633,7 +34665,7 @@
         <v>1896</v>
       </c>
       <c r="C1195" s="5" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="E1195"/>
     </row>
@@ -34657,19 +34689,19 @@
         <v>1896</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="E1197"/>
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1198" s="5" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1198" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1198" s="5" t="s">
         <v>2520</v>
-      </c>
-      <c r="B1198" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1198" s="5" t="s">
-        <v>2521</v>
       </c>
       <c r="E1198"/>
     </row>
@@ -34681,7 +34713,7 @@
         <v>1896</v>
       </c>
       <c r="C1199" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="E1199"/>
     </row>
@@ -34693,7 +34725,7 @@
         <v>1896</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="E1200"/>
     </row>
@@ -34705,7 +34737,7 @@
         <v>1896</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="E1201"/>
     </row>
@@ -34717,7 +34749,7 @@
         <v>1896</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="E1202"/>
     </row>
@@ -34735,13 +34767,13 @@
     </row>
     <row r="1204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1204" s="5" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B1204" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E1204"/>
     </row>
@@ -34753,7 +34785,7 @@
         <v>1896</v>
       </c>
       <c r="C1205" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E1205"/>
     </row>
@@ -34765,7 +34797,7 @@
         <v>1896</v>
       </c>
       <c r="C1206" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E1206"/>
     </row>
@@ -34777,7 +34809,7 @@
         <v>1896</v>
       </c>
       <c r="C1207" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E1207"/>
     </row>
@@ -34789,7 +34821,7 @@
         <v>1896</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E1208"/>
     </row>
@@ -34801,7 +34833,7 @@
         <v>1896</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E1209"/>
     </row>
@@ -34813,7 +34845,7 @@
         <v>1896</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E1210"/>
     </row>
@@ -34825,7 +34857,7 @@
         <v>1896</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E1211"/>
     </row>
@@ -34837,7 +34869,7 @@
         <v>1896</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E1212"/>
     </row>
@@ -34867,13 +34899,13 @@
     </row>
     <row r="1215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1215" s="5" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1215" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1215" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E1215"/>
     </row>
@@ -34891,13 +34923,13 @@
     </row>
     <row r="1217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1217" s="5" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B1217" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1217" s="5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E1217"/>
     </row>
@@ -34915,55 +34947,55 @@
     </row>
     <row r="1219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1219" s="5" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1219" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1219" s="5" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E1219"/>
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220" s="5" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B1220" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1220" s="5" t="s">
         <v>2510</v>
-      </c>
-      <c r="B1220" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1220" s="5" t="s">
-        <v>2511</v>
       </c>
       <c r="E1220"/>
     </row>
     <row r="1221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1221" s="5" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B1221" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1221" s="5" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E1221"/>
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1222" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B1222" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1222" s="5" t="s">
         <v>2064</v>
-      </c>
-      <c r="B1222" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1222" s="5" t="s">
-        <v>2065</v>
       </c>
       <c r="E1222"/>
     </row>
     <row r="1223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1223" s="5" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B1223" s="5" t="s">
         <v>1896</v>
@@ -34975,7 +35007,7 @@
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1224" s="5" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>1896</v>
@@ -34987,31 +35019,31 @@
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1225" s="5" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E1225"/>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1226" s="5" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B1226" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1226" s="5" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E1226"/>
     </row>
     <row r="1227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1227" s="5" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B1227" s="5" t="s">
         <v>1896</v>
@@ -35023,31 +35055,31 @@
     </row>
     <row r="1228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1228" s="2" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B1228" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1228" s="5" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E1228"/>
     </row>
     <row r="1229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1229" s="5" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B1229" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1229" s="5" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E1229"/>
     </row>
     <row r="1230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1230" s="5" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B1230" s="5" t="s">
         <v>1896</v>
@@ -35059,19 +35091,19 @@
     </row>
     <row r="1231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1231" s="5" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B1231" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1231" s="5" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E1231"/>
     </row>
     <row r="1232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1232" s="5" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B1232" s="5" t="s">
         <v>1896</v>
@@ -35083,19 +35115,19 @@
     </row>
     <row r="1233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1233" s="5" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B1233" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E1233"/>
     </row>
     <row r="1234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1234" s="5" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B1234" s="5" t="s">
         <v>1896</v>
@@ -35107,7 +35139,7 @@
     </row>
     <row r="1235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1235" s="5" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B1235" s="5" t="s">
         <v>1896</v>
@@ -35119,19 +35151,19 @@
     </row>
     <row r="1236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1236" s="5" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B1236" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1236" s="5" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E1236"/>
     </row>
     <row r="1237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1237" s="5" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B1237" s="5" t="s">
         <v>1896</v>
@@ -35143,7 +35175,7 @@
     </row>
     <row r="1238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1238" s="5" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B1238" s="5" t="s">
         <v>1896</v>
@@ -35155,19 +35187,19 @@
     </row>
     <row r="1239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1239" s="5" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B1239" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1239" s="5" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E1239"/>
     </row>
     <row r="1240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1240" s="5" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B1240" s="5" t="s">
         <v>1896</v>
@@ -35179,7 +35211,7 @@
     </row>
     <row r="1241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1241" s="2" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B1241" s="5" t="s">
         <v>1896</v>
@@ -35191,19 +35223,19 @@
     </row>
     <row r="1242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1242" s="2" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B1242" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1242" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E1242"/>
     </row>
     <row r="1243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1243" s="5" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1243" s="5" t="s">
         <v>1896</v>
@@ -35215,19 +35247,19 @@
     </row>
     <row r="1244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1244" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1244" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1244" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E1244"/>
     </row>
     <row r="1245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1245" s="2" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B1245" s="5" t="s">
         <v>1896</v>
@@ -35239,49 +35271,49 @@
     </row>
     <row r="1246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1246" s="2" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1246" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1246" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E1246"/>
     </row>
     <row r="1247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1247" s="5" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1247" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1247" s="5" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E1247"/>
     </row>
     <row r="1248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1248" s="5" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B1248" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1248" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E1248"/>
     </row>
     <row r="1249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1249" s="5" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B1249" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E1249"/>
     </row>
@@ -35299,13 +35331,13 @@
     </row>
     <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1251" s="5" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1251" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1251" s="5" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E1251"/>
     </row>
@@ -35323,13 +35355,13 @@
     </row>
     <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1253" s="5" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1253" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1253" s="5" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E1253"/>
     </row>
@@ -38347,13 +38379,13 @@
     </row>
     <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1505" s="5" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B1505" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1505" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E1505"/>
     </row>
@@ -38365,7 +38397,7 @@
         <v>1896</v>
       </c>
       <c r="C1506" s="5" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E1506"/>
     </row>
@@ -38377,7 +38409,7 @@
         <v>1896</v>
       </c>
       <c r="C1507" s="5" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="E1507"/>
     </row>
@@ -38389,7 +38421,7 @@
         <v>1896</v>
       </c>
       <c r="C1508" s="5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E1508"/>
     </row>
@@ -38401,7 +38433,7 @@
         <v>1896</v>
       </c>
       <c r="C1509" s="5" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E1509"/>
     </row>
@@ -38413,7 +38445,7 @@
         <v>1896</v>
       </c>
       <c r="C1510" s="5" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E1510"/>
     </row>
@@ -38425,7 +38457,7 @@
         <v>1896</v>
       </c>
       <c r="C1511" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E1511"/>
     </row>
@@ -38437,7 +38469,7 @@
         <v>1896</v>
       </c>
       <c r="C1512" s="5" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -38449,7 +38481,7 @@
         <v>1896</v>
       </c>
       <c r="C1513" s="5" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -38461,7 +38493,7 @@
         <v>1896</v>
       </c>
       <c r="C1514" s="5" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -38473,7 +38505,7 @@
         <v>1896</v>
       </c>
       <c r="C1515" s="5" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -38491,13 +38523,13 @@
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1517" s="5" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B1517" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1517" s="5" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E1517"/>
     </row>
@@ -38515,19 +38547,19 @@
     </row>
     <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1519" s="5" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B1519" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1519" s="5" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E1519"/>
     </row>
     <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1520" s="5" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B1520" s="5" t="s">
         <v>1896</v>
@@ -38551,13 +38583,13 @@
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1522" s="5" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B1522" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1522" s="5" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E1522"/>
     </row>
@@ -38569,19 +38601,19 @@
         <v>1896</v>
       </c>
       <c r="C1523" s="5" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E1523"/>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1524" s="5" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B1524" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1524" s="5" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E1524"/>
     </row>
@@ -38593,7 +38625,7 @@
         <v>1896</v>
       </c>
       <c r="C1525" s="5" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E1525"/>
     </row>
@@ -38605,19 +38637,19 @@
         <v>1896</v>
       </c>
       <c r="C1526" s="5" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E1526"/>
     </row>
     <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1527" s="5" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B1527" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1527" s="5" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E1527"/>
     </row>
@@ -38635,13 +38667,13 @@
     </row>
     <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1529" s="5" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1529" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1529" s="5" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E1529"/>
     </row>
@@ -38653,7 +38685,7 @@
         <v>1896</v>
       </c>
       <c r="C1530" s="5" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E1530"/>
     </row>
@@ -38677,7 +38709,7 @@
         <v>1896</v>
       </c>
       <c r="C1532" s="5" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E1532"/>
     </row>
@@ -38689,7 +38721,7 @@
         <v>1896</v>
       </c>
       <c r="C1533" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="E1533"/>
     </row>
@@ -38701,7 +38733,7 @@
         <v>1896</v>
       </c>
       <c r="C1534" s="5" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="E1534"/>
     </row>
@@ -38713,7 +38745,7 @@
         <v>1896</v>
       </c>
       <c r="C1535" s="5" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="E1535"/>
     </row>
@@ -38737,7 +38769,7 @@
         <v>1896</v>
       </c>
       <c r="C1537" s="5" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E1537"/>
     </row>
@@ -38749,7 +38781,7 @@
         <v>1896</v>
       </c>
       <c r="C1538" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="E1538"/>
     </row>
@@ -38761,7 +38793,7 @@
         <v>1896</v>
       </c>
       <c r="C1539" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E1539"/>
     </row>
@@ -38773,7 +38805,7 @@
         <v>1896</v>
       </c>
       <c r="C1540" s="5" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E1540"/>
     </row>
@@ -38797,7 +38829,7 @@
         <v>1896</v>
       </c>
       <c r="C1542" s="5" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="E1542"/>
     </row>
@@ -38809,7 +38841,7 @@
         <v>1896</v>
       </c>
       <c r="C1543" s="5" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="E1543"/>
     </row>
@@ -38821,7 +38853,7 @@
         <v>1896</v>
       </c>
       <c r="C1544" s="5" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E1544"/>
     </row>
@@ -38833,7 +38865,7 @@
         <v>1896</v>
       </c>
       <c r="C1545" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E1545"/>
     </row>
@@ -38845,7 +38877,7 @@
         <v>1896</v>
       </c>
       <c r="C1546" s="5" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E1546"/>
     </row>
@@ -38857,7 +38889,7 @@
         <v>1896</v>
       </c>
       <c r="C1547" s="5" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E1547"/>
     </row>
@@ -38869,7 +38901,7 @@
         <v>1896</v>
       </c>
       <c r="C1548" s="5" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E1548"/>
     </row>
@@ -38881,7 +38913,7 @@
         <v>1896</v>
       </c>
       <c r="C1549" s="5" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="E1549"/>
     </row>
@@ -38893,7 +38925,7 @@
         <v>1896</v>
       </c>
       <c r="C1550" s="5" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="E1550"/>
     </row>
@@ -38905,7 +38937,7 @@
         <v>1896</v>
       </c>
       <c r="C1551" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E1551"/>
     </row>
@@ -38917,7 +38949,7 @@
         <v>1896</v>
       </c>
       <c r="C1552" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E1552"/>
     </row>
@@ -38929,7 +38961,7 @@
         <v>1896</v>
       </c>
       <c r="C1553" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="E1553"/>
     </row>
@@ -38941,7 +38973,7 @@
         <v>1896</v>
       </c>
       <c r="C1554" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="E1554"/>
     </row>
@@ -38977,13 +39009,13 @@
         <v>1896</v>
       </c>
       <c r="C1557" s="5" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E1557"/>
     </row>
     <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1558" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B1558" s="5" t="s">
         <v>1896</v>
@@ -39007,25 +39039,25 @@
     </row>
     <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1560" s="5" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1560" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1560" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1560"/>
     </row>
     <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1561" s="5" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B1561" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1561" s="5" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="E1561"/>
     </row>
@@ -39043,13 +39075,13 @@
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1563" s="5" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B1563" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1563" s="5" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E1563"/>
     </row>
@@ -39067,13 +39099,13 @@
     </row>
     <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1565" s="5" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1565" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1565" s="5" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E1565"/>
     </row>
@@ -39091,13 +39123,13 @@
     </row>
     <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1567" s="5" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B1567" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1567" s="5" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E1567"/>
     </row>
@@ -39115,13 +39147,13 @@
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1569" s="5" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B1569" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1569" s="5" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E1569"/>
     </row>
@@ -39139,13 +39171,13 @@
     </row>
     <row r="1571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1571" s="5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B1571" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1571" s="5" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E1571"/>
     </row>
@@ -39157,7 +39189,7 @@
         <v>1896</v>
       </c>
       <c r="C1572" s="5" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="E1572"/>
     </row>
@@ -39169,7 +39201,7 @@
         <v>1896</v>
       </c>
       <c r="C1573" s="5" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="E1573"/>
     </row>
@@ -39193,7 +39225,7 @@
         <v>1896</v>
       </c>
       <c r="C1575" s="5" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="E1575"/>
     </row>
@@ -39205,7 +39237,7 @@
         <v>1896</v>
       </c>
       <c r="C1576" s="5" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E1576"/>
     </row>
@@ -39217,7 +39249,7 @@
         <v>1896</v>
       </c>
       <c r="C1577" s="5" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="E1577"/>
     </row>
@@ -39229,7 +39261,7 @@
         <v>1896</v>
       </c>
       <c r="C1578" s="5" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="E1578"/>
     </row>
@@ -39241,7 +39273,7 @@
         <v>1896</v>
       </c>
       <c r="C1579" s="5" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="E1579"/>
     </row>
@@ -39259,13 +39291,13 @@
     </row>
     <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1581" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B1581" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1581" s="5" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E1581"/>
     </row>
@@ -39277,7 +39309,7 @@
         <v>1896</v>
       </c>
       <c r="C1582" s="5" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E1582"/>
     </row>
@@ -39289,19 +39321,19 @@
         <v>1896</v>
       </c>
       <c r="C1583" s="5" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E1583"/>
     </row>
     <row r="1584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1584" s="5" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B1584" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1584" s="5" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E1584"/>
     </row>
@@ -39313,7 +39345,7 @@
         <v>1896</v>
       </c>
       <c r="C1585" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E1585"/>
     </row>
@@ -39325,7 +39357,7 @@
         <v>1896</v>
       </c>
       <c r="C1586" s="5" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E1586"/>
     </row>
@@ -39337,7 +39369,7 @@
         <v>1896</v>
       </c>
       <c r="C1587" s="5" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E1587"/>
     </row>
@@ -39349,7 +39381,7 @@
         <v>1896</v>
       </c>
       <c r="C1588" s="5" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="E1588"/>
     </row>
@@ -39361,7 +39393,7 @@
         <v>1896</v>
       </c>
       <c r="C1589" s="5" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E1589"/>
     </row>
@@ -39373,31 +39405,31 @@
         <v>1896</v>
       </c>
       <c r="C1590" s="5" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="E1590"/>
     </row>
     <row r="1591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1591" s="5" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B1591" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1591" s="5" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="E1591"/>
     </row>
     <row r="1592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1592" s="5" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B1592" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1592" s="5" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="E1592"/>
     </row>
@@ -39427,13 +39459,13 @@
     </row>
     <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1595" s="5" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B1595" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1595" s="5" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E1595"/>
     </row>
@@ -39451,55 +39483,55 @@
     </row>
     <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1597" s="2" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B1597" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1597" s="5" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="E1597"/>
     </row>
     <row r="1598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1598" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="B1598" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1598" s="5" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E1598"/>
     </row>
     <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1599" s="2" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B1599" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1599" s="5" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E1599"/>
     </row>
     <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1600" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B1600" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1600" s="5" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="E1600"/>
     </row>
     <row r="1601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1601" s="2" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B1601" s="5" t="s">
         <v>1896</v>
@@ -39511,115 +39543,115 @@
     </row>
     <row r="1602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1602" s="2" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B1602" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1602" s="5" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="E1602"/>
     </row>
     <row r="1603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1603" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="B1603" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1603" s="5" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E1603"/>
     </row>
     <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1604" s="2" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B1604" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1604" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E1604"/>
     </row>
     <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1605" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B1605" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1605" s="5" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="E1605"/>
     </row>
     <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1606" s="2" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B1606" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1606" s="5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E1606"/>
     </row>
     <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1607" s="2" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B1607" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1607" s="5" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="E1607"/>
     </row>
     <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1608" s="2" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B1608" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1608" s="5" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E1608"/>
     </row>
     <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1609" s="2" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B1609" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1609" s="5" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E1609"/>
     </row>
     <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1610" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B1610" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1610" s="5" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E1610"/>
     </row>
     <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1611" s="2" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B1611" s="5" t="s">
         <v>1896</v>
@@ -39631,55 +39663,55 @@
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1612" s="2" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B1612" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1612" s="5" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E1612"/>
     </row>
     <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1613" s="2" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B1613" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1613" s="5" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E1613"/>
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1614" s="2" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B1614" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1614" s="5" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E1614"/>
     </row>
     <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1615" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B1615" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1615" s="5" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E1615"/>
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" s="2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B1616" s="5" t="s">
         <v>1896</v>
@@ -39691,25 +39723,25 @@
     </row>
     <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1617" s="2" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B1617" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1617" s="5" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E1617"/>
     </row>
     <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1618" s="2" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B1618" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1618" s="5" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E1618"/>
     </row>
@@ -39727,13 +39759,13 @@
     </row>
     <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1620" s="5" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B1620" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1620" s="5" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E1620"/>
     </row>
@@ -39745,7 +39777,7 @@
         <v>1896</v>
       </c>
       <c r="C1621" s="5" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E1621"/>
     </row>
@@ -39757,7 +39789,7 @@
         <v>1896</v>
       </c>
       <c r="C1622" s="5" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E1622"/>
     </row>
@@ -39769,7 +39801,7 @@
         <v>1896</v>
       </c>
       <c r="C1623" s="5" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E1623"/>
     </row>
@@ -39781,7 +39813,7 @@
         <v>1896</v>
       </c>
       <c r="C1624" s="5" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E1624"/>
     </row>
@@ -39793,7 +39825,7 @@
         <v>1896</v>
       </c>
       <c r="C1625" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E1625"/>
     </row>
@@ -39805,7 +39837,7 @@
         <v>1896</v>
       </c>
       <c r="C1626" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E1626"/>
     </row>
@@ -39817,7 +39849,7 @@
         <v>1896</v>
       </c>
       <c r="C1627" s="5" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="E1627"/>
     </row>
@@ -39829,138 +39861,138 @@
         <v>1896</v>
       </c>
       <c r="C1628" s="5" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="E1628"/>
     </row>
     <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1629" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="B1629" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1629" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E1629"/>
     </row>
     <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1630" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="B1630" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1630" s="5" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1630"/>
     </row>
     <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1631" s="5" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B1631" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1631" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="E1631"/>
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B1632" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1632" s="5" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E1632"/>
     </row>
     <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1633" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B1633" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1633" s="5" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E1633"/>
     </row>
     <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1634" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B1634" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1634" s="5" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E1634"/>
     </row>
     <row r="1635" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1635" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B1635" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1635" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1636" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="B1636" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1636" s="5" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="E1636"/>
     </row>
     <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1637" s="5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="B1637" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1637" s="5" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E1637"/>
     </row>
     <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1638" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B1638" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1638" s="5" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E1638"/>
     </row>
     <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1639" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="B1639" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1639" s="5" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E1639"/>
     </row>
@@ -39978,13 +40010,13 @@
     </row>
     <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1641" s="5" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B1641" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1641" s="5" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E1641"/>
     </row>
@@ -40002,13 +40034,13 @@
     </row>
     <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1643" s="5" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1643" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1643" s="5" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="E1643"/>
     </row>
@@ -40026,7 +40058,7 @@
     </row>
     <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1645" s="5" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B1645" s="5" t="s">
         <v>1896</v>
@@ -40050,25 +40082,25 @@
     </row>
     <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1647" s="5" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B1647" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1647" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E1647"/>
     </row>
     <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1648" s="5" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1648" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1648" s="5" t="s">
         <v>2479</v>
-      </c>
-      <c r="B1648" s="5" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1648" s="5" t="s">
-        <v>2480</v>
       </c>
       <c r="E1648"/>
     </row>
@@ -40086,13 +40118,13 @@
     </row>
     <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" s="5" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B1650" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1650" s="5" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E1650"/>
     </row>
@@ -40104,7 +40136,7 @@
         <v>1896</v>
       </c>
       <c r="C1651" s="5" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="E1651"/>
     </row>
@@ -40116,7 +40148,7 @@
         <v>1896</v>
       </c>
       <c r="C1652" s="5" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="E1652"/>
     </row>
@@ -40128,7 +40160,7 @@
         <v>1896</v>
       </c>
       <c r="C1653" s="5" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="E1653"/>
     </row>
@@ -40140,7 +40172,7 @@
         <v>1896</v>
       </c>
       <c r="C1654" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="E1654"/>
     </row>
@@ -40152,7 +40184,7 @@
         <v>1896</v>
       </c>
       <c r="C1655" s="5" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E1655"/>
     </row>
@@ -40164,7 +40196,7 @@
         <v>1896</v>
       </c>
       <c r="C1656" s="5" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E1656"/>
     </row>
@@ -40176,7 +40208,7 @@
         <v>1896</v>
       </c>
       <c r="C1657" s="5" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E1657"/>
     </row>
@@ -40188,7 +40220,7 @@
         <v>1896</v>
       </c>
       <c r="C1658" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="E1658"/>
     </row>
@@ -40200,7 +40232,7 @@
         <v>1896</v>
       </c>
       <c r="C1659" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E1659"/>
     </row>
@@ -40224,19 +40256,19 @@
         <v>1896</v>
       </c>
       <c r="C1661" s="5" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E1661"/>
     </row>
     <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1662" s="2" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B1662" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1662" s="5" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="E1662"/>
     </row>
@@ -40248,7 +40280,7 @@
         <v>1896</v>
       </c>
       <c r="C1663" s="5" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E1663"/>
     </row>
@@ -40260,7 +40292,7 @@
         <v>1896</v>
       </c>
       <c r="C1664" s="5" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E1664"/>
     </row>
@@ -40272,7 +40304,7 @@
         <v>1896</v>
       </c>
       <c r="C1665" s="5" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E1665"/>
     </row>
@@ -40284,7 +40316,7 @@
         <v>1896</v>
       </c>
       <c r="C1666" s="5" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E1666"/>
     </row>
@@ -40296,7 +40328,7 @@
         <v>1896</v>
       </c>
       <c r="C1667" s="5" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
@@ -40307,7 +40339,7 @@
         <v>1896</v>
       </c>
       <c r="C1668" s="5" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
@@ -40318,7 +40350,7 @@
         <v>1896</v>
       </c>
       <c r="C1669" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
@@ -40329,7 +40361,7 @@
         <v>1896</v>
       </c>
       <c r="C1670" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
@@ -40340,7 +40372,7 @@
         <v>1896</v>
       </c>
       <c r="C1671" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
@@ -40351,7 +40383,7 @@
         <v>1896</v>
       </c>
       <c r="C1672" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
@@ -40378,24 +40410,24 @@
     </row>
     <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B1675" t="s">
         <v>1896</v>
       </c>
       <c r="C1675" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1676" s="5" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B1676" s="5" t="s">
         <v>1896</v>
       </c>
       <c r="C1676" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
@@ -40411,13 +40443,13 @@
     </row>
     <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B1678" t="s">
         <v>1896</v>
       </c>
       <c r="C1678" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
@@ -40444,18 +40476,18 @@
     </row>
     <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B1681" t="s">
         <v>1896</v>
       </c>
       <c r="C1681" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="B1682" t="s">
         <v>1677</v>
@@ -40466,7 +40498,7 @@
     </row>
     <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>2543</v>
+        <v>2540</v>
       </c>
       <c r="B1683" t="s">
         <v>1896</v>
@@ -40477,7 +40509,7 @@
     </row>
     <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="B1684" t="s">
         <v>1677</v>
@@ -40488,18 +40520,18 @@
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="B1685" t="s">
         <v>1896</v>
       </c>
       <c r="C1685" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B1686" t="s">
         <v>1677</v>
@@ -40510,18 +40542,18 @@
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>2545</v>
+        <v>2542</v>
       </c>
       <c r="B1687" t="s">
         <v>1896</v>
       </c>
       <c r="C1687" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="B1688" t="s">
         <v>1677</v>
@@ -40532,18 +40564,18 @@
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
-        <v>2546</v>
+        <v>2543</v>
       </c>
       <c r="B1689" t="s">
         <v>1896</v>
       </c>
       <c r="C1689" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="B1690" t="s">
         <v>1677</v>
@@ -40554,62 +40586,62 @@
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>2547</v>
+        <v>2544</v>
       </c>
       <c r="B1691" t="s">
         <v>1896</v>
       </c>
       <c r="C1691" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="B1692" t="s">
         <v>1677</v>
       </c>
       <c r="C1692" t="s">
-        <v>2553</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>2548</v>
+        <v>2545</v>
       </c>
       <c r="B1693" t="s">
         <v>1896</v>
       </c>
       <c r="C1693" t="s">
-        <v>2554</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="B1694" t="s">
         <v>1677</v>
       </c>
       <c r="C1694" t="s">
-        <v>2555</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>2549</v>
+        <v>2546</v>
       </c>
       <c r="B1695" t="s">
         <v>1896</v>
       </c>
       <c r="C1695" t="s">
-        <v>2556</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="B1696" t="s">
         <v>1677</v>
@@ -40620,7 +40652,7 @@
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>2550</v>
+        <v>2547</v>
       </c>
       <c r="B1697" t="s">
         <v>1896</v>
@@ -40631,7 +40663,7 @@
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="B1698" t="s">
         <v>1677</v>
@@ -40642,7 +40674,7 @@
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>2551</v>
+        <v>2548</v>
       </c>
       <c r="B1699" t="s">
         <v>1896</v>
@@ -40653,7 +40685,7 @@
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="B1700" t="s">
         <v>1677</v>
@@ -40664,13 +40696,35 @@
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="B1701" t="s">
         <v>1896</v>
       </c>
       <c r="C1701" t="s">
         <v>1922</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1702" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1703" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>2556</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="27795" windowHeight="12105" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="27795" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -8841,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E643"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20821,8 +20821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1542" workbookViewId="0">
-      <selection activeCell="C1563" sqref="C1563"/>
+    <sheetView topLeftCell="A1542" workbookViewId="0">
+      <selection activeCell="C1566" sqref="C1566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7968" uniqueCount="2578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8002" uniqueCount="2595">
   <si>
     <t>identifier</t>
   </si>
@@ -8004,6 +8004,57 @@
   </si>
   <si>
     <t>Identifiant du propriétaire</t>
+  </si>
+  <si>
+    <t>onboarding.flags</t>
+  </si>
+  <si>
+    <t>On-boarding flags</t>
+  </si>
+  <si>
+    <t>Indicateurs pour l'intégration</t>
+  </si>
+  <si>
+    <t>Current AUM</t>
+  </si>
+  <si>
+    <t>Invoice sent</t>
+  </si>
+  <si>
+    <t>Last update date</t>
+  </si>
+  <si>
+    <t>On-boarding date</t>
+  </si>
+  <si>
+    <t>Montant sous gestion actuel</t>
+  </si>
+  <si>
+    <t>Facture envoyée</t>
+  </si>
+  <si>
+    <t>Date de dernière mise à jour</t>
+  </si>
+  <si>
+    <t>Date d'intégration</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.Current-AUM</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.Invoice-sent</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.Last-update-date</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.On-boarding-date</t>
+  </si>
+  <si>
+    <t>SETUP_RENDERED_COMPANY</t>
+  </si>
+  <si>
+    <t>company_wizard</t>
   </si>
 </sst>
 </file>
@@ -8839,10 +8890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E643"/>
+  <dimension ref="A1:E644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="C644" sqref="C644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19782,6 +19833,23 @@
         <v>2488</v>
       </c>
       <c r="E643" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="5" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D644" s="5" t="s">
+        <v>2488</v>
+      </c>
+      <c r="E644" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -20819,10 +20887,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1713"/>
+  <dimension ref="A1:E1723"/>
   <sheetViews>
-    <sheetView topLeftCell="A1542" workbookViewId="0">
-      <selection activeCell="C1566" sqref="C1566"/>
+    <sheetView topLeftCell="A1695" workbookViewId="0">
+      <selection activeCell="A1720" sqref="A1720:A1723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40979,6 +41047,116 @@
         <v>2575</v>
       </c>
     </row>
+    <row r="1714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1715" s="5" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B1715" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1715" s="5" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1716" s="5" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1717" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1717" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1717" s="5" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1718" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1718" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1718" s="5" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1719" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1719" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1719" s="5" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1720" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1720" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1721" s="5" t="s">
+        <v>2590</v>
+      </c>
+      <c r="B1721" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1722" s="5" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B1722" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1723" s="5" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1723" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>2588</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:C1677">
     <sortCondition ref="B1:B1677"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="27795" windowHeight="12105" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="27795" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -9057,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E652"/>
   <sheetViews>
-    <sheetView topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="A653" sqref="A653"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21216,7 +21216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1704" workbookViewId="0">
+    <sheetView topLeftCell="A1704" workbookViewId="0">
       <selection activeCell="C1750" sqref="C1750"/>
     </sheetView>
   </sheetViews>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8283" uniqueCount="2721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="2734">
   <si>
     <t>identifier</t>
   </si>
@@ -8433,6 +8433,45 @@
   </si>
   <si>
     <t>Après création</t>
+  </si>
+  <si>
+    <t>Quotes</t>
+  </si>
+  <si>
+    <t>Valorisations</t>
+  </si>
+  <si>
+    <t>Input an application date</t>
+  </si>
+  <si>
+    <t>Saisir une date d'application</t>
+  </si>
+  <si>
+    <t>Input a numerical value</t>
+  </si>
+  <si>
+    <t>Saisir un nombre</t>
+  </si>
+  <si>
+    <t>Date.placeholder</t>
+  </si>
+  <si>
+    <t>Value.placeholder</t>
+  </si>
+  <si>
+    <t>global.reset_custom</t>
+  </si>
+  <si>
+    <t>Reset custom information</t>
+  </si>
+  <si>
+    <t>Reset custom</t>
+  </si>
+  <si>
+    <t>Réinitialiser les données personnalisées</t>
+  </si>
+  <si>
+    <t>reset_custom_information</t>
   </si>
 </sst>
 </file>
@@ -9270,8 +9309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E658"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21004,10 +21043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21324,6 +21363,52 @@
       </c>
       <c r="H13" s="5" t="s">
         <v>2519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>2730</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2731</v>
       </c>
     </row>
   </sheetData>
@@ -21581,10 +21666,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1791"/>
+  <dimension ref="A1:E1807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1731" workbookViewId="0">
-      <selection activeCell="C1754" sqref="C1754"/>
+    <sheetView topLeftCell="A1795" workbookViewId="0">
+      <selection activeCell="C1807" sqref="C1807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42599,6 +42684,182 @@
         <v>2711</v>
       </c>
     </row>
+    <row r="1792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1798" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1798" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1799" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1799" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1800" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B1800" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1801" s="5" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B1801" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1802" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B1803" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1806" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1807" s="5" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>2730</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:C1677">
     <sortCondition ref="B1:B1677"/>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8345" uniqueCount="2734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357" uniqueCount="2740">
   <si>
     <t>identifier</t>
   </si>
@@ -6872,12 +6872,6 @@
     <t>A définir</t>
   </si>
   <si>
-    <t>Object classique</t>
-  </si>
-  <si>
-    <t>Object historisé</t>
-  </si>
-  <si>
     <t>Source de données principale</t>
   </si>
   <si>
@@ -8472,6 +8466,30 @@
   </si>
   <si>
     <t>reset_custom_information</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.On-boarding-date.placeholder</t>
+  </si>
+  <si>
+    <t>Input the on-boarding date</t>
+  </si>
+  <si>
+    <t>Saisir la date d'intégration</t>
+  </si>
+  <si>
+    <t>On-boarding-flags.Current-AUM.placeholder</t>
+  </si>
+  <si>
+    <t>Saisir le montant sous gestion</t>
+  </si>
+  <si>
+    <t>Input the current AUM</t>
+  </si>
+  <si>
+    <t>Objet historisé</t>
+  </si>
+  <si>
+    <t>Objet classique</t>
   </si>
 </sst>
 </file>
@@ -9310,7 +9328,7 @@
   <dimension ref="A1:E658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A37" sqref="A37:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10106,13 +10124,13 @@
     </row>
     <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>1642</v>
@@ -10123,16 +10141,16 @@
     </row>
     <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>2713</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>2715</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>2717</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E48" s="5" t="b">
         <v>1</v>
@@ -10140,16 +10158,16 @@
     </row>
     <row r="49" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>2714</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>2716</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>2718</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E49" s="5" t="b">
         <v>1</v>
@@ -10157,16 +10175,16 @@
     </row>
     <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>2650</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>2651</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2652</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>2653</v>
       </c>
       <c r="E50" s="5" t="b">
         <v>1</v>
@@ -10174,16 +10192,16 @@
     </row>
     <row r="51" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>2654</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>2655</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>2656</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E51" s="5" t="b">
         <v>1</v>
@@ -10191,16 +10209,16 @@
     </row>
     <row r="52" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>2657</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>2659</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>2661</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E52" s="5" t="b">
         <v>1</v>
@@ -10208,16 +10226,16 @@
     </row>
     <row r="53" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>2658</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>2662</v>
-      </c>
       <c r="D53" s="5" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="E53" s="5" t="b">
         <v>1</v>
@@ -10429,13 +10447,13 @@
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>42</v>
@@ -10497,13 +10515,13 @@
     </row>
     <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>42</v>
@@ -10514,13 +10532,13 @@
     </row>
     <row r="71" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>42</v>
@@ -10531,13 +10549,13 @@
     </row>
     <row r="72" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>1622</v>
@@ -10551,7 +10569,7 @@
         <v>1850</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>1851</v>
@@ -10568,7 +10586,7 @@
         <v>1619</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>1617</v>
@@ -10585,7 +10603,7 @@
         <v>1620</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>1618</v>
@@ -10616,13 +10634,13 @@
     </row>
     <row r="77" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>2526</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>2528</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>1622</v>
@@ -10633,13 +10651,13 @@
     </row>
     <row r="78" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>1622</v>
@@ -13914,7 +13932,7 @@
     </row>
     <row r="271" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>15</v>
@@ -20221,16 +20239,16 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="B642" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="C642" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="D642" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E642" s="5" t="b">
         <v>1</v>
@@ -20238,16 +20256,16 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="B643" s="5" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C643" s="5" t="s">
         <v>2491</v>
       </c>
-      <c r="C643" s="5" t="s">
-        <v>2493</v>
-      </c>
       <c r="D643" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E643" s="5" t="b">
         <v>1</v>
@@ -20255,16 +20273,16 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="B644" s="5" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="D644" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E644" s="5" t="b">
         <v>1</v>
@@ -20272,16 +20290,16 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="B645" s="5" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="C645" s="5" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="D645" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E645" s="5" t="b">
         <v>1</v>
@@ -20289,16 +20307,16 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="B646" s="5" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="C646" s="5" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="D646" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E646" s="5" t="b">
         <v>1</v>
@@ -20306,16 +20324,16 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="B647" s="5" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C647" s="5" t="s">
         <v>2532</v>
       </c>
-      <c r="C647" s="5" t="s">
-        <v>2534</v>
-      </c>
       <c r="D647" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E647" s="5" t="b">
         <v>1</v>
@@ -20323,16 +20341,16 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>2531</v>
+      </c>
+      <c r="C648" s="5" t="s">
         <v>2554</v>
       </c>
-      <c r="B648" s="5" t="s">
-        <v>2533</v>
-      </c>
-      <c r="C648" s="5" t="s">
-        <v>2556</v>
-      </c>
       <c r="D648" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E648" s="5" t="b">
         <v>1</v>
@@ -20340,16 +20358,16 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B649" s="5" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C649" s="5" t="s">
         <v>2555</v>
       </c>
-      <c r="B649" s="5" t="s">
-        <v>2526</v>
-      </c>
-      <c r="C649" s="5" t="s">
-        <v>2557</v>
-      </c>
       <c r="D649" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E649" s="5" t="b">
         <v>1</v>
@@ -20357,16 +20375,16 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="B650" s="5" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="C650" s="5" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D650" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E650" s="5" t="b">
         <v>1</v>
@@ -20374,16 +20392,16 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="B651" s="5" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="C651" s="5" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="D651" s="5" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="E651" s="5" t="b">
         <v>1</v>
@@ -20391,16 +20409,16 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C652" s="5" t="s">
         <v>2629</v>
       </c>
-      <c r="B652" s="5" t="s">
-        <v>2630</v>
-      </c>
-      <c r="C652" s="5" t="s">
-        <v>2631</v>
-      </c>
       <c r="D652" s="5" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="E652" s="5" t="b">
         <v>1</v>
@@ -20408,16 +20426,16 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B653" s="5" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="D653" s="5" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="E653" s="5" t="b">
         <v>1</v>
@@ -20425,16 +20443,16 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B654" s="5" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="D654" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E654" s="5" t="b">
         <v>1</v>
@@ -20442,16 +20460,16 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B655" s="5" t="s">
         <v>2635</v>
       </c>
-      <c r="B655" s="5" t="s">
-        <v>2637</v>
-      </c>
       <c r="C655" s="5" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="D655" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E655" s="5" t="b">
         <v>1</v>
@@ -20459,16 +20477,16 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B656" s="5" t="s">
         <v>2636</v>
       </c>
-      <c r="B656" s="5" t="s">
-        <v>2638</v>
-      </c>
       <c r="C656" s="5" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="D656" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E656" s="5" t="b">
         <v>1</v>
@@ -20476,16 +20494,16 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B657" s="5" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="D657" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E657" s="5" t="b">
         <v>1</v>
@@ -20493,16 +20511,16 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="B658" s="5" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="C658" s="5" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="D658" s="5" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="E658" s="5" t="b">
         <v>1</v>
@@ -20655,10 +20673,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1955</v>
@@ -20667,7 +20685,7 @@
         <v>2089</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>1935</v>
@@ -20858,22 +20876,22 @@
         <v>1945</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1955</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>2668</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>2669</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>2670</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="J12" s="5" t="b">
         <v>1</v>
@@ -20884,22 +20902,22 @@
         <v>1945</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1955</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>2670</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>2671</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>2672</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>2673</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="J13" s="5" t="b">
         <v>1</v>
@@ -20994,16 +21012,16 @@
         <v>1975</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2549</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>2550</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>2551</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>2552</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="J17" s="5" t="b">
         <v>1</v>
@@ -21020,16 +21038,16 @@
         <v>1955</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2561</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>2562</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>2563</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>2564</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="J18" s="5" t="b">
         <v>1</v>
@@ -21045,7 +21063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -21330,16 +21348,16 @@
         <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -21353,16 +21371,16 @@
         <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -21376,16 +21394,16 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>2729</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>2733</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>2730</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -21399,16 +21417,16 @@
         <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>2728</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>2729</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2733</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>2730</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>2731</v>
       </c>
     </row>
   </sheetData>
@@ -21666,10 +21684,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1807"/>
+  <dimension ref="A1:E1811"/>
   <sheetViews>
-    <sheetView topLeftCell="A1795" workbookViewId="0">
-      <selection activeCell="C1807" sqref="C1807"/>
+    <sheetView tabSelected="1" topLeftCell="A1530" workbookViewId="0">
+      <selection activeCell="C1556" sqref="C1556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21704,13 +21722,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="B3" t="s">
         <v>1677</v>
       </c>
       <c r="C3" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -21726,7 +21744,7 @@
     </row>
     <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1677</v>
@@ -21748,13 +21766,13 @@
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21765,29 +21783,29 @@
         <v>1677</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C9" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C10" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -21858,13 +21876,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C17" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -21913,13 +21931,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -21935,13 +21953,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C24" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -21968,13 +21986,13 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="B27" t="s">
         <v>1677</v>
       </c>
       <c r="C27" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -22023,13 +22041,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="B32" t="s">
         <v>1677</v>
       </c>
       <c r="C32" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -22045,13 +22063,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B34" t="s">
         <v>1677</v>
       </c>
       <c r="C34" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -22111,13 +22129,13 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B40" t="s">
         <v>1677</v>
       </c>
       <c r="C40" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -22155,13 +22173,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B44" t="s">
         <v>1677</v>
       </c>
       <c r="C44" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -22430,13 +22448,13 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -22491,51 +22509,51 @@
         <v>1677</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -22557,7 +22575,7 @@
         <v>1677</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22590,7 +22608,7 @@
         <v>1677</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22650,7 +22668,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>1677</v>
@@ -22661,7 +22679,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>1677</v>
@@ -22683,24 +22701,24 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -24799,13 +24817,13 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -24821,13 +24839,13 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -24887,13 +24905,13 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C292" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -25261,13 +25279,13 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C326" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -25323,18 +25341,18 @@
         <v>1677</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="332" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C332" s="5" t="s">
         <v>2458</v>
-      </c>
-      <c r="B332" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C332" s="5" t="s">
-        <v>2460</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -25639,13 +25657,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="E358"/>
     </row>
@@ -25711,13 +25729,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E364"/>
     </row>
@@ -25843,13 +25861,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="E375"/>
     </row>
@@ -25866,13 +25884,13 @@
     </row>
     <row r="377" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -25889,37 +25907,37 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="E379"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C380" s="5" t="s">
         <v>2505</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>2507</v>
       </c>
       <c r="E380"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="E381"/>
     </row>
@@ -26273,13 +26291,13 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="E411"/>
     </row>
@@ -26297,13 +26315,13 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="E413"/>
     </row>
@@ -29321,13 +29339,13 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B665" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C665" s="5" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="E665"/>
     </row>
@@ -29465,13 +29483,13 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B677" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C677" s="5" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="E677"/>
     </row>
@@ -29489,18 +29507,18 @@
     </row>
     <row r="679" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B679" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C679" s="5" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="680" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B680" s="5" t="s">
         <v>1677</v>
@@ -29523,13 +29541,13 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B682" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C682" s="5" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="E682"/>
     </row>
@@ -29547,13 +29565,13 @@
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B684" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C684" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="E684"/>
     </row>
@@ -29583,13 +29601,13 @@
     </row>
     <row r="687" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="B687" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C687" s="5" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="688" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29600,18 +29618,18 @@
         <v>1677</v>
       </c>
       <c r="C688" s="5" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="689" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B689" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C689" s="5" t="s">
         <v>2462</v>
-      </c>
-      <c r="B689" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C689" s="5" t="s">
-        <v>2464</v>
       </c>
     </row>
     <row r="690" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29627,7 +29645,7 @@
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B691" s="5" t="s">
         <v>1677</v>
@@ -29975,7 +29993,7 @@
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B720" s="5" t="s">
         <v>1677</v>
@@ -29998,24 +30016,24 @@
     </row>
     <row r="722" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B722" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C722" s="5" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="723" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="B723" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C723" s="5" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="724" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30031,13 +30049,13 @@
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B725" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C725" s="5" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E725"/>
     </row>
@@ -30055,13 +30073,13 @@
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B727" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C727" s="5" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="E727"/>
     </row>
@@ -30079,13 +30097,13 @@
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B729" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C729" s="5" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="E729"/>
     </row>
@@ -30103,13 +30121,13 @@
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B731" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C731" s="5" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E731"/>
     </row>
@@ -30127,13 +30145,13 @@
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B733" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C733" s="5" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="E733"/>
     </row>
@@ -30247,13 +30265,13 @@
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B743" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="E743"/>
     </row>
@@ -30277,19 +30295,19 @@
         <v>1677</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="E745"/>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C746" s="5" t="s">
         <v>2467</v>
-      </c>
-      <c r="B746" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C746" s="5" t="s">
-        <v>2469</v>
       </c>
       <c r="E746"/>
     </row>
@@ -30363,25 +30381,25 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C753" s="5" t="s">
         <v>2483</v>
-      </c>
-      <c r="B753" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C753" s="5" t="s">
-        <v>2485</v>
       </c>
       <c r="E753"/>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C754" s="5" t="s">
         <v>2484</v>
-      </c>
-      <c r="B754" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C754" s="5" t="s">
-        <v>2486</v>
       </c>
       <c r="E754"/>
     </row>
@@ -30411,13 +30429,13 @@
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B757" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C757" s="5" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="E757"/>
     </row>
@@ -30491,57 +30509,57 @@
     </row>
     <row r="764" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B764" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C764" s="5" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="765" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B765" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C765" s="5" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="766" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B766" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C766" s="5" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="767" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B767" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C767" s="5" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="768" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B768" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.25">
@@ -30762,13 +30780,13 @@
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B787" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C787" s="5" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E787"/>
     </row>
@@ -30882,13 +30900,13 @@
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="B797" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C797" s="5" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="E797"/>
     </row>
@@ -31038,13 +31056,13 @@
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B810" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C810" s="5" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="E810"/>
     </row>
@@ -31062,13 +31080,13 @@
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B812" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C812" s="5" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="E812"/>
     </row>
@@ -31086,7 +31104,7 @@
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B814" s="5" t="s">
         <v>1677</v>
@@ -31110,25 +31128,25 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B816" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C816" s="5" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="E816"/>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B817" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C817" s="5" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="E817"/>
     </row>
@@ -31146,13 +31164,13 @@
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B819" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C819" s="5" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="E819"/>
     </row>
@@ -31289,13 +31307,13 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" s="2" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B831" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C831" s="5" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="E831"/>
     </row>
@@ -31513,25 +31531,25 @@
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B850" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="E850"/>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" s="5" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B851" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C851" s="5" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="E851"/>
     </row>
@@ -31549,13 +31567,13 @@
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" s="5" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B853" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C853" s="5" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="E853"/>
     </row>
@@ -31585,13 +31603,13 @@
     </row>
     <row r="856" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A856" s="5" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B856" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="857" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31607,7 +31625,7 @@
     </row>
     <row r="858" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A858" s="5" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="B858" s="5" t="s">
         <v>1895</v>
@@ -31629,13 +31647,13 @@
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" s="5" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="B860" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C860" s="5" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="E860"/>
     </row>
@@ -31647,31 +31665,31 @@
         <v>1895</v>
       </c>
       <c r="C861" s="5" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E861"/>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" s="5" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="B862" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C862" s="5" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E862"/>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" s="5" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="B863" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C863" s="5" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="E863"/>
     </row>
@@ -31683,7 +31701,7 @@
         <v>1895</v>
       </c>
       <c r="C864" s="5" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="E864"/>
     </row>
@@ -31695,7 +31713,7 @@
         <v>1895</v>
       </c>
       <c r="C865" s="5" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="E865"/>
     </row>
@@ -31707,7 +31725,7 @@
         <v>1895</v>
       </c>
       <c r="C866" s="5" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="E866"/>
     </row>
@@ -31719,7 +31737,7 @@
         <v>1895</v>
       </c>
       <c r="C867" s="5" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E867"/>
     </row>
@@ -31731,7 +31749,7 @@
         <v>1895</v>
       </c>
       <c r="C868" s="5" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E868"/>
     </row>
@@ -31749,13 +31767,13 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" s="5" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="B870" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C870" s="5" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="E870"/>
     </row>
@@ -31809,13 +31827,13 @@
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" s="5" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="B875" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C875" s="5" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="E875"/>
     </row>
@@ -31833,7 +31851,7 @@
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" s="5" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B877" s="5" t="s">
         <v>1895</v>
@@ -31905,13 +31923,13 @@
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" s="5" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="B883" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C883" s="5" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="E883"/>
     </row>
@@ -31977,13 +31995,13 @@
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" s="5" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="B889" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C889" s="5" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="E889"/>
     </row>
@@ -32025,13 +32043,13 @@
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" s="5" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="B893" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C893" s="5" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E893"/>
     </row>
@@ -32043,7 +32061,7 @@
         <v>1895</v>
       </c>
       <c r="C894" s="5" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="E894"/>
     </row>
@@ -32055,7 +32073,7 @@
         <v>1895</v>
       </c>
       <c r="C895" s="5" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="E895"/>
     </row>
@@ -32067,7 +32085,7 @@
         <v>1895</v>
       </c>
       <c r="C896" s="5" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E896"/>
     </row>
@@ -32079,7 +32097,7 @@
         <v>1895</v>
       </c>
       <c r="C897" s="5" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="E897"/>
     </row>
@@ -32091,7 +32109,7 @@
         <v>1895</v>
       </c>
       <c r="C898" s="5" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="E898"/>
     </row>
@@ -32103,7 +32121,7 @@
         <v>1895</v>
       </c>
       <c r="C899" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="E899"/>
     </row>
@@ -32115,7 +32133,7 @@
         <v>1895</v>
       </c>
       <c r="C900" s="5" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E900"/>
     </row>
@@ -32127,7 +32145,7 @@
         <v>1895</v>
       </c>
       <c r="C901" s="5" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="E901"/>
     </row>
@@ -32139,7 +32157,7 @@
         <v>1895</v>
       </c>
       <c r="C902" s="5" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="E902"/>
     </row>
@@ -32151,7 +32169,7 @@
         <v>1895</v>
       </c>
       <c r="C903" s="5" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="E903"/>
     </row>
@@ -32163,7 +32181,7 @@
         <v>1895</v>
       </c>
       <c r="C904" s="5" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="E904"/>
     </row>
@@ -32175,7 +32193,7 @@
         <v>1895</v>
       </c>
       <c r="C905" s="5" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="E905"/>
     </row>
@@ -32187,7 +32205,7 @@
         <v>1895</v>
       </c>
       <c r="C906" s="5" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="E906"/>
     </row>
@@ -32199,7 +32217,7 @@
         <v>1895</v>
       </c>
       <c r="C907" s="5" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="E907"/>
     </row>
@@ -32211,7 +32229,7 @@
         <v>1895</v>
       </c>
       <c r="C908" s="5" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="E908"/>
     </row>
@@ -32223,7 +32241,7 @@
         <v>1895</v>
       </c>
       <c r="C909" s="5" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="E909"/>
     </row>
@@ -32235,7 +32253,7 @@
         <v>1895</v>
       </c>
       <c r="C910" s="5" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="E910"/>
     </row>
@@ -32247,7 +32265,7 @@
         <v>1895</v>
       </c>
       <c r="C911" s="5" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="E911"/>
     </row>
@@ -32259,7 +32277,7 @@
         <v>1895</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="E912"/>
     </row>
@@ -32271,7 +32289,7 @@
         <v>1895</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E913"/>
     </row>
@@ -32283,7 +32301,7 @@
         <v>1895</v>
       </c>
       <c r="C914" s="5" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="E914"/>
     </row>
@@ -32295,7 +32313,7 @@
         <v>1895</v>
       </c>
       <c r="C915" s="5" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="E915"/>
     </row>
@@ -32307,7 +32325,7 @@
         <v>1895</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="E916"/>
     </row>
@@ -32325,7 +32343,7 @@
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" s="5" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="B918" s="5" t="s">
         <v>1895</v>
@@ -32379,53 +32397,53 @@
         <v>1895</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="E922"/>
     </row>
     <row r="923" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A923" s="5" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="B923" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="924" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="5" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="B924" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C924" s="5" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="B925" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C925" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="E925"/>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B926" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C926" s="5" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="E926"/>
     </row>
@@ -32437,7 +32455,7 @@
         <v>1895</v>
       </c>
       <c r="C927" s="5" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="E927"/>
     </row>
@@ -32461,7 +32479,7 @@
         <v>1895</v>
       </c>
       <c r="C929" s="5" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="E929"/>
     </row>
@@ -32515,7 +32533,7 @@
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" s="5" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="B934" s="5" t="s">
         <v>1895</v>
@@ -32527,7 +32545,7 @@
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" s="5" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="B935" s="5" t="s">
         <v>1895</v>
@@ -32551,25 +32569,25 @@
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" s="5" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="B937" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C937" s="5" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="E937"/>
     </row>
     <row r="938" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A938" s="5" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="B938" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C938" s="5" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="939" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32591,7 +32609,7 @@
         <v>1895</v>
       </c>
       <c r="C940" s="5" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E940"/>
     </row>
@@ -32615,7 +32633,7 @@
         <v>1895</v>
       </c>
       <c r="C942" s="5" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E942"/>
     </row>
@@ -34853,13 +34871,13 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" s="5" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="B1129" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1129" s="5" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E1129"/>
     </row>
@@ -34877,13 +34895,13 @@
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" s="5" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="B1131" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1131" s="5" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E1131"/>
     </row>
@@ -34907,7 +34925,7 @@
         <v>1895</v>
       </c>
       <c r="C1133" s="5" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="E1133"/>
     </row>
@@ -34949,13 +34967,13 @@
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1137" s="5" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="B1137" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1137" s="5" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="E1137"/>
     </row>
@@ -34979,7 +34997,7 @@
         <v>1895</v>
       </c>
       <c r="C1139" s="5" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="E1139"/>
     </row>
@@ -34991,7 +35009,7 @@
         <v>1895</v>
       </c>
       <c r="C1140" s="5" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E1140"/>
     </row>
@@ -35003,7 +35021,7 @@
         <v>1895</v>
       </c>
       <c r="C1141" s="5" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="E1141"/>
     </row>
@@ -35015,7 +35033,7 @@
         <v>1895</v>
       </c>
       <c r="C1142" s="5" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="E1142"/>
     </row>
@@ -35027,7 +35045,7 @@
         <v>1895</v>
       </c>
       <c r="C1143" s="5" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="E1143"/>
     </row>
@@ -35039,7 +35057,7 @@
         <v>1895</v>
       </c>
       <c r="C1144" s="5" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="E1144"/>
     </row>
@@ -35051,7 +35069,7 @@
         <v>1895</v>
       </c>
       <c r="C1145" s="5" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="E1145"/>
     </row>
@@ -35063,7 +35081,7 @@
         <v>1895</v>
       </c>
       <c r="C1146" s="5" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="E1146"/>
     </row>
@@ -35075,7 +35093,7 @@
         <v>1895</v>
       </c>
       <c r="C1147" s="5" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="E1147"/>
     </row>
@@ -35087,7 +35105,7 @@
         <v>1895</v>
       </c>
       <c r="C1148" s="5" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="E1148"/>
     </row>
@@ -35099,7 +35117,7 @@
         <v>1895</v>
       </c>
       <c r="C1149" s="5" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="E1149"/>
     </row>
@@ -35111,7 +35129,7 @@
         <v>1895</v>
       </c>
       <c r="C1150" s="5" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="E1150"/>
     </row>
@@ -35123,7 +35141,7 @@
         <v>1895</v>
       </c>
       <c r="C1151" s="5" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="E1151"/>
     </row>
@@ -35135,7 +35153,7 @@
         <v>1895</v>
       </c>
       <c r="C1152" s="5" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="E1152"/>
     </row>
@@ -35147,7 +35165,7 @@
         <v>1895</v>
       </c>
       <c r="C1153" s="5" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="E1153"/>
     </row>
@@ -35159,7 +35177,7 @@
         <v>1895</v>
       </c>
       <c r="C1154" s="5" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="E1154"/>
     </row>
@@ -35171,7 +35189,7 @@
         <v>1895</v>
       </c>
       <c r="C1155" s="5" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="E1155"/>
     </row>
@@ -35183,7 +35201,7 @@
         <v>1895</v>
       </c>
       <c r="C1156" s="5" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="E1156"/>
     </row>
@@ -35195,7 +35213,7 @@
         <v>1895</v>
       </c>
       <c r="C1157" s="5" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="E1157"/>
     </row>
@@ -35207,7 +35225,7 @@
         <v>1895</v>
       </c>
       <c r="C1158" s="5" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="E1158"/>
     </row>
@@ -35219,7 +35237,7 @@
         <v>1895</v>
       </c>
       <c r="C1159" s="5" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="E1159"/>
     </row>
@@ -35231,7 +35249,7 @@
         <v>1895</v>
       </c>
       <c r="C1160" s="5" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="E1160"/>
     </row>
@@ -35243,7 +35261,7 @@
         <v>1895</v>
       </c>
       <c r="C1161" s="5" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="E1161"/>
     </row>
@@ -35255,7 +35273,7 @@
         <v>1895</v>
       </c>
       <c r="C1162" s="5" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="E1162"/>
     </row>
@@ -35267,7 +35285,7 @@
         <v>1895</v>
       </c>
       <c r="C1163" s="5" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="E1163"/>
     </row>
@@ -35291,7 +35309,7 @@
         <v>1895</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="E1165"/>
     </row>
@@ -35303,7 +35321,7 @@
         <v>1895</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="E1166"/>
     </row>
@@ -35315,7 +35333,7 @@
         <v>1895</v>
       </c>
       <c r="C1167" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E1167"/>
     </row>
@@ -35327,7 +35345,7 @@
         <v>1895</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="E1168"/>
     </row>
@@ -35339,7 +35357,7 @@
         <v>1895</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E1169"/>
     </row>
@@ -35357,13 +35375,13 @@
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1171" s="5" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="B1171" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1171" s="5" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="E1171"/>
     </row>
@@ -35375,7 +35393,7 @@
         <v>1895</v>
       </c>
       <c r="C1172" s="5" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E1172"/>
     </row>
@@ -35387,7 +35405,7 @@
         <v>1895</v>
       </c>
       <c r="C1173" s="5" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="E1173"/>
     </row>
@@ -35411,7 +35429,7 @@
         <v>1895</v>
       </c>
       <c r="C1175" s="5" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="E1175"/>
     </row>
@@ -35423,19 +35441,19 @@
         <v>1895</v>
       </c>
       <c r="C1176" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="E1176"/>
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1177" s="5" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="B1177" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1177" s="5" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E1177"/>
     </row>
@@ -35662,7 +35680,7 @@
         <v>1895</v>
       </c>
       <c r="C1196" s="5" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.25">
@@ -35673,7 +35691,7 @@
         <v>1895</v>
       </c>
       <c r="C1197" s="5" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="E1197"/>
     </row>
@@ -35685,7 +35703,7 @@
         <v>1895</v>
       </c>
       <c r="C1198" s="5" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="E1198"/>
     </row>
@@ -35709,7 +35727,7 @@
         <v>1895</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="E1200"/>
     </row>
@@ -35733,19 +35751,19 @@
         <v>1895</v>
       </c>
       <c r="C1202" s="5" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E1202"/>
     </row>
     <row r="1203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1203" s="5" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="B1203" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1203" s="5" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="E1203"/>
     </row>
@@ -35757,7 +35775,7 @@
         <v>1895</v>
       </c>
       <c r="C1204" s="5" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E1204"/>
     </row>
@@ -35769,7 +35787,7 @@
         <v>1895</v>
       </c>
       <c r="C1205" s="5" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="E1205"/>
     </row>
@@ -35781,7 +35799,7 @@
         <v>1895</v>
       </c>
       <c r="C1206" s="5" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="E1206"/>
     </row>
@@ -35793,7 +35811,7 @@
         <v>1895</v>
       </c>
       <c r="C1207" s="5" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E1207"/>
     </row>
@@ -35811,13 +35829,13 @@
     </row>
     <row r="1209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1209" s="5" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="B1209" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1209" s="5" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="E1209"/>
     </row>
@@ -35829,7 +35847,7 @@
         <v>1895</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="E1210"/>
     </row>
@@ -35841,7 +35859,7 @@
         <v>1895</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E1211"/>
     </row>
@@ -35853,7 +35871,7 @@
         <v>1895</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="E1212"/>
     </row>
@@ -35865,7 +35883,7 @@
         <v>1895</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="E1213"/>
     </row>
@@ -35877,7 +35895,7 @@
         <v>1895</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E1214"/>
     </row>
@@ -35889,7 +35907,7 @@
         <v>1895</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="E1215"/>
     </row>
@@ -35901,7 +35919,7 @@
         <v>1895</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="E1216"/>
     </row>
@@ -35913,7 +35931,7 @@
         <v>1895</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="E1217"/>
     </row>
@@ -35943,13 +35961,13 @@
     </row>
     <row r="1220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1220" s="5" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="B1220" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1220" s="5" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="E1220"/>
     </row>
@@ -35967,13 +35985,13 @@
     </row>
     <row r="1222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1222" s="5" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="B1222" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1222" s="5" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="E1222"/>
     </row>
@@ -35991,37 +36009,37 @@
     </row>
     <row r="1224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1224" s="5" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="B1224" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1224" s="5" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="E1224"/>
     </row>
     <row r="1225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1225" s="5" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="B1225" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1225" s="5" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="E1225"/>
     </row>
     <row r="1226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1226" s="5" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B1226" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1226" s="5" t="s">
         <v>2520</v>
-      </c>
-      <c r="B1226" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1226" s="5" t="s">
-        <v>2522</v>
       </c>
       <c r="E1226"/>
     </row>
@@ -36201,7 +36219,7 @@
         <v>1895</v>
       </c>
       <c r="C1241" s="5" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="E1241"/>
     </row>
@@ -36375,13 +36393,13 @@
     </row>
     <row r="1256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1256" s="5" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="B1256" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1256" s="5" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E1256"/>
     </row>
@@ -36399,13 +36417,13 @@
     </row>
     <row r="1258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1258" s="5" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="B1258" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1258" s="5" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="E1258"/>
     </row>
@@ -39423,13 +39441,13 @@
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1510" s="5" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="B1510" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1510" s="5" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E1510"/>
     </row>
@@ -39441,7 +39459,7 @@
         <v>1895</v>
       </c>
       <c r="C1511" s="5" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E1511"/>
     </row>
@@ -39453,7 +39471,7 @@
         <v>1895</v>
       </c>
       <c r="C1512" s="5" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E1512"/>
     </row>
@@ -39465,7 +39483,7 @@
         <v>1895</v>
       </c>
       <c r="C1513" s="5" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="E1513"/>
     </row>
@@ -39477,7 +39495,7 @@
         <v>1895</v>
       </c>
       <c r="C1514" s="5" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E1514"/>
     </row>
@@ -39489,7 +39507,7 @@
         <v>1895</v>
       </c>
       <c r="C1515" s="5" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="E1515"/>
     </row>
@@ -39501,7 +39519,7 @@
         <v>1895</v>
       </c>
       <c r="C1516" s="5" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E1516"/>
     </row>
@@ -39525,7 +39543,7 @@
         <v>1895</v>
       </c>
       <c r="C1518" s="5" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="E1518"/>
     </row>
@@ -39537,7 +39555,7 @@
         <v>1895</v>
       </c>
       <c r="C1519" s="5" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E1519"/>
     </row>
@@ -39549,7 +39567,7 @@
         <v>1895</v>
       </c>
       <c r="C1520" s="5" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E1520"/>
     </row>
@@ -39567,13 +39585,13 @@
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1522" s="5" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="B1522" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1522" s="5" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="E1522"/>
     </row>
@@ -39591,19 +39609,19 @@
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1524" s="5" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="B1524" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1524" s="5" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="E1524"/>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1525" s="5" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="B1525" s="5" t="s">
         <v>1895</v>
@@ -39627,13 +39645,13 @@
     </row>
     <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1527" s="5" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="B1527" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1527" s="5" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="E1527"/>
     </row>
@@ -39651,13 +39669,13 @@
     </row>
     <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1529" s="5" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="B1529" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1529" s="5" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="E1529"/>
     </row>
@@ -39681,19 +39699,19 @@
         <v>1895</v>
       </c>
       <c r="C1531" s="5" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E1531"/>
     </row>
     <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1532" s="5" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="B1532" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1532" s="5" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="E1532"/>
     </row>
@@ -39711,7 +39729,7 @@
     </row>
     <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1534" s="5" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="B1534" s="5" t="s">
         <v>1895</v>
@@ -39729,7 +39747,7 @@
         <v>1895</v>
       </c>
       <c r="C1535" s="5" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E1535"/>
     </row>
@@ -39753,7 +39771,7 @@
         <v>1895</v>
       </c>
       <c r="C1537" s="5" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="E1537"/>
     </row>
@@ -39765,7 +39783,7 @@
         <v>1895</v>
       </c>
       <c r="C1538" s="5" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="E1538"/>
     </row>
@@ -39777,7 +39795,7 @@
         <v>1895</v>
       </c>
       <c r="C1539" s="5" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="E1539"/>
     </row>
@@ -39789,7 +39807,7 @@
         <v>1895</v>
       </c>
       <c r="C1540" s="5" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="E1540"/>
     </row>
@@ -39813,7 +39831,7 @@
         <v>1895</v>
       </c>
       <c r="C1542" s="5" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="E1542"/>
     </row>
@@ -39825,7 +39843,7 @@
         <v>1895</v>
       </c>
       <c r="C1543" s="5" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="E1543"/>
     </row>
@@ -39837,7 +39855,7 @@
         <v>1895</v>
       </c>
       <c r="C1544" s="5" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="E1544"/>
     </row>
@@ -39849,7 +39867,7 @@
         <v>1895</v>
       </c>
       <c r="C1545" s="5" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="E1545"/>
     </row>
@@ -39873,7 +39891,7 @@
         <v>1895</v>
       </c>
       <c r="C1547" s="5" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="E1547"/>
     </row>
@@ -39885,7 +39903,7 @@
         <v>1895</v>
       </c>
       <c r="C1548" s="5" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="E1548"/>
     </row>
@@ -39897,7 +39915,7 @@
         <v>1895</v>
       </c>
       <c r="C1549" s="5" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="E1549"/>
     </row>
@@ -39957,7 +39975,7 @@
         <v>1895</v>
       </c>
       <c r="C1554" s="5" t="s">
-        <v>2201</v>
+        <v>2738</v>
       </c>
       <c r="E1554"/>
     </row>
@@ -39969,7 +39987,7 @@
         <v>1895</v>
       </c>
       <c r="C1555" s="5" t="s">
-        <v>2200</v>
+        <v>2739</v>
       </c>
       <c r="E1555"/>
     </row>
@@ -39981,7 +39999,7 @@
         <v>1895</v>
       </c>
       <c r="C1556" s="5" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E1556"/>
     </row>
@@ -39993,7 +40011,7 @@
         <v>1895</v>
       </c>
       <c r="C1557" s="5" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E1557"/>
     </row>
@@ -40005,7 +40023,7 @@
         <v>1895</v>
       </c>
       <c r="C1558" s="5" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="E1558"/>
     </row>
@@ -40017,7 +40035,7 @@
         <v>1895</v>
       </c>
       <c r="C1559" s="5" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E1559"/>
     </row>
@@ -40059,7 +40077,7 @@
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1563" s="5" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="B1563" s="5" t="s">
         <v>1895</v>
@@ -40083,25 +40101,25 @@
     </row>
     <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1565" s="5" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="B1565" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1565" s="5" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="E1565"/>
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1566" s="5" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B1566" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1566" s="5" t="s">
         <v>2480</v>
-      </c>
-      <c r="B1566" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1566" s="5" t="s">
-        <v>2482</v>
       </c>
       <c r="E1566"/>
     </row>
@@ -40113,19 +40131,19 @@
         <v>1895</v>
       </c>
       <c r="C1567" s="5" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="E1567"/>
     </row>
     <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1568" s="5" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="B1568" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1568" s="5" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="E1568"/>
     </row>
@@ -40143,13 +40161,13 @@
     </row>
     <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1570" s="5" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="B1570" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1570" s="5" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="E1570"/>
     </row>
@@ -40167,13 +40185,13 @@
     </row>
     <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1572" s="5" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="B1572" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1572" s="5" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="E1572"/>
     </row>
@@ -40191,13 +40209,13 @@
     </row>
     <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1574" s="5" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="B1574" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1574" s="5" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="E1574"/>
     </row>
@@ -40215,13 +40233,13 @@
     </row>
     <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1576" s="5" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="B1576" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1576" s="5" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="E1576"/>
     </row>
@@ -40233,7 +40251,7 @@
         <v>1895</v>
       </c>
       <c r="C1577" s="5" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="E1577"/>
     </row>
@@ -40245,7 +40263,7 @@
         <v>1895</v>
       </c>
       <c r="C1578" s="5" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="E1578"/>
     </row>
@@ -40269,7 +40287,7 @@
         <v>1895</v>
       </c>
       <c r="C1580" s="5" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E1580"/>
     </row>
@@ -40281,7 +40299,7 @@
         <v>1895</v>
       </c>
       <c r="C1581" s="5" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="E1581"/>
     </row>
@@ -40293,7 +40311,7 @@
         <v>1895</v>
       </c>
       <c r="C1582" s="5" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E1582"/>
     </row>
@@ -40305,7 +40323,7 @@
         <v>1895</v>
       </c>
       <c r="C1583" s="5" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E1583"/>
     </row>
@@ -40317,7 +40335,7 @@
         <v>1895</v>
       </c>
       <c r="C1584" s="5" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E1584"/>
     </row>
@@ -40335,13 +40353,13 @@
     </row>
     <row r="1586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1586" s="5" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="B1586" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1586" s="5" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="E1586"/>
     </row>
@@ -40365,19 +40383,19 @@
         <v>1895</v>
       </c>
       <c r="C1588" s="5" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="E1588"/>
     </row>
     <row r="1589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1589" s="5" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="B1589" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1589" s="5" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="E1589"/>
     </row>
@@ -40401,7 +40419,7 @@
         <v>1895</v>
       </c>
       <c r="C1591" s="5" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="E1591"/>
     </row>
@@ -40413,7 +40431,7 @@
         <v>1895</v>
       </c>
       <c r="C1592" s="5" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="E1592"/>
     </row>
@@ -40425,7 +40443,7 @@
         <v>1895</v>
       </c>
       <c r="C1593" s="5" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="E1593"/>
     </row>
@@ -40437,7 +40455,7 @@
         <v>1895</v>
       </c>
       <c r="C1594" s="5" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="E1594"/>
     </row>
@@ -40449,31 +40467,31 @@
         <v>1895</v>
       </c>
       <c r="C1595" s="5" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="E1595"/>
     </row>
     <row r="1596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1596" s="5" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1596" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1596" s="5" t="s">
         <v>2483</v>
-      </c>
-      <c r="B1596" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1596" s="5" t="s">
-        <v>2485</v>
       </c>
       <c r="E1596"/>
     </row>
     <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1597" s="5" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="B1597" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1597" s="5" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="E1597"/>
     </row>
@@ -40503,13 +40521,13 @@
     </row>
     <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1600" s="5" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="B1600" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1600" s="5" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="E1600"/>
     </row>
@@ -40587,57 +40605,57 @@
     </row>
     <row r="1607" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1607" s="2" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="B1607" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1607" s="5" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1608" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1608" s="2" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="B1608" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1608" s="5" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1609" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1609" s="2" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="B1609" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1609" s="5" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1610" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1610" s="2" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="B1610" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1610" s="5" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1611" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1611" s="2" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="B1611" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1611" s="5" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
@@ -40858,13 +40876,13 @@
     </row>
     <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1630" s="5" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="B1630" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1630" s="5" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="E1630"/>
     </row>
@@ -40876,7 +40894,7 @@
         <v>1895</v>
       </c>
       <c r="C1631" s="5" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E1631"/>
     </row>
@@ -40888,7 +40906,7 @@
         <v>1895</v>
       </c>
       <c r="C1632" s="5" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E1632"/>
     </row>
@@ -40900,7 +40918,7 @@
         <v>1895</v>
       </c>
       <c r="C1633" s="5" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="E1633"/>
     </row>
@@ -40912,7 +40930,7 @@
         <v>1895</v>
       </c>
       <c r="C1634" s="5" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="E1634"/>
     </row>
@@ -40924,7 +40942,7 @@
         <v>1895</v>
       </c>
       <c r="C1635" s="5" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="E1635"/>
     </row>
@@ -40936,7 +40954,7 @@
         <v>1895</v>
       </c>
       <c r="C1636" s="5" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="E1636"/>
     </row>
@@ -41109,13 +41127,13 @@
     </row>
     <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1651" s="5" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="B1651" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1651" s="5" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="E1651"/>
     </row>
@@ -41133,7 +41151,7 @@
     </row>
     <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1653" s="5" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="B1653" s="5" t="s">
         <v>1895</v>
@@ -41157,7 +41175,7 @@
     </row>
     <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" s="5" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="B1655" s="5" t="s">
         <v>1895</v>
@@ -41181,25 +41199,25 @@
     </row>
     <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1657" s="5" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="B1657" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1657" s="5" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="E1657"/>
     </row>
     <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1658" s="5" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="B1658" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1658" s="5" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="E1658"/>
     </row>
@@ -41217,13 +41235,13 @@
     </row>
     <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1660" s="5" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="B1660" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1660" s="5" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="E1660"/>
     </row>
@@ -41235,7 +41253,7 @@
         <v>1895</v>
       </c>
       <c r="C1661" s="5" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E1661"/>
     </row>
@@ -41247,7 +41265,7 @@
         <v>1895</v>
       </c>
       <c r="C1662" s="5" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E1662"/>
     </row>
@@ -41259,7 +41277,7 @@
         <v>1895</v>
       </c>
       <c r="C1663" s="5" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="E1663"/>
     </row>
@@ -41271,7 +41289,7 @@
         <v>1895</v>
       </c>
       <c r="C1664" s="5" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E1664"/>
     </row>
@@ -41283,7 +41301,7 @@
         <v>1895</v>
       </c>
       <c r="C1665" s="5" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="E1665"/>
     </row>
@@ -41295,7 +41313,7 @@
         <v>1895</v>
       </c>
       <c r="C1666" s="5" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="E1666"/>
     </row>
@@ -41355,19 +41373,19 @@
         <v>1895</v>
       </c>
       <c r="C1671" s="5" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="E1671"/>
     </row>
     <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1672" s="2" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="B1672" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1672" s="5" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="E1672"/>
     </row>
@@ -41391,7 +41409,7 @@
         <v>1895</v>
       </c>
       <c r="C1674" s="5" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="E1674"/>
     </row>
@@ -41403,7 +41421,7 @@
         <v>1895</v>
       </c>
       <c r="C1675" s="5" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="E1675"/>
     </row>
@@ -41415,7 +41433,7 @@
         <v>1895</v>
       </c>
       <c r="C1676" s="5" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="E1676"/>
     </row>
@@ -41427,7 +41445,7 @@
         <v>1895</v>
       </c>
       <c r="C1677" s="5" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
@@ -41438,7 +41456,7 @@
         <v>1895</v>
       </c>
       <c r="C1678" s="5" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
@@ -41509,24 +41527,24 @@
     </row>
     <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="B1685" t="s">
         <v>1895</v>
       </c>
       <c r="C1685" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1686" s="5" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="B1686" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1686" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
@@ -41542,13 +41560,13 @@
     </row>
     <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="B1688" t="s">
         <v>1895</v>
       </c>
       <c r="C1688" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
@@ -41575,18 +41593,18 @@
     </row>
     <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B1691" t="s">
         <v>1895</v>
       </c>
       <c r="C1691" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B1692" t="s">
         <v>1677</v>
@@ -41597,7 +41615,7 @@
     </row>
     <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="B1693" t="s">
         <v>1895</v>
@@ -41608,7 +41626,7 @@
     </row>
     <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B1694" t="s">
         <v>1677</v>
@@ -41619,18 +41637,18 @@
     </row>
     <row r="1695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="B1695" t="s">
         <v>1895</v>
       </c>
       <c r="C1695" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B1696" t="s">
         <v>1677</v>
@@ -41641,18 +41659,18 @@
     </row>
     <row r="1697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="B1697" t="s">
         <v>1895</v>
       </c>
       <c r="C1697" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B1698" t="s">
         <v>1677</v>
@@ -41663,18 +41681,18 @@
     </row>
     <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="B1699" t="s">
         <v>1895</v>
       </c>
       <c r="C1699" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B1700" t="s">
         <v>1677</v>
@@ -41685,62 +41703,62 @@
     </row>
     <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="B1701" t="s">
         <v>1895</v>
       </c>
       <c r="C1701" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B1702" t="s">
         <v>1677</v>
       </c>
       <c r="C1702" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B1703" t="s">
         <v>1895</v>
       </c>
       <c r="C1703" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B1704" t="s">
         <v>1677</v>
       </c>
       <c r="C1704" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="B1705" t="s">
         <v>1895</v>
       </c>
       <c r="C1705" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B1706" t="s">
         <v>1677</v>
@@ -41751,7 +41769,7 @@
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="B1707" t="s">
         <v>1895</v>
@@ -41762,7 +41780,7 @@
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B1708" t="s">
         <v>1677</v>
@@ -41773,7 +41791,7 @@
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B1709" t="s">
         <v>1895</v>
@@ -41784,7 +41802,7 @@
     </row>
     <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B1710" t="s">
         <v>1677</v>
@@ -41795,7 +41813,7 @@
     </row>
     <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="B1711" t="s">
         <v>1895</v>
@@ -41806,40 +41824,40 @@
     </row>
     <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B1712" t="s">
         <v>1895</v>
       </c>
       <c r="C1712" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1713" t="s">
         <v>2550</v>
-      </c>
-      <c r="B1713" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1713" t="s">
-        <v>2552</v>
       </c>
     </row>
     <row r="1714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B1714" t="s">
         <v>1895</v>
       </c>
       <c r="C1714" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="B1715" t="s">
         <v>1677</v>
@@ -41850,7 +41868,7 @@
     </row>
     <row r="1716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1716" t="s">
         <v>1677</v>
@@ -41861,18 +41879,18 @@
     </row>
     <row r="1717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="B1717" t="s">
         <v>1895</v>
       </c>
       <c r="C1717" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1718" t="s">
         <v>1895</v>
@@ -41883,7 +41901,7 @@
     </row>
     <row r="1719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="B1719" t="s">
         <v>1677</v>
@@ -41894,970 +41912,1014 @@
     </row>
     <row r="1720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="B1720" t="s">
         <v>1895</v>
       </c>
       <c r="C1720" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1721" t="s">
         <v>2562</v>
-      </c>
-      <c r="B1721" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1721" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="1722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="B1722" t="s">
         <v>1677</v>
       </c>
       <c r="C1722" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1723" t="s">
         <v>2572</v>
-      </c>
-      <c r="B1723" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1723" t="s">
-        <v>2574</v>
       </c>
     </row>
     <row r="1724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1724" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="B1724" t="s">
         <v>1677</v>
       </c>
       <c r="C1724" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1725" s="5" t="s">
+        <v>2575</v>
+      </c>
+      <c r="B1725" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1725" s="5" t="s">
         <v>2577</v>
-      </c>
-      <c r="B1725" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1725" s="5" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="1726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1726" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B1726" t="s">
         <v>1677</v>
       </c>
       <c r="C1726" s="5" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="B1727" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C1727" s="5" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="B1728" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C1728" s="5" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="B1729" s="5" t="s">
         <v>1677</v>
       </c>
       <c r="C1729" s="5" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1730" s="5" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="B1730" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1730" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1731" s="5" t="s">
-        <v>2589</v>
+        <v>2732</v>
       </c>
       <c r="B1731" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1731" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="1732" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1677</v>
+      </c>
+      <c r="C1731" s="5" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1732" s="5" t="s">
-        <v>2590</v>
+        <v>2732</v>
       </c>
       <c r="B1732" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="C1732" t="s">
-        <v>2586</v>
+      <c r="C1732" s="5" t="s">
+        <v>2734</v>
       </c>
     </row>
     <row r="1733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1733" s="5" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B1733" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1733" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1734" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B1734" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1734" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1735" t="s">
-        <v>2597</v>
-      </c>
-      <c r="B1735" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>2594</v>
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1734" s="5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1734" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1734" s="5" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1735" s="5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B1735" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1735" s="5" t="s">
+        <v>2737</v>
       </c>
     </row>
     <row r="1736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1736" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B1736" t="s">
-        <v>1677</v>
+      <c r="A1736" s="5" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B1736" s="5" t="s">
+        <v>1895</v>
       </c>
       <c r="C1736" t="s">
-        <v>2595</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1737" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1737" t="s">
-        <v>2598</v>
-      </c>
-      <c r="B1737" t="s">
+      <c r="A1737" s="5" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B1737" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1737" t="s">
-        <v>2600</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B1738" s="5" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1738" t="s">
         <v>1677</v>
       </c>
       <c r="C1738" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1739" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1739" s="5" t="s">
-        <v>2599</v>
-      </c>
-      <c r="B1739" s="5" t="s">
+      <c r="A1739" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B1739" t="s">
         <v>1895</v>
       </c>
       <c r="C1739" t="s">
-        <v>2601</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
-        <v>2617</v>
+        <v>2596</v>
       </c>
       <c r="B1740" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1740" t="s">
-        <v>2619</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>2618</v>
+        <v>2596</v>
       </c>
       <c r="B1741" t="s">
         <v>1895</v>
       </c>
       <c r="C1741" t="s">
-        <v>2620</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1742" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1742" s="5" t="s">
-        <v>2617</v>
+      <c r="A1742" t="s">
+        <v>2597</v>
       </c>
       <c r="B1742" s="5" t="s">
         <v>1677</v>
       </c>
-      <c r="C1742" s="5" t="s">
-        <v>2621</v>
+      <c r="C1742" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="1743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1743" s="5" t="s">
-        <v>2618</v>
+        <v>2597</v>
       </c>
       <c r="B1743" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1743" s="5" t="s">
-        <v>2622</v>
+        <v>1895</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="1744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
-        <v>2634</v>
+        <v>2615</v>
       </c>
       <c r="B1744" t="s">
         <v>1895</v>
       </c>
       <c r="C1744" t="s">
-        <v>2645</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
-        <v>2624</v>
+        <v>2616</v>
       </c>
       <c r="B1745" t="s">
         <v>1895</v>
       </c>
       <c r="C1745" t="s">
-        <v>2644</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1746" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1746" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B1746" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>2646</v>
+      <c r="A1746" s="5" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1746" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1746" s="5" t="s">
+        <v>2619</v>
       </c>
     </row>
     <row r="1747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1747" s="5" t="s">
-        <v>2634</v>
+        <v>2616</v>
       </c>
       <c r="B1747" s="5" t="s">
         <v>1677</v>
       </c>
-      <c r="C1747" t="s">
+      <c r="C1747" s="5" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1751" s="5" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1751" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1752" s="5" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B1752" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1753" s="5" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B1753" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1753" t="s">
         <v>2647</v>
       </c>
     </row>
-    <row r="1748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1748" s="5" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B1748" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1749" s="5" t="s">
-        <v>2487</v>
-      </c>
-      <c r="B1749" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1749" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1750" s="5" t="s">
+    <row r="1754" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1754" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1754" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1754" s="5" t="s">
         <v>2713</v>
       </c>
-      <c r="B1750" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1750" s="5" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="1751" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1751" s="5" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B1751" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1751" s="5" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1752" s="5" t="s">
+    </row>
+    <row r="1755" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1755" s="5" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B1755" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1755" s="5" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1756" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B1756" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1756" s="5" t="s">
         <v>2714</v>
       </c>
-      <c r="B1752" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1752" s="5" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1753" s="5" t="s">
-        <v>2714</v>
-      </c>
-      <c r="B1753" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1753" s="5" t="s">
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1754" s="5" t="s">
-        <v>2650</v>
-      </c>
-      <c r="B1754" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1754" s="5" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1755" s="5" t="s">
-        <v>2654</v>
-      </c>
-      <c r="B1755" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1755" s="5" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1756" s="5" t="s">
-        <v>2657</v>
-      </c>
-      <c r="B1756" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1756" s="5" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1757" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1757" s="5" t="s">
-        <v>2658</v>
+        <v>2712</v>
       </c>
       <c r="B1757" s="5" t="s">
-        <v>1677</v>
+        <v>1895</v>
       </c>
       <c r="C1757" s="5" t="s">
-        <v>2660</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="1758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1758" s="5" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B1758" s="5" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1758" s="5" t="s">
-        <v>2663</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1759" s="5" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="B1759" s="5" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1759" s="5" t="s">
-        <v>2664</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1760" s="5" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B1760" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1760" s="5" t="s">
         <v>2657</v>
-      </c>
-      <c r="B1760" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1760" s="5" t="s">
-        <v>2665</v>
       </c>
     </row>
     <row r="1761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1761" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1761" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1761" s="5" t="s">
         <v>2658</v>
-      </c>
-      <c r="B1761" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1761" s="5" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="1762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1762" s="5" t="s">
-        <v>2668</v>
-      </c>
-      <c r="B1762" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1762" t="s">
-        <v>2670</v>
+        <v>2648</v>
+      </c>
+      <c r="B1762" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1762" s="5" t="s">
+        <v>2661</v>
       </c>
     </row>
     <row r="1763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1763" s="5" t="s">
-        <v>2671</v>
-      </c>
-      <c r="B1763" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1763" t="s">
-        <v>2673</v>
+        <v>2652</v>
+      </c>
+      <c r="B1763" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1763" s="5" t="s">
+        <v>2662</v>
       </c>
     </row>
     <row r="1764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1764" s="5" t="s">
-        <v>2668</v>
+        <v>2655</v>
       </c>
       <c r="B1764" s="5" t="s">
         <v>1895</v>
       </c>
-      <c r="C1764" t="s">
-        <v>2674</v>
+      <c r="C1764" s="5" t="s">
+        <v>2663</v>
       </c>
     </row>
     <row r="1765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1765" s="5" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B1765" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1765" s="5" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1766" s="5" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1767" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1767" t="s">
         <v>2671</v>
       </c>
-      <c r="B1765" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1765" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1766" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B1766" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1766" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1767" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B1767" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1767" t="s">
-        <v>2677</v>
-      </c>
     </row>
     <row r="1768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1768" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B1768" t="s">
-        <v>1677</v>
+      <c r="A1768" s="5" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B1768" s="5" t="s">
+        <v>1895</v>
       </c>
       <c r="C1768" t="s">
-        <v>2678</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1769" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1769" t="s">
-        <v>2653</v>
-      </c>
-      <c r="B1769" t="s">
+      <c r="A1769" s="5" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B1769" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1769" t="s">
-        <v>2679</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
-        <v>2680</v>
-      </c>
-      <c r="B1770" s="5" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B1770" t="s">
         <v>1677</v>
       </c>
       <c r="C1770" t="s">
-        <v>2684</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1771" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B1771" s="5" t="s">
-        <v>1677</v>
+        <v>2674</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1895</v>
       </c>
       <c r="C1771" t="s">
-        <v>2685</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B1772" s="5" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1772" t="s">
         <v>1677</v>
       </c>
       <c r="C1772" t="s">
-        <v>2686</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1774" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1775" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1775" t="s">
         <v>2683</v>
       </c>
-      <c r="B1773" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1773" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1774" s="5" t="s">
+    </row>
+    <row r="1776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
         <v>2680</v>
       </c>
-      <c r="B1774" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1774" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1775" s="5" t="s">
+      <c r="B1776" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
         <v>2681</v>
       </c>
-      <c r="B1775" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1775" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1776" s="5" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B1776" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1776" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1777" s="5" t="s">
-        <v>2683</v>
-      </c>
       <c r="B1777" s="5" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1777" t="s">
-        <v>2691</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1778" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1778" t="s">
-        <v>2692</v>
-      </c>
-      <c r="B1778" t="s">
-        <v>1677</v>
+      <c r="A1778" s="5" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B1778" s="5" t="s">
+        <v>1895</v>
       </c>
       <c r="C1778" t="s">
-        <v>2693</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="1779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1779" s="5" t="s">
-        <v>2692</v>
+        <v>2679</v>
       </c>
       <c r="B1779" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1779" t="s">
-        <v>2694</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="1780" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1780" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B1780" t="s">
-        <v>1677</v>
+      <c r="A1780" s="5" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B1780" s="5" t="s">
+        <v>1895</v>
       </c>
       <c r="C1780" t="s">
-        <v>2699</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="1781" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1781" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B1781" t="s">
-        <v>1677</v>
+      <c r="A1781" s="5" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1781" s="5" t="s">
+        <v>1895</v>
       </c>
       <c r="C1781" t="s">
-        <v>2700</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="1782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1783" s="5" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B1783" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1784" t="s">
         <v>2697</v>
       </c>
-      <c r="B1782" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1782" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1783" t="s">
+    </row>
+    <row r="1785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1785" t="s">
         <v>2698</v>
       </c>
-      <c r="B1783" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1783" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1784" s="5" t="s">
+    </row>
+    <row r="1786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
         <v>2695</v>
       </c>
-      <c r="B1784" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1784" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1785" s="5" t="s">
+      <c r="B1786" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
         <v>2696</v>
       </c>
-      <c r="B1785" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1785" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1786" s="5" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B1786" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1786" t="s">
+      <c r="B1787" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1788" s="5" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B1788" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1788" t="s">
         <v>2703</v>
       </c>
     </row>
-    <row r="1787" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1787" s="5" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B1787" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1787" t="s">
+    <row r="1789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1789" s="5" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B1789" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1789" t="s">
         <v>2704</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1788" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B1788" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1788" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1789" t="s">
-        <v>2708</v>
-      </c>
-      <c r="B1789" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1789" t="s">
-        <v>2710</v>
       </c>
     </row>
     <row r="1790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1790" s="5" t="s">
-        <v>2707</v>
+        <v>2695</v>
       </c>
       <c r="B1790" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1790" t="s">
-        <v>2712</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="1791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1791" s="5" t="s">
-        <v>2708</v>
+        <v>2696</v>
       </c>
       <c r="B1791" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1791" t="s">
-        <v>2711</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>2721</v>
+        <v>2705</v>
       </c>
       <c r="B1792" t="s">
         <v>1677</v>
       </c>
       <c r="C1792" t="s">
-        <v>2721</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="1793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>2721</v>
+        <v>2706</v>
       </c>
       <c r="B1793" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1793" t="s">
-        <v>2722</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="1794" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1794" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B1794" t="s">
+      <c r="A1794" s="5" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B1794" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1794" t="s">
-        <v>1640</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="1795" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1795" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B1795" t="s">
+      <c r="A1795" s="5" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1795" s="5" t="s">
         <v>1895</v>
       </c>
       <c r="C1795" t="s">
-        <v>1705</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="1796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>1672</v>
+        <v>2719</v>
       </c>
       <c r="B1796" t="s">
-        <v>1895</v>
+        <v>1677</v>
       </c>
       <c r="C1796" t="s">
-        <v>1910</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="1797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>2700</v>
+        <v>2719</v>
       </c>
       <c r="B1797" t="s">
         <v>1895</v>
       </c>
       <c r="C1797" t="s">
-        <v>2706</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="1798" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1798" s="5" t="s">
+      <c r="A1798" t="s">
         <v>1640</v>
       </c>
-      <c r="B1798" s="5" t="s">
-        <v>1677</v>
+      <c r="B1798" t="s">
+        <v>1895</v>
       </c>
       <c r="C1798" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="1799" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1799" s="5" t="s">
+      <c r="A1799" t="s">
         <v>1705</v>
       </c>
-      <c r="B1799" s="5" t="s">
-        <v>1677</v>
+      <c r="B1799" t="s">
+        <v>1895</v>
       </c>
       <c r="C1799" t="s">
         <v>1705</v>
       </c>
     </row>
     <row r="1800" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1800" s="5" t="s">
+      <c r="A1800" t="s">
         <v>1672</v>
       </c>
-      <c r="B1800" s="5" t="s">
-        <v>1677</v>
+      <c r="B1800" t="s">
+        <v>1895</v>
       </c>
       <c r="C1800" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1802" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1802" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1803" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1803" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1804" s="5" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="1801" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1801" s="5" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B1801" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1801" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1802" t="s">
+      <c r="B1804" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1805" s="5" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1805" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1806" s="5" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B1807" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1810" s="5" t="s">
         <v>2727</v>
       </c>
-      <c r="B1802" s="5" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1803" t="s">
+      <c r="B1810" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1811" s="5" t="s">
         <v>2727</v>
       </c>
-      <c r="B1803" s="5" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1803" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1804" t="s">
+      <c r="B1811" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1811" t="s">
         <v>2728</v>
-      </c>
-      <c r="B1804" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1804" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1805" t="s">
-        <v>2728</v>
-      </c>
-      <c r="B1805" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1805" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1806" s="5" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B1806" t="s">
-        <v>1895</v>
-      </c>
-      <c r="C1806" t="s">
-        <v>2732</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1807" s="5" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B1807" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1807" t="s">
-        <v>2730</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Repository Setup.xlsx
+++ b/resources/Repository Setup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="14565" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attributes" sheetId="1" r:id="rId1"/>
@@ -21063,8 +21063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21686,7 +21686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1530" workbookViewId="0">
+    <sheetView topLeftCell="A1530" workbookViewId="0">
       <selection activeCell="C1556" sqref="C1556"/>
     </sheetView>
   </sheetViews>
